--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.677</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.085</v>
+        <v>17.959</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2309081872.642</v>
+        <v>-0.274</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1283478.019</v>
+        <v>30.146</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.519</v>
+        <v>14.917</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1287537.661716241</v>
+        <v>21.75106338589359</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1389745.958423726</v>
+        <v>21.82600833603674</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-255933.3900395712</v>
+        <v>21.84397074934891</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1521507.56780453</v>
+        <v>21.75503441352162</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-351979.8434025735</v>
+        <v>21.80668692915652</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-48607.23641653244</v>
+        <v>21.82454189418823</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1971462.20000867</v>
+        <v>21.79308150108634</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>232141.2988663802</v>
+        <v>21.83425901458946</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>581283.1286315595</v>
+        <v>21.84761470786189</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-947136.9676690985</v>
+        <v>21.83622812654766</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-651024.9753571983</v>
+        <v>21.85959443274503</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-503802.0518809977</v>
+        <v>21.87728932830628</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-371678.8615072815</v>
+        <v>21.75305744557856</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-821844.2790660575</v>
+        <v>21.82776155007493</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-34877.0181292937</v>
+        <v>21.85263248885716</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-412641.5233235154</v>
+        <v>21.73310095500211</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>137103.7716225733</v>
+        <v>21.8458998196202</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>539645.5581849694</v>
+        <v>21.88019855878702</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-611635.1908101259</v>
+        <v>21.71852413504964</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-418489.5689379013</v>
+        <v>21.80329823370557</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-299491.1233800951</v>
+        <v>21.83853925194486</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1271935.720668273</v>
+        <v>21.77796327087537</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-106427.5698765429</v>
+        <v>21.84516132177578</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-700887.1394108902</v>
+        <v>21.77089769430819</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-172580.3662441337</v>
+        <v>21.86152687233384</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>73967.37317582702</v>
+        <v>21.87918449073278</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-1373543.437902217</v>
+        <v>21.78666849324328</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>514376.762168182</v>
+        <v>21.85310656720398</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>534952.8265457001</v>
+        <v>21.87013563550558</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-1544918.519282145</v>
+        <v>21.82960868702044</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1325268.801551906</v>
+        <v>21.88294323684901</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1261810.288294788</v>
+        <v>21.89552396877056</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>810619.574414229</v>
+        <v>21.90487303570548</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1022542.819850645</v>
+        <v>21.93220236466454</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1151312.241734411</v>
+        <v>21.95109781194446</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>110233.800378524</v>
+        <v>21.80518817730345</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>762189.3593285364</v>
+        <v>21.90069362075909</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1029856.438953282</v>
+        <v>21.92426233566646</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-353861.6124647858</v>
+        <v>21.77407416282691</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>582155.8910376925</v>
+        <v>21.90976105693877</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>776471.7744670947</v>
+        <v>21.94511208924278</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-523980.0798124658</v>
+        <v>21.77658284281674</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>492049.1889529345</v>
+        <v>21.88341709526476</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>847769.9866828799</v>
+        <v>21.91919162726939</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1208734.985832862</v>
+        <v>21.92819787759603</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1405343.070834788</v>
+        <v>21.76391047396682</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-601271.2555634043</v>
+        <v>21.85448633453789</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-307922.033782511</v>
+        <v>21.87212031289243</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1701878.551425776</v>
+        <v>21.78262814609644</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>387973.3800171225</v>
+        <v>21.85010050470651</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>548328.2412903525</v>
+        <v>21.86715670677761</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-1780451.711545257</v>
+        <v>21.8246235591637</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1372627.825836264</v>
+        <v>21.87887014045728</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1451853.191750673</v>
+        <v>21.89152016274347</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>973304.8152419195</v>
+        <v>21.90070314341221</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1091981.282673071</v>
+        <v>21.92783852163358</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1384998.662352092</v>
+        <v>21.94716127301378</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-617111.425728069</v>
+        <v>21.80108473303167</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>322581.179046053</v>
+        <v>21.89794280152347</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>664098.5906642905</v>
+        <v>21.92144404227946</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-734208.93271619</v>
+        <v>21.76572542610793</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>275459.3400391386</v>
+        <v>21.90113254438857</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>613841.9714939904</v>
+        <v>21.93633230460981</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-719077.2870339361</v>
+        <v>21.77315520197091</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>347096.1279903153</v>
+        <v>21.88109811053731</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>983730.1971704083</v>
+        <v>21.91678253552856</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-997395.7111850453</v>
+        <v>21.83792894283124</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1147393.748518617</v>
+        <v>21.92421382137836</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-2977463.886893791</v>
+        <v>21.76947166813504</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-1792111.984424461</v>
+        <v>21.84206602829551</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-516536.0162715685</v>
+        <v>21.85944209422387</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-2206542.280433742</v>
+        <v>21.78384423785334</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>684170.6943300193</v>
+        <v>21.83647179922867</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1386190.494790337</v>
+        <v>21.85385796102443</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-2819886.224538579</v>
+        <v>21.81658570329141</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1525777.809868797</v>
+        <v>21.85875607573875</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2196924.208569438</v>
+        <v>21.87188872145947</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>629639.4943278568</v>
+        <v>21.86805894262078</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>739587.3923256219</v>
+        <v>21.89036001674315</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1280653.652370151</v>
+        <v>21.90837468621281</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-1116578.307745853</v>
+        <v>21.78853963021478</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-3300.273258710994</v>
+        <v>21.86423086880401</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1080407.656757916</v>
+        <v>21.88825848578111</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-1313201.538534434</v>
+        <v>21.76278570714669</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>138329.7773132419</v>
+        <v>21.87159572116317</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>952210.4764972947</v>
+        <v>21.90438540602072</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-868967.5646272285</v>
+        <v>21.76530974195532</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>337876.4783168886</v>
+        <v>21.85029744430955</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1318549.592613366</v>
+        <v>21.88412322583655</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-1445729.003240636</v>
+        <v>21.81653928028605</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1157741.399869907</v>
+        <v>21.88424990884051</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>379729.8831089854</v>
+        <v>21.8723696036032</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-53988.58685587546</v>
+        <v>21.858713673741</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>708869.1667499177</v>
+        <v>21.90568423619109</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>991091.4595880028</v>
+        <v>21.93920472925937</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-528887.4816605555</v>
+        <v>21.73938547393536</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-203056.9082453672</v>
+        <v>21.86621723470446</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>59235.59443645224</v>
+        <v>21.91051041628353</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-465682.4122781878</v>
+        <v>21.72313081330908</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-124665.7504195463</v>
+        <v>21.85475609947281</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>467909.413421572</v>
+        <v>21.89536603466512</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-638386.7429095836</v>
+        <v>21.70607469748114</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-450120.2198467996</v>
+        <v>21.80975015026366</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-165730.8554607162</v>
+        <v>21.85240270086488</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-1175730.591882817</v>
+        <v>21.78391352758035</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-4703.770629910535</v>
+        <v>21.86676086830697</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>737515.1866236605</v>
+        <v>21.89983893838698</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-36342.30067521882</v>
+        <v>21.91054500961521</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>756815.8263979685</v>
+        <v>21.96270064881328</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1170693.27420449</v>
+        <v>22.00326324542778</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-632376.3739940478</v>
+        <v>21.76038783355265</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-142999.9696841692</v>
+        <v>21.91413619134806</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>208889.4146636587</v>
+        <v>21.96832385499054</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1845285.820300661</v>
+        <v>21.95572646586389</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>959562.3227432669</v>
+        <v>21.97335631115131</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1377818.134766547</v>
+        <v>22.02707704418389</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1638243.876777115</v>
+        <v>22.06337782016942</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-76317.95520204034</v>
+        <v>21.83140193904667</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1153503.600481753</v>
+        <v>21.98970923607068</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1281293.27072003</v>
+        <v>22.03397084067141</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-122803.9373567556</v>
+        <v>21.78556736414954</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>720175.3490580686</v>
+        <v>21.94272682747051</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>994660.7482648584</v>
+        <v>21.98427628804921</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-411647.5046079391</v>
+        <v>21.78922742968055</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>774570.8741297086</v>
+        <v>21.9177025909831</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1012249.058356934</v>
+        <v>21.96075670932192</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-566572.6936359204</v>
+        <v>21.87469767943928</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1627419.000939355</v>
+        <v>21.97790419149979</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2179969.146572404</v>
+        <v>22.01118090973561</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1522794.683063861</v>
+        <v>22.06310609673075</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1817964.501785106</v>
+        <v>22.12223964745545</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2112551.102162884</v>
+        <v>22.16591852353178</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>90664.0358901877</v>
+        <v>21.88682172865948</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1485046.137486883</v>
+        <v>22.07583003477906</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1634937.958378939</v>
+        <v>22.12984507676077</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2076062.589872863</v>
+        <v>21.95173291659529</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>691661.0789866695</v>
+        <v>21.96902307232122</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1005223.738683269</v>
+        <v>22.02202574240078</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1507813.982212516</v>
+        <v>22.05875273299705</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-472941.015632072</v>
+        <v>21.82766832216813</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>986130.9212805441</v>
+        <v>21.98724546258859</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-460490.3600354028</v>
+        <v>21.78358753954477</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>558547.7078031852</v>
+        <v>21.94020303737135</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>972971.9343352129</v>
+        <v>21.9813415041262</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-637491.3632635023</v>
+        <v>21.79335284182931</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>747575.8959356166</v>
+        <v>21.92271204934381</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1206122.033180433</v>
+        <v>21.96537194100203</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-748000.0627471629</v>
+        <v>21.87639163744205</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1735001.27956228</v>
+        <v>21.98043335087979</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2512650.283124458</v>
+        <v>22.0134588613119</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1520968.641492961</v>
+        <v>22.06622961986299</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1750397.341558529</v>
+        <v>22.12452251942222</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2250317.02572111</v>
+        <v>22.1684345794258</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-252352.1546705484</v>
+        <v>21.89113811157617</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1443544.651259919</v>
+        <v>22.08106432503591</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1736364.242647376</v>
+        <v>22.13452119692684</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2557281.192588607</v>
+        <v>21.91051201578421</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>143295.9476441081</v>
+        <v>21.90727611510819</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>672838.1668849066</v>
+        <v>21.95126238497372</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1537493.028691692</v>
+        <v>21.98446127467232</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-712108.7493914777</v>
+        <v>21.79425100690513</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1011364.71552677</v>
+        <v>21.92032984318177</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1542641.896163644</v>
+        <v>21.96281895353311</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-847172.742839431</v>
+        <v>21.77353770878432</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>711028.9296756601</v>
+        <v>21.89999018213673</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1714298.465831739</v>
+        <v>21.93830926471879</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-692212.0208827062</v>
+        <v>21.77683156996488</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>946448.1683336102</v>
+        <v>21.87964091852411</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1914342.765670408</v>
+        <v>21.91995908463434</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-1121085.516038177</v>
+        <v>21.84363336917366</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1980367.765187932</v>
+        <v>21.92610581831283</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3434675.899109446</v>
+        <v>21.95750966884539</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1494888.955618351</v>
+        <v>21.98175691635102</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2137949.112976863</v>
+        <v>22.03054167048967</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3101473.590563446</v>
+        <v>22.07011672315653</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-462522.8171954824</v>
+        <v>21.84025832385656</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1684954.006940108</v>
+        <v>21.99163040766419</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2389309.741237829</v>
+        <v>22.04282376735836</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-345487.1661849712</v>
+        <v>21.79239554198073</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1242493.88507204</v>
+        <v>21.90514529884206</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>2089676.075105345</v>
+        <v>21.92618772187275</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-845687.0823334743</v>
+        <v>21.8004635161214</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1690006.96931585</v>
+        <v>21.88422959023206</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2063794.6798029</v>
+        <v>21.90491213767975</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>58008.2046768836</v>
+        <v>21.85846452724762</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3569667.615069753</v>
+        <v>21.92572523961079</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4035806.556059946</v>
+        <v>21.94086915421714</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1200340.245992067</v>
+        <v>21.94979311403002</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1665092.957491792</v>
+        <v>21.98630912997008</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1669961.717158324</v>
+        <v>22.00403550176928</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-103956.8535982455</v>
+        <v>21.822560161324</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>925700.8551527823</v>
+        <v>21.94155311826673</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1418600.46833793</v>
+        <v>21.96952215666525</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-247461.9501937474</v>
+        <v>21.77659373815462</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>572493.9116611509</v>
+        <v>21.94430832593866</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>710356.9041031051</v>
+        <v>21.98564726116526</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-910949.1925219562</v>
+        <v>21.7577959500019</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>6954.63144842589</v>
+        <v>21.89082592578903</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>59205.96056710566</v>
+        <v>21.93309227891024</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-739512.4549137134</v>
+        <v>21.84864260575619</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>831383.3131916228</v>
+        <v>21.95486063508329</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>223075.2576952559</v>
+        <v>21.82070691529899</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2011046.549619436</v>
+        <v>21.95560762177381</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2248171.055313023</v>
+        <v>21.9757503744725</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-488715.5031305556</v>
+        <v>21.84420235313345</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2269511.425048101</v>
+        <v>21.94910252396804</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2270361.524481801</v>
+        <v>21.96815397448075</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>309201.297415247</v>
+        <v>21.9096442456656</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>3956890.685841607</v>
+        <v>21.9943006434471</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>3970072.17775308</v>
+        <v>22.007960383202</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>2346808.43498128</v>
+        <v>22.04585633560826</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2757717.826609162</v>
+        <v>22.08825401278034</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2580198.483631064</v>
+        <v>22.10687962163721</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>308676.8507477503</v>
+        <v>21.89496080697737</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1763459.139816674</v>
+        <v>22.04356021870606</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1870381.208308072</v>
+        <v>22.06899933587705</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-6235.430850941645</v>
+        <v>21.83312784351669</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>989936.1327601201</v>
+        <v>22.03302781364504</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>972717.5587859285</v>
+        <v>22.07504228155007</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-669406.9003363439</v>
+        <v>21.83646970064231</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>631619.8614273369</v>
+        <v>22.00081736513993</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>638130.7260626786</v>
+        <v>22.04301456237013</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-383597.6691492321</v>
+        <v>21.93790244929777</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1557105.614521716</v>
+        <v>22.06980509344519</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-303867.9594486225</v>
+        <v>21.80770155706735</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1613894.80082816</v>
+        <v>21.9421389856377</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1883519.748378314</v>
+        <v>21.96225156173189</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-668236.0771277873</v>
+        <v>21.8349369818672</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2207789.688053098</v>
+        <v>21.94075970890016</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2253606.083323892</v>
+        <v>21.95984774077186</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>120130.4333974476</v>
+        <v>21.89892701707026</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>3920141.590081375</v>
+        <v>21.98442297600839</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>3989071.545494888</v>
+        <v>21.9981754261968</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>2584187.475290714</v>
+        <v>22.0348692751717</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2967112.140317447</v>
+        <v>22.07686709391182</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>2808813.124252144</v>
+        <v>22.09617373849882</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-105277.6296439817</v>
+        <v>21.88450587193076</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1506584.650380213</v>
+        <v>22.03431855359015</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1614498.674160958</v>
+        <v>22.05969732067276</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-232879.0459167338</v>
+        <v>21.81759662947773</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>818336.3963368321</v>
+        <v>22.0165910966432</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>875417.7925537304</v>
+        <v>22.05841631707035</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-793298.6302241324</v>
+        <v>21.82733743945934</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>566213.2012366721</v>
+        <v>21.99254750453741</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>683066.5075366974</v>
+        <v>22.03463700406996</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-516111.8598731857</v>
+        <v>21.92635647717912</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1518478.928217064</v>
+        <v>22.05910716123713</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-1155841.001001571</v>
+        <v>21.80660360597397</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1546415.048254533</v>
+        <v>21.91491606003131</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2529697.726615263</v>
+        <v>21.93527209139464</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-840923.8211661373</v>
+        <v>21.82808987598373</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3176967.241648335</v>
+        <v>21.91163825560499</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3691891.246066061</v>
+        <v>21.93179675885131</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>37294.53153600106</v>
+        <v>21.87828744368941</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>5310789.310345998</v>
+        <v>21.94561822463188</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>5930612.789149364</v>
+        <v>21.96055019003749</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>3094188.444070215</v>
+        <v>21.976569027745</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>3635216.56076108</v>
+        <v>22.01117327543493</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>3666050.72027688</v>
+        <v>22.02978938821186</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-363666.8552668624</v>
+        <v>21.8557952434563</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1912411.144148214</v>
+        <v>21.97414390782741</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2405323.241382053</v>
+        <v>22.00122760665018</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-617032.0339107455</v>
+        <v>21.80391630917144</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>900531.5419858237</v>
+        <v>21.96454058321572</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1229730.965186887</v>
+        <v>22.00404048282697</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-1070326.528218408</v>
+        <v>21.8076194672895</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>702212.7782934943</v>
+        <v>21.93888469493386</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1069332.477268188</v>
+        <v>21.97944935747513</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-747594.4734693662</v>
+        <v>21.88635608594606</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1910690.153657323</v>
+        <v>21.99156071708648</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>994458.3587208486</v>
+        <v>21.98711828843369</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>363403.3685077168</v>
+        <v>21.99851634141703</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>742479.5738432008</v>
+        <v>22.06794280902313</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>819830.2225325697</v>
+        <v>22.1043144097121</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-281321.1560256756</v>
+        <v>21.81899846700856</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>414239.459400293</v>
+        <v>22.01430032550342</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>573173.2139211862</v>
+        <v>22.06568343691277</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-278834.6162001069</v>
+        <v>21.76442871506848</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>364190.9244342473</v>
+        <v>21.95909077579687</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>648501.0423744237</v>
+        <v>22.00820071639157</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-740757.2675018724</v>
+        <v>21.74005815309881</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-22227.87473005751</v>
+        <v>21.90041174655932</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>198690.5556950707</v>
+        <v>21.95178508620041</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-622436.3069304432</v>
+        <v>21.85709000555229</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>753804.4455064848</v>
+        <v>21.98595324009938</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1133538.518329209</v>
+        <v>22.02540259495449</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>464919.1961283843</v>
+        <v>22.06914345563597</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>787012.9488488798</v>
+        <v>22.14652971154907</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>884875.6371112018</v>
+        <v>22.19142529315498</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-319277.8132729701</v>
+        <v>21.84753336084023</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>354560.7308480372</v>
+        <v>22.08155877082257</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>612690.7807197887</v>
+        <v>22.14516909937142</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>1651220.516822945</v>
+        <v>22.10182665524118</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1013884.398843939</v>
+        <v>22.15672659022222</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1268900.237211339</v>
+        <v>22.23592779496115</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>1246307.468403603</v>
+        <v>22.27498776216599</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29494.98459093236</v>
+        <v>21.94500430305749</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1149749.198450259</v>
+        <v>22.18480431147216</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>1129569.125587591</v>
+        <v>22.23498080266138</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-111075.3665905387</v>
+        <v>21.84896632273666</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>785171.4757928414</v>
+        <v>22.07952275505962</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>753234.1407566435</v>
+        <v>22.12903904509439</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-593918.2270923181</v>
+        <v>21.85136971573631</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>636047.313966435</v>
+        <v>22.0468974793741</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>576958.3366739313</v>
+        <v>22.0978876057296</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-449005.05453093</v>
+        <v>21.9801183137448</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1421685.103227206</v>
+        <v>22.13789225477824</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>1453264.211344428</v>
+        <v>22.17682924508068</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1126133.715644628</v>
+        <v>22.2771734790771</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1263127.223557787</v>
+        <v>22.36472439223246</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1211482.478184405</v>
+        <v>22.41266598500201</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>6040.090275182781</v>
+        <v>22.0186447216987</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1112239.685679463</v>
+        <v>22.30248922359102</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1101784.336375969</v>
+        <v>22.36452681162955</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1736070.259181055</v>
+        <v>22.09112627503808</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>959504.4531977474</v>
+        <v>22.1443698692481</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1200926.420414141</v>
+        <v>22.22244100450227</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1253978.51735922</v>
+        <v>22.26222498541036</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-169143.8801181914</v>
+        <v>21.93400099098459</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>1106400.738676817</v>
+        <v>22.17469362364797</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>1108727.135231204</v>
+        <v>22.22470928282541</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-341687.9716864759</v>
+        <v>21.84169980479217</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>684165.9344207824</v>
+        <v>22.07095807065513</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>665276.6815190132</v>
+        <v>22.11993717966344</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-755672.3520676474</v>
+        <v>21.85215728236678</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>632590.2877575719</v>
+        <v>22.04820085767281</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>597534.0885790964</v>
+        <v>22.09867735268651</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-606098.9225044337</v>
+        <v>21.9773005362751</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>1463899.187905907</v>
+        <v>22.13563998495886</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>1522275.976369909</v>
+        <v>22.17425154180407</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1163859.521893451</v>
+        <v>22.27450431209617</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1295863.682383575</v>
+        <v>22.36073813250511</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1297634.343327763</v>
+        <v>22.40916205337527</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-184913.9106544644</v>
+        <v>22.01815354349815</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1137080.035533983</v>
+        <v>22.30236100598253</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>1131900.536071897</v>
+        <v>22.36370778222754</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>2433668.381007529</v>
+        <v>22.02271261255287</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>839926.4447027651</v>
+        <v>22.04432042309035</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1275061.88105452</v>
+        <v>22.10916066642298</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>1449861.769037111</v>
+        <v>22.1457536306844</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-314840.7218581252</v>
+        <v>21.875185910108</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>1385870.29485833</v>
+        <v>22.0668179264475</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1565706.476490176</v>
+        <v>22.11618695427134</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-687690.2602434874</v>
+        <v>21.81894948563232</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>872858.0478979956</v>
+        <v>22.00478230337993</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1123252.784937355</v>
+        <v>22.05103637771942</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-926277.4848134614</v>
+        <v>21.82167524241906</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>913995.0814330913</v>
+        <v>21.9786379120239</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1153402.455337189</v>
+        <v>22.02711855951623</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-765562.1285792732</v>
+        <v>21.92265218612771</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1995558.482284329</v>
+        <v>22.04916335255792</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>2400397.085847667</v>
+        <v>22.08656363165056</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1457455.618769834</v>
+        <v>22.14466997750732</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1772082.283361924</v>
+        <v>22.21686325830254</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1928845.208829246</v>
+        <v>22.2611555037175</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-302075.0306437358</v>
+        <v>21.93669142819471</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1546480.445935264</v>
+        <v>22.16464005857681</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>1736512.075420977</v>
+        <v>22.22468725068437</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-748303.7799334814</v>
+        <v>21.72877849552841</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-989367.7561338291</v>
+        <v>21.81193880996301</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-161162.8519492639</v>
+        <v>21.83241785565097</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-1812618.469623768</v>
+        <v>21.73117922778609</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-1079758.901195237</v>
+        <v>21.78686232326304</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-843708.2413576901</v>
+        <v>21.80717415776185</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-1591664.262308669</v>
+        <v>21.77495920150081</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-129742.4291953253</v>
+        <v>21.81925054588434</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>169780.2967563566</v>
+        <v>21.83440179416916</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-704869.1493604023</v>
+        <v>21.81910829982007</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-409410.4822970473</v>
+        <v>21.84401222938872</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-315317.8796667743</v>
+        <v>21.86391944090008</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-151453.7981302532</v>
+        <v>21.72640448450263</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-322425.552227698</v>
+        <v>21.80759399080357</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>379079.4524699762</v>
+        <v>21.83575689837852</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-405615.8861727323</v>
+        <v>21.68877086519626</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-8320.846885875553</v>
+        <v>21.81429282230853</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>429478.1289250614</v>
+        <v>21.85388166892876</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1068261.266435407</v>
+        <v>21.66746987870694</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-928437.7329604496</v>
+        <v>21.75984160767091</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-679718.4685188499</v>
+        <v>21.80053402194679</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-1265193.978616714</v>
+        <v>21.73633787793659</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-455957.8188489971</v>
+        <v>21.80938850087292</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-595301.6856128557</v>
+        <v>21.74891370182093</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-271720.2334040061</v>
+        <v>21.84987566738952</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-40440.20740444372</v>
+        <v>21.87003038628614</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-1605304.61993226</v>
+        <v>21.76466719892982</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-228611.4438594617</v>
+        <v>21.83705663976128</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-149817.8621792461</v>
+        <v>21.85644785690073</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-1289096.595733823</v>
+        <v>21.8141437208965</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>785091.7079679203</v>
+        <v>21.87217171319186</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>827059.8202711089</v>
+        <v>21.88645415670717</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>670188.9249725123</v>
+        <v>21.89452003620275</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>905232.2876139253</v>
+        <v>21.92385050523859</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1000054.374453334</v>
+        <v>21.94511750952586</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>197139.1880813655</v>
+        <v>21.78302944838841</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>960292.3950776194</v>
+        <v>21.88777482035509</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1279005.929328843</v>
+        <v>21.9144553356802</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-338687.4300198074</v>
+        <v>21.73155756097317</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>435466.2588665106</v>
+        <v>21.88308559500672</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>769408.4109889054</v>
+        <v>21.92396114850289</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-802804.3269744726</v>
+        <v>21.72952823909556</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>46961.64943383918</v>
+        <v>21.84687357125318</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>518660.1768304194</v>
+        <v>21.888268869801</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-699620.8658060239</v>
+        <v>21.80645639215918</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>850181.6934861718</v>
+        <v>21.89996066333551</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1244501.901407411</v>
+        <v>21.74031281333852</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-743317.1133173386</v>
+        <v>21.84131068675198</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-438573.8447097946</v>
+        <v>21.86145888950198</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1917558.948532118</v>
+        <v>21.75947788757988</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-419036.1159817319</v>
+        <v>21.83317509414571</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-192657.5401540386</v>
+        <v>21.85262209575815</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-1563795.401059163</v>
+        <v>21.80789481222965</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>688207.3520072772</v>
+        <v>21.86706958459358</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>882152.2435993449</v>
+        <v>21.88145253635407</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>720131.5977740384</v>
+        <v>21.88919425265553</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>881796.7679878109</v>
+        <v>21.91836653136165</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1119960.207051528</v>
+        <v>21.94015017034197</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-422809.0033970434</v>
+        <v>21.77767605333993</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>548674.7216856345</v>
+        <v>21.8841284031433</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>949247.3540192243</v>
+        <v>21.91076589526178</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-704305.0705897644</v>
+        <v>21.72181042698098</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>110136.9159502627</v>
+        <v>21.87315134910724</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>607783.420634549</v>
+        <v>21.91387243485403</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-1018614.05775244</v>
+        <v>21.7255333887759</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-149606.7749595723</v>
+        <v>21.84431643165865</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>593559.1568848768</v>
+        <v>21.88563116482612</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-916791.8690190831</v>
+        <v>21.80066695300645</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>709003.0587041919</v>
+        <v>21.89547662779422</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-2308604.269539341</v>
+        <v>21.74933772932335</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-1644333.068398899</v>
+        <v>21.83013894064966</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-637310.7280622454</v>
+        <v>21.84998572186761</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-2617689.122733296</v>
+        <v>21.76387901436049</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-644888.1922148879</v>
+        <v>21.82110263430692</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-26227.4549760701</v>
+        <v>21.84092607141038</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-2501381.961994635</v>
+        <v>21.80159912772611</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>491611.606193626</v>
+        <v>21.84737855505379</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1133672.033780029</v>
+        <v>21.8623171798277</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>334056.8065988515</v>
+        <v>21.85556649335372</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>515635.7904307022</v>
+        <v>21.87946983081718</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>933275.933157024</v>
+        <v>21.89981157409833</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-836406.3690800966</v>
+        <v>21.76672223057786</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>246444.4594441236</v>
+        <v>21.8495840277726</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1207275.959916053</v>
+        <v>21.87685545970134</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-1136492.49266857</v>
+        <v>21.72407064393795</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-92814.31530383138</v>
+        <v>21.84548232722954</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>828270.4352919379</v>
+        <v>21.88335889058822</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-1343676.980367163</v>
+        <v>21.72288027831536</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-475917.3840188056</v>
+        <v>21.81607512872658</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>609575.9629372847</v>
+        <v>21.85516802008816</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-1377549.057594331</v>
+        <v>21.7822983807439</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>455637.5636835444</v>
+        <v>21.85641647382028</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>74722.02938651164</v>
+        <v>21.84077952636761</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-192579.8891730012</v>
+        <v>21.81747446529015</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>383840.5384357388</v>
+        <v>21.86885144814988</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>600033.7619512549</v>
+        <v>21.90694180309895</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-635557.8746171405</v>
+        <v>21.68409075099622</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-299592.4636404193</v>
+        <v>21.82341081025048</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>50750.32172968778</v>
+        <v>21.87431343634206</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-318779.0324379615</v>
+        <v>21.68314833586967</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-23016.325461254</v>
+        <v>21.83047007551076</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>339706.7745395639</v>
+        <v>21.8770668592757</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-965867.4763952962</v>
+        <v>21.65910554984614</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-774927.7083870852</v>
+        <v>21.77336514186421</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-604848.5999139525</v>
+        <v>21.82229115997717</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-1104193.994697558</v>
+        <v>21.74915322631369</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-203410.583416855</v>
+        <v>21.8403263978424</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>287002.6921485004</v>
+        <v>21.87823158628979</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-86778.10921164854</v>
+        <v>21.88436508201347</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>446097.7141967168</v>
+        <v>21.94173907732923</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>690717.534101871</v>
+        <v>21.98785686166768</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>-492821.0196020725</v>
+        <v>21.71558254492761</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>-117917.6951434419</v>
+        <v>21.88604795662367</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>169828.9702405187</v>
+        <v>21.9479820790421</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1542569.701379351</v>
+        <v>21.93179138445269</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>710867.7547697563</v>
+        <v>21.94354638894513</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1102388.753521523</v>
+        <v>22.00252549992872</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1297634.222547947</v>
+        <v>22.04379128205933</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-155982.6364571388</v>
+        <v>21.78440825221786</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>954205.1512234811</v>
+        <v>21.95943911684978</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1214789.442151745</v>
+        <v>22.01038340545962</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>33475.46600742025</v>
+        <v>21.75138445880349</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>761119.9633784841</v>
+        <v>21.92776487402853</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>945925.7475298991</v>
+        <v>21.97549643593472</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-598042.4653803626</v>
+        <v>21.7508440384061</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>399437.4070663693</v>
+        <v>21.89323553130705</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>589056.6445360279</v>
+        <v>21.94268697361414</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-413365.0125070885</v>
+        <v>21.84977461965764</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1323445.489321381</v>
+        <v>21.96404194376133</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1722931.758376049</v>
+        <v>22.00222593580985</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1263122.337071023</v>
+        <v>22.05505533481852</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1463231.886480906</v>
+        <v>22.12028725507174</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1620700.293082161</v>
+        <v>22.16996641190914</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>212385.246704652</v>
+        <v>21.85649785110299</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1312147.354682452</v>
+        <v>22.0670352648824</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1475698.974005433</v>
+        <v>22.12881845478545</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1684852.616780872</v>
+        <v>21.92731612932121</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>453698.7103128552</v>
+        <v>21.93867283533194</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>781608.4726370522</v>
+        <v>21.99691611306446</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>1177761.080827309</v>
+        <v>22.03870245638957</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-502923.6005451756</v>
+        <v>21.78008970808819</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>779224.8436372416</v>
+        <v>21.95679099810664</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>1152961.601326319</v>
+        <v>22.00758236673659</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-276757.2133144232</v>
+        <v>21.74882148022628</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>588035.4747070399</v>
+        <v>21.9247092130026</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>912562.9243150452</v>
+        <v>21.9719956169458</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-829552.5132635155</v>
+        <v>21.75540235049386</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>321294.5207295723</v>
+        <v>21.8989717121264</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>713139.4126187812</v>
+        <v>21.94800217206803</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-610770.4810567633</v>
+        <v>21.85154892655239</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>1346826.20757345</v>
+        <v>21.96691052145384</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1952713.422381168</v>
+        <v>22.00483290938283</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1229620.007976295</v>
+        <v>22.05859745869063</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1390948.338456162</v>
+        <v>22.12295244918888</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1717350.024521423</v>
+        <v>22.17293340552014</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-79982.04005947041</v>
+        <v>21.86127398831281</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1253965.225312647</v>
+        <v>22.07307540697641</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>1552631.930673579</v>
+        <v>22.13426223150333</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1875711.303166768</v>
+        <v>21.8867450864689</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-41340.46768581159</v>
+        <v>21.87578784580222</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>391657.4234245332</v>
+        <v>21.9240413538582</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>1073068.964216422</v>
+        <v>21.96183679606385</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-797996.7608190243</v>
+        <v>21.74920958764276</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>623289.9918878229</v>
+        <v>21.88840778851896</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1299718.865453558</v>
+        <v>21.93729360568774</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-624576.4079100819</v>
+        <v>21.74179522097037</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>632346.1483637805</v>
+        <v>21.88363658371189</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1355065.967556225</v>
+        <v>21.92764877901624</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-1086187.496267088</v>
+        <v>21.74161609252608</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>249251.6972231159</v>
+        <v>21.85544922803533</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>991226.3048126228</v>
+        <v>21.90174967320812</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-1037250.121030176</v>
+        <v>21.81895174731917</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1361182.935860306</v>
+        <v>21.91016530160016</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>2445389.348729371</v>
+        <v>21.94619610569931</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1128200.176121936</v>
+        <v>21.96815916765501</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1552996.669687393</v>
+        <v>22.02196390179565</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>2212969.166699282</v>
+        <v>22.06702980395312</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-324961.4563487325</v>
+        <v>21.80888066352233</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1350175.314723104</v>
+        <v>21.97734786476108</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1953079.154889833</v>
+        <v>22.03593365629568</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-1084962.107907497</v>
+        <v>21.73867027000744</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-1440348.453146346</v>
+        <v>21.81093688329128</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-537363.393166588</v>
+        <v>21.82805561935211</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2222183.06272513</v>
+        <v>21.73957628382644</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1513962.980560137</v>
+        <v>21.7885624700884</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1266295.882834691</v>
+        <v>21.80551960234748</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2067823.544917889</v>
+        <v>21.77840947221848</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-471629.2723408085</v>
+        <v>21.81741530788946</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-143191.9369950215</v>
+        <v>21.83002038587322</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-1042141.15156719</v>
+        <v>21.81665816167999</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-706689.7080791913</v>
+        <v>21.83845030428309</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-627476.7590185417</v>
+        <v>21.85464841251148</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-770787.7634288203</v>
+        <v>21.73552336600646</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1048153.333289043</v>
+        <v>21.80673092390501</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-355724.8769027228</v>
+        <v>21.83007836294595</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-511418.0746295322</v>
+        <v>21.70919224972343</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-101264.684825638</v>
+        <v>21.81822559733742</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>377146.1394643735</v>
+        <v>21.85152722764757</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1264446.083885212</v>
+        <v>21.68993922451212</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1070571.501396611</v>
+        <v>21.77091984911399</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-792471.4005705775</v>
+        <v>21.8051421632792</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1434679.704263942</v>
+        <v>21.75067021997054</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-474719.0097913093</v>
+        <v>21.81478566014761</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-932015.6383509199</v>
+        <v>21.75476193975711</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-692671.7011763913</v>
+        <v>21.84237061688836</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-422214.4477419778</v>
+        <v>21.85914594296174</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-1988161.469002277</v>
+        <v>21.76690272864728</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-596569.4245574212</v>
+        <v>21.8303138283264</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-518288.4794113339</v>
+        <v>21.8464140255304</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-1814304.531732362</v>
+        <v>21.81076556566198</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>413118.4808195917</v>
+        <v>21.86163372845387</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>460954.0286021464</v>
+        <v>21.87343664247838</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>417747.0736871322</v>
+        <v>21.87986544001401</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>672706.8437033017</v>
+        <v>21.90550312110693</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>743139.2517870463</v>
+        <v>21.92276550323597</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-428339.2065628056</v>
+        <v>21.78246898928338</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>268783.4811180641</v>
+        <v>21.87400411686115</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>567337.7786567498</v>
+        <v>21.89597474723352</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-478149.3040589955</v>
+        <v>21.74495475696417</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>339705.8939641714</v>
+        <v>21.87640061735959</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>710059.8391967778</v>
+        <v>21.91070789416337</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-1007645.487402348</v>
+        <v>21.7419867334809</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-45423.62189720444</v>
+        <v>21.84452403071828</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>449694.5209743339</v>
+        <v>21.87924797208922</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-905312.0231759307</v>
+        <v>21.80981748674196</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>847927.6641060227</v>
+        <v>21.89159107440076</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1665713.52837342</v>
+        <v>21.747345506249</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-1267625.496461351</v>
+        <v>21.83494869274256</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-895753.640974903</v>
+        <v>21.85172036458582</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-2323526.685081821</v>
+        <v>21.76242379672476</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-830208.8227944953</v>
+        <v>21.82691005284102</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-577563.7987899116</v>
+        <v>21.84306002242482</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-2123940.213235223</v>
+        <v>21.80534120017005</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>261776.8773367954</v>
+        <v>21.85715468892458</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>492286.884378298</v>
+        <v>21.86904516395375</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>480577.0572987949</v>
+        <v>21.87516662644002</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>650666.8357163444</v>
+        <v>21.90065657198308</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>875624.6116593962</v>
+        <v>21.9183782237509</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-1130822.616586404</v>
+        <v>21.77779910429589</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-233951.5439461972</v>
+        <v>21.87073843141418</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>158737.8910188819</v>
+        <v>21.89268023380039</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-883158.3444256504</v>
+        <v>21.73634555449203</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-30134.50300806387</v>
+        <v>21.86757775391338</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>532171.2874327956</v>
+        <v>21.90175577675681</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1243943.213710702</v>
+        <v>21.73830720263239</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-266526.5066486829</v>
+        <v>21.84201077207562</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>529467.8221177513</v>
+        <v>21.87666885821242</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-1143794.436413053</v>
+        <v>21.8045517588698</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>683827.9600859121</v>
+        <v>21.88738975775203</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-2936905.086406966</v>
+        <v>21.75631674183796</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-2378382.216974444</v>
+        <v>21.82644820606668</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-1239906.521449324</v>
+        <v>21.84304114816994</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-3208512.652110676</v>
+        <v>21.76769898890133</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-1207904.343415774</v>
+        <v>21.81786190603325</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-531223.1620155171</v>
+        <v>21.83441699150149</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-3257525.393202144</v>
+        <v>21.80120702712996</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-45989.21751271411</v>
+        <v>21.84136995153641</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>681713.4807984036</v>
+        <v>21.85380614747993</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>19669.47955406171</v>
+        <v>21.84769922763333</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>236316.2392276282</v>
+        <v>21.86859286935269</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>651058.3999336069</v>
+        <v>21.8852299777608</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-1776674.262865935</v>
+        <v>21.77004962489336</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-739034.4024786056</v>
+        <v>21.84250645202429</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>211596.3879511754</v>
+        <v>21.86513104426112</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-1368714.36631269</v>
+        <v>21.73879455744642</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-255793.4449449961</v>
+        <v>21.84413769990289</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>769948.1541095488</v>
+        <v>21.87599672096306</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-1641346.11998178</v>
+        <v>21.73681016557174</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-633951.1384477207</v>
+        <v>21.81828816592955</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>545817.596017331</v>
+        <v>21.8511652026815</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-1638293.889330946</v>
+        <v>21.78927277172327</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>458428.8817189762</v>
+        <v>21.85413092651731</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>83781.5658989761</v>
+        <v>21.84113836041604</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-186784.6574242679</v>
+        <v>21.8223814230227</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>454291.9397282177</v>
+        <v>21.86697543960444</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>671080.5477538646</v>
+        <v>21.89843195590456</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-723708.2130800613</v>
+        <v>21.70594650158438</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-352630.4544264228</v>
+        <v>21.8276920230508</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25134.24082975321</v>
+        <v>21.8702059295565</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-490578.9881004416</v>
+        <v>21.70457461769043</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-176773.4115259735</v>
+        <v>21.83250313265026</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>309873.6208830404</v>
+        <v>21.87171843132327</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-1208013.375070542</v>
+        <v>21.68258728726446</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-972245.0427303031</v>
+        <v>21.78257802185878</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-688786.8607005313</v>
+        <v>21.82374788761797</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-1321420.881275414</v>
+        <v>21.76167994020869</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-272982.7435020961</v>
+        <v>21.84153827458336</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>339284.2737669583</v>
+        <v>21.87338407476523</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-102257.3931881786</v>
+        <v>21.8797286557704</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>503879.3517221011</v>
+        <v>21.92962672756764</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>771282.2108789111</v>
+        <v>21.9678489405719</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-663900.3136934832</v>
+        <v>21.7329285771666</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-230612.851588758</v>
+        <v>21.88170058886684</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>138618.5711620085</v>
+        <v>21.9335433680565</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1563711.049190739</v>
+        <v>21.91823527633938</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>727391.8071971395</v>
+        <v>21.92938756110622</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1160176.120712442</v>
+        <v>21.98056441350884</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1350853.357946347</v>
+        <v>22.01459720153542</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>-277569.726030558</v>
+        <v>21.79068102122361</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>922805.5037914753</v>
+        <v>21.94323306815952</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>1191444.658229289</v>
+        <v>21.98562714459035</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-134363.4311239076</v>
+        <v>21.76205434333609</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>666598.270072986</v>
+        <v>21.91503159357649</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>932159.4277367516</v>
+        <v>21.95510875296036</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-788584.0963177878</v>
+        <v>21.75993853851385</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>346616.6573101783</v>
+        <v>21.8842160297772</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>600604.1115845612</v>
+        <v>21.92571988287597</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>-605172.5712149915</v>
+        <v>21.84685878697871</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1367050.263648162</v>
+        <v>21.94665806254475</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1829924.56017928</v>
+        <v>21.97864457523257</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1321648.334981726</v>
+        <v>22.02483090816495</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1574908.361799336</v>
+        <v>22.08154662936008</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1732530.299545918</v>
+        <v>22.12266410684041</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>95559.32123961741</v>
+        <v>21.85231643824706</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1321438.213918487</v>
+        <v>22.03566452556886</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1531883.45871907</v>
+        <v>22.08720313419179</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1716512.236268982</v>
+        <v>21.91404383922957</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>458726.6783064557</v>
+        <v>21.92477075860495</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>825579.6318865042</v>
+        <v>21.97530237217199</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1231619.722179314</v>
+        <v>22.00980322474934</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-658305.9725343469</v>
+        <v>21.78660557771496</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>726658.2877502351</v>
+        <v>21.9405041409394</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>1123303.063611482</v>
+        <v>21.98277859010971</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-479175.4197052766</v>
+        <v>21.75956063879803</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>476525.6101967968</v>
+        <v>21.91205738872328</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>896511.3125145908</v>
+        <v>21.95175671218391</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>-1036174.641283749</v>
+        <v>21.76355957646678</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>275534.0994090279</v>
+        <v>21.8887746405531</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>744821.972027765</v>
+        <v>21.92992167267289</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>-812228.8873326351</v>
+        <v>21.84803991377935</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1408248.161667593</v>
+        <v>21.94871765243086</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2091774.36129764</v>
+        <v>21.98048292713523</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1298607.213986349</v>
+        <v>22.02738433235824</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1516361.184980203</v>
+        <v>22.08333011069649</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1853909.469609317</v>
+        <v>22.12473023331577</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-220577.9080217376</v>
+        <v>21.85599502599236</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1273032.948720694</v>
+        <v>22.0403337683681</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1628269.182007926</v>
+        <v>22.09137302760509</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1981825.601151845</v>
+        <v>21.87959382466584</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>-35879.62550066954</v>
+        <v>21.87117229092658</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>482603.4975734953</v>
+        <v>21.91303961404516</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>1168215.212953755</v>
+        <v>21.94433304032341</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>-968692.1350370479</v>
+        <v>21.76079098798207</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>603372.3148099635</v>
+        <v>21.88216401375542</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1325852.26428166</v>
+        <v>21.92300886822962</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>-900191.3912198081</v>
+        <v>21.75409257059834</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>514636.4913803168</v>
+        <v>21.8771375948338</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1388024.100998753</v>
+        <v>21.91416779422514</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>-1367641.431018998</v>
+        <v>21.75263167733046</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>191151.3824060812</v>
+        <v>21.8520258536887</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1066781.892449234</v>
+        <v>21.89097748076131</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>-1276615.549895932</v>
+        <v>21.82063896709732</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1484649.520448528</v>
+        <v>21.90034058507606</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2712060.345493918</v>
+        <v>21.93060586629489</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1246716.608529439</v>
+        <v>21.95027011657801</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>1762274.008697324</v>
+        <v>21.99704471058314</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>2454854.741156883</v>
+        <v>22.03446365216184</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>-527306.3495355275</v>
+        <v>21.81184114062162</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>1395841.280554828</v>
+        <v>21.95860312824747</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2087901.367796763</v>
+        <v>22.00764191269174</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-1047522.645985524</v>
+        <v>21.75869976546527</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-364243.6327920918</v>
+        <v>21.83957820315216</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>875061.5313771114</v>
+        <v>21.85706663210646</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-2260317.855751868</v>
+        <v>21.75978002390233</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-627578.8942994964</v>
+        <v>21.81710011437397</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-156986.8543263448</v>
+        <v>21.83440545352552</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-1688148.884539249</v>
+        <v>21.80374807156458</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>1436929.322352466</v>
+        <v>21.8495017109058</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>1996435.672488421</v>
+        <v>21.86229364785646</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-14647.64445023037</v>
+        <v>21.85420590623519</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>373453.336170618</v>
+        <v>21.87966954075275</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>438476.6416809558</v>
+        <v>21.89507121169475</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-921894.7801757694</v>
+        <v>21.76288944229627</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-320667.7165584738</v>
+        <v>21.8455600859003</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>457512.6492042482</v>
+        <v>21.86880942614582</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-481831.7497082297</v>
+        <v>21.72874166541519</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>133699.1979014069</v>
+        <v>21.8496254010352</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>425495.1196407159</v>
+        <v>21.88371670417199</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-1380108.457215098</v>
+        <v>21.70804900218941</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-897547.1165625984</v>
+        <v>21.80054179765393</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-841857.8454877442</v>
+        <v>21.83556588383558</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-1537055.378293336</v>
+        <v>21.7764420989565</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-99556.80389710791</v>
+        <v>21.84986972071363</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-555672.2629692323</v>
+        <v>21.77807169122162</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>900331.4721854895</v>
+        <v>21.87561982039152</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1299500.398833983</v>
+        <v>21.89257902228751</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-1566968.040537961</v>
+        <v>21.79095047822171</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>1012932.080335594</v>
+        <v>21.86406886985189</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>1088134.93533211</v>
+        <v>21.88028725430085</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-1104731.179849007</v>
+        <v>21.84052528209475</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>2851942.084863252</v>
+        <v>21.89927087445842</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>2888988.189768972</v>
+        <v>21.91106276213296</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>1897167.328123036</v>
+        <v>21.92435318095853</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2239438.523214842</v>
+        <v>21.95414054111886</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>2256729.277665208</v>
+        <v>21.97044250170515</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-227398.5142225616</v>
+        <v>21.81527303138824</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>1526117.69472662</v>
+        <v>21.9201749681962</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>1814480.901150667</v>
+        <v>21.94167679521739</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-311915.7134506141</v>
+        <v>21.76898313459637</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>807613.6308873115</v>
+        <v>21.9141221205355</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>931309.4079995926</v>
+        <v>21.9490122747015</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>-986950.2414844775</v>
+        <v>21.76535522495115</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>409687.1344567849</v>
+        <v>21.88131739960921</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>552545.8676687926</v>
+        <v>21.91658393376377</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-866733.8325864183</v>
+        <v>21.84166596331596</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1493057.346903286</v>
+        <v>21.93432301056805</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-1287266.178702013</v>
+        <v>21.76935964629367</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>346542.8813098386</v>
+        <v>21.86675410348943</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>891479.2215138209</v>
+        <v>21.88369965332827</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-1817506.651077216</v>
+        <v>21.78530584875847</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>892234.0915003768</v>
+        <v>21.859379073987</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>1171294.392632931</v>
+        <v>21.87563839557613</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-1315318.813890716</v>
+        <v>21.83378711440954</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>2834101.402028149</v>
+        <v>21.89338403882095</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>3086862.090178232</v>
+        <v>21.90525894316778</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>2133184.081357062</v>
+        <v>21.91802067213998</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2387641.705810841</v>
+        <v>21.94758196610697</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>2565938.094602953</v>
+        <v>21.9644035143682</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-895021.4243679059</v>
+        <v>21.80914334044145</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>1090478.921163808</v>
+        <v>21.91528882498898</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>1474747.767140767</v>
+        <v>21.93676106185573</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-685916.0669054232</v>
+        <v>21.75883443039446</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>458148.1239499532</v>
+        <v>21.90355714646784</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>797503.8299632884</v>
+        <v>21.93830415653822</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1194558.883570719</v>
+        <v>21.7603685705768</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>213827.0191264891</v>
+        <v>21.87733184475122</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>662766.3112592894</v>
+        <v>21.91252065114346</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-1068913.333530274</v>
+        <v>21.83487325410361</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1361879.376418418</v>
+        <v>21.92846586636933</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-2515975.339437142</v>
+        <v>21.7744011615032</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-513824.8949163806</v>
+        <v>21.85254053965215</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1187628.41443904</v>
+        <v>21.86947269174073</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-2698114.487952231</v>
+        <v>21.78647241213116</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>671512.6459563767</v>
+        <v>21.84444091936859</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1762113.440832088</v>
+        <v>21.86131834247361</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-2219713.519224657</v>
+        <v>21.82448970909193</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>3101760.065277546</v>
+        <v>21.87098151357147</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>4258378.789668669</v>
+        <v>21.88359300260656</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2162344.046297442</v>
+        <v>21.88247939011059</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2507385.638483251</v>
+        <v>21.90675978778259</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>2969506.534422333</v>
+        <v>21.92276921007863</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-1451734.03998449</v>
+        <v>21.79544033181557</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>917721.1616212396</v>
+        <v>21.87864286304817</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2028982.50281068</v>
+        <v>21.90118483984536</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-1286455.681619678</v>
+        <v>21.75649977410758</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>126333.4909437077</v>
+        <v>21.87286552327443</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>983873.8835493344</v>
+        <v>21.9054586365577</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-1764401.928096039</v>
+        <v>21.75395659781708</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-325153.3794116083</v>
+        <v>21.84622000193521</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>594017.2592136791</v>
+        <v>21.8798486777072</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-1751181.360816011</v>
+        <v>21.8131678502901</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1004438.605497851</v>
+        <v>21.88676252194182</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>213445.5518403808</v>
+        <v>21.8767360882263</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-103389.5732537076</v>
+        <v>21.86371775295117</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>455719.1178879291</v>
+        <v>21.91362208553905</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>509401.4350380284</v>
+        <v>21.94443606543001</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-781156.9913131754</v>
+        <v>21.734027866086</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-333712.1738228701</v>
+        <v>21.87192494328826</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-20181.35505072273</v>
+        <v>21.91456636983618</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-608213.9085296377</v>
+        <v>21.71988762475634</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-187239.2806830013</v>
+        <v>21.86135454943655</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>417073.4945003709</v>
+        <v>21.90168316914606</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-1296539.711273592</v>
+        <v>21.69518081472245</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-880595.0790981994</v>
+        <v>21.80849432324458</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-495875.6132509726</v>
+        <v>21.85082334991434</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-1406612.982175335</v>
+        <v>21.78361313644932</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-24627.69786739095</v>
+        <v>21.87429534693996</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>711956.4728739269</v>
+        <v>21.90693261367389</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>12945.79937233041</v>
+        <v>21.91895428710995</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>603371.465988889</v>
+        <v>21.97497515388833</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>916345.8050919124</v>
+        <v>22.0128975405093</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-803387.8237543377</v>
+        <v>21.75704261161136</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-211181.2941080422</v>
+        <v>21.9244792270334</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>237527.2097611385</v>
+        <v>21.97692939853958</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1851900.143389087</v>
+        <v>21.96125540559257</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1037753.182640122</v>
+        <v>21.98040941642403</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1389744.21697673</v>
+        <v>22.03757700377585</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1411975.312252013</v>
+        <v>22.07078196127139</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-245562.9989497331</v>
+        <v>21.82649259406716</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1167063.388663</v>
+        <v>21.99787990970597</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>1289046.748986129</v>
+        <v>22.03994415032849</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-203424.7933687648</v>
+        <v>21.7822190945771</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>805132.7618074745</v>
+        <v>21.95079022502744</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>1013563.823532929</v>
+        <v>21.99173660222942</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-848622.2723943907</v>
+        <v>21.7782254217305</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>624985.130733465</v>
+        <v>21.91796731578842</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>737338.1502763788</v>
+        <v>21.96032586989134</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-742161.2156704681</v>
+        <v>21.87542404118349</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1711372.951923596</v>
+        <v>21.98781117764367</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>2046008.181992236</v>
+        <v>22.02032517043608</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1496978.484978855</v>
+        <v>22.07476623500381</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1735032.917339167</v>
+        <v>22.1383485723753</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1918187.748107395</v>
+        <v>22.17898583200475</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-72431.0549137398</v>
+        <v>21.88498583545908</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1433372.871463964</v>
+        <v>22.08999587735978</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1580180.887049629</v>
+        <v>22.14162520342018</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2052649.9656576</v>
+        <v>21.95540221955322</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>833240.4328278371</v>
+        <v>21.97386177245953</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1106209.310808751</v>
+        <v>22.03026802364572</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1356885.112247954</v>
+        <v>22.06401542396266</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-601302.24105401</v>
+        <v>21.82072397957631</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1006150.298488043</v>
+        <v>21.9932277655976</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>1256273.882282522</v>
+        <v>22.03517638264741</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-552367.7414165441</v>
+        <v>21.77851539251033</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>600672.2937577245</v>
+        <v>21.94637176199908</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>966994.3738165746</v>
+        <v>21.98690549460099</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-1124876.503369421</v>
+        <v>21.78096154257584</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>525576.4253170134</v>
+        <v>21.92144299306663</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>839935.0244119557</v>
+        <v>21.9634093020256</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-982457.4380839398</v>
+        <v>21.87543705174518</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1720358.052357553</v>
+        <v>21.98854660427577</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>2266605.818514408</v>
+        <v>22.0208145491048</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1473716.39960449</v>
+        <v>22.07578650520254</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1667582.211330745</v>
+        <v>22.13846229866959</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2056722.718707852</v>
+        <v>22.17944450925746</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-417521.3069041442</v>
+        <v>21.88740973467814</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1375773.261767478</v>
+        <v>22.0931346146005</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>1658779.113420047</v>
+        <v>22.14423753752061</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>2272445.67407759</v>
+        <v>21.91271154539085</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>177073.6013580697</v>
+        <v>21.90976329285846</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>637628.3548828597</v>
+        <v>21.95652163359895</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>1095334.063595843</v>
+        <v>21.98736497135392</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-996563.465825013</v>
+        <v>21.78718184586046</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>785354.4161412603</v>
+        <v>21.92368518613077</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>1411337.206090606</v>
+        <v>21.96467751360747</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-1175485.677116407</v>
+        <v>21.76882704547346</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>450892.0043173049</v>
+        <v>21.90445392510526</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>1409236.343887964</v>
+        <v>21.94248767727521</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-1583884.514266938</v>
+        <v>21.76581409259645</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>314478.7353043433</v>
+        <v>21.87766866618005</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1211170.119576272</v>
+        <v>21.91766908355148</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-1603938.204455822</v>
+        <v>21.84202942818583</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1685731.613998146</v>
+        <v>21.93186655010545</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2972138.671366037</v>
+        <v>21.96284783334291</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1385424.733731973</v>
+        <v>21.98819916800068</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>1886390.651520594</v>
+        <v>22.04060482066383</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>2655828.698691685</v>
+        <v>22.07787777254199</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>-789192.1801660435</v>
+        <v>21.83586619558474</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1469877.289326353</v>
+        <v>22.00008303673755</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>2193070.101833813</v>
+        <v>22.04967010944643</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.537</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.959</v>
+        <v>15.085</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.274</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.146</v>
+        <v>13.83</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.703</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.917</v>
+        <v>6.519</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.75106338589359</v>
+        <v>11.60312837141865</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.82600833603674</v>
+        <v>10.65227971257302</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.84397074934891</v>
+        <v>21.20019211067697</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>21.75503441352162</v>
+        <v>7.552244601539968</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.80668692915652</v>
+        <v>19.87306296103983</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.82454189418823</v>
+        <v>23.06905285331369</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21.79308150108634</v>
+        <v>5.069929762386383</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.83425901458946</v>
+        <v>25.76086211395472</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21.84761470786189</v>
+        <v>29.03916058482972</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.83622812654766</v>
+        <v>10.16258784316848</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>21.85959443274503</v>
+        <v>14.35771919857075</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.87728932830628</v>
+        <v>16.44348241838109</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.75305744557856</v>
+        <v>18.19957077786528</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21.82776155007493</v>
+        <v>11.68172067725553</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>21.85263248885716</v>
+        <v>23.0760536064467</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.73310095500211</v>
+        <v>16.93915447258777</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.8458998196202</v>
+        <v>25.78780148629838</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>21.88019855878702</v>
+        <v>32.26707508864594</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21.71852413504964</v>
+        <v>12.43256638213722</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.80329823370557</v>
+        <v>15.95306358836155</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.83853925194486</v>
+        <v>18.12206794409322</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21.77796327087537</v>
+        <v>2.917584594745762</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.84516132177578</v>
+        <v>21.85200540143553</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.77089769430819</v>
+        <v>16.02061324121056</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.86152687233384</v>
+        <v>21.71948466126469</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.87918449073278</v>
+        <v>24.37900738030429</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>21.78666849324328</v>
+        <v>6.802748854742763</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.85310656720398</v>
+        <v>29.86438411837072</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.87013563550558</v>
+        <v>30.11572826513025</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>21.82960868702044</v>
+        <v>6.760974786257393</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21.88294323684901</v>
+        <v>38.00984220966436</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>21.89552396877056</v>
+        <v>37.31894421382169</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>21.90487303570548</v>
+        <v>36.89730045648375</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>21.93220236466454</v>
+        <v>40.37863369012126</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>21.95109781194446</v>
+        <v>42.4939715661392</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.80518817730345</v>
+        <v>25.43162681325473</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>21.90069362075909</v>
+        <v>36.37692668543492</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>21.92426233566646</v>
+        <v>40.87063244832899</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.77407416282691</v>
+        <v>16.97664040746294</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>21.90976105693877</v>
+        <v>34.44599065356361</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>21.94511208924278</v>
+        <v>38.0726025633903</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>21.77658284281674</v>
+        <v>12.50669958889047</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>21.88341709526476</v>
+        <v>33.98019713959754</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>21.91919162726939</v>
+        <v>41.49825780341242</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>21.92819787759603</v>
+        <v>46.34999480330521</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>21.76391047396682</v>
+        <v>9.151218619542886</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.85448633453789</v>
+        <v>17.40734140679692</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.87212031289243</v>
+        <v>20.41941961743737</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>21.78262814609644</v>
+        <v>3.792562298469793</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.85010050470651</v>
+        <v>28.09224523952164</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>21.86715670677761</v>
+        <v>29.95676598779667</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21.8246235591637</v>
+        <v>5.129577249154053</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>21.87887014045728</v>
+        <v>37.80623205065483</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>21.89152016274347</v>
+        <v>38.62727696969912</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>21.90070314341221</v>
+        <v>38.80029691390605</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>21.92783852163358</v>
+        <v>40.65600745398959</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>21.94716127301378</v>
+        <v>45.23783780054215</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21.80108473303167</v>
+        <v>13.71929298855959</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.89794280152347</v>
+        <v>28.73597917506056</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>21.92144404227946</v>
+        <v>34.19357219158734</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>21.76572542610793</v>
+        <v>10.53754536415478</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>21.90113254438857</v>
+        <v>28.4745580679208</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>21.93633230460981</v>
+        <v>34.48601125796257</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>21.77315520197091</v>
+        <v>9.114820916892739</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.88109811053731</v>
+        <v>30.56362298908585</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>21.91678253552856</v>
+        <v>43.37114374493559</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.83792894283124</v>
+        <v>5.697130318606082</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>21.92421382137836</v>
+        <v>44.15431015113075</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>21.76947166813504</v>
+        <v>1.662373762390065</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>21.84206602829551</v>
+        <v>10.38843107255721</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.85944209422387</v>
+        <v>19.77867963788711</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>21.78384423785334</v>
+        <v>5.186725747954206</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.83647179922867</v>
+        <v>29.28464350049421</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>21.85385796102443</v>
+        <v>35.13690747821576</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>21.81658570329141</v>
+        <v>2.629282658016585</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>21.85875607573875</v>
+        <v>34.91781224434967</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>21.87188872145947</v>
+        <v>39.90446794981322</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>21.86805894262078</v>
+        <v>30.6398453153644</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>21.89036001674315</v>
+        <v>31.87244488218635</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>21.90837468621281</v>
+        <v>37.93820921145027</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>21.78853963021478</v>
+        <v>10.78826272611261</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>21.86423086880401</v>
+        <v>23.54329002078083</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>21.88825848578111</v>
+        <v>35.95952729359873</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>21.76278570714669</v>
+        <v>6.855065794105872</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>21.87159572116317</v>
+        <v>25.34295254072213</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>21.90438540602072</v>
+        <v>35.70920094851911</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>21.76530974195532</v>
+        <v>11.04765169496073</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>21.85029744430955</v>
+        <v>28.45432584051008</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>21.88412322583655</v>
+        <v>42.59886874451031</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>21.81653928028605</v>
+        <v>4.995788555786032</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>21.88424990884051</v>
+        <v>38.46418210826777</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>21.8723696036032</v>
+        <v>29.74994226861651</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>21.858713673741</v>
+        <v>22.257422945487</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>21.90568423619109</v>
+        <v>40.95663188799911</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>21.93920472925937</v>
+        <v>47.87447941208804</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>21.73938547393536</v>
+        <v>10.33170412513718</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>21.86621723470446</v>
+        <v>18.4940346008074</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>21.91051041628353</v>
+        <v>25.06468285440368</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>21.72313081330908</v>
+        <v>15.05402265051291</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.85475609947281</v>
+        <v>21.29823736353917</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>21.89536603466512</v>
+        <v>32.14863551260182</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>21.70607469748114</v>
+        <v>10.34387372557747</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21.80975015026366</v>
+        <v>14.24759784110222</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>21.85240270086488</v>
+        <v>20.14443813905833</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>21.78391352758035</v>
+        <v>1.852353084518242</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>21.86676086830697</v>
+        <v>23.4940062083092</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>21.89983893838698</v>
+        <v>37.21089545735049</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.91054500961521</v>
+        <v>22.56731897405725</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>21.96270064881328</v>
+        <v>44.68432457773603</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22.00326324542778</v>
+        <v>56.22518827177623</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>21.76038783355265</v>
+        <v>5.559452247976466</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>21.91413619134806</v>
+        <v>19.50553529780604</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>21.96832385499054</v>
+        <v>29.5335598107356</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>21.95572646586389</v>
+        <v>58.34076925701124</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>21.97335631115131</v>
+        <v>50.85353704515135</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>22.02707704418389</v>
+        <v>62.74127126074614</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>22.06337782016942</v>
+        <v>70.14313374520214</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.83140193904667</v>
+        <v>21.36388712308575</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>21.98970923607068</v>
+        <v>57.08638959886752</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>22.03397084067141</v>
+        <v>60.79828323934426</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.78556736414954</v>
+        <v>20.97356566146276</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.94272682747051</v>
+        <v>38.87123849958156</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>21.98427628804921</v>
+        <v>44.69896161569273</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>21.78922742968055</v>
+        <v>13.6836828075964</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>21.9177025909831</v>
+        <v>42.20358924297841</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>21.96075670932192</v>
+        <v>47.918017292142</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>21.87469767943928</v>
+        <v>11.43980513023871</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>21.97790419149979</v>
+        <v>58.45475756950928</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>22.01118090973561</v>
+        <v>70.29533056779441</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>22.06310609673075</v>
+        <v>72.81690099322915</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>22.12223964745545</v>
+        <v>82.36058234143422</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>22.16591852353178</v>
+        <v>91.8854065786646</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21.88682172865948</v>
+        <v>26.57645410157869</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>22.07583003477906</v>
+        <v>72.65178399082427</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>22.12984507676077</v>
+        <v>77.60474135264869</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>21.95173291659529</v>
+        <v>60.8058208508142</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.96902307232122</v>
+        <v>42.29311558990152</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>22.02202574240078</v>
+        <v>50.77632261763637</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>22.05875273299705</v>
+        <v>64.37353183286743</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.82766832216813</v>
+        <v>10.50440489895787</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.98724546258859</v>
+        <v>50.84618919195483</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>21.78358753954477</v>
+        <v>14.27455729626047</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>21.94020303737135</v>
+        <v>34.86893597640392</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>21.9813415041262</v>
+        <v>43.24429478270478</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.79335284182931</v>
+        <v>8.9914677615035</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>21.92271204934381</v>
+        <v>40.68954617902137</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>21.96537194100203</v>
+        <v>51.18364407924964</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>21.87639163744205</v>
+        <v>8.323464732316509</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>21.98043335087979</v>
+        <v>58.97079998883493</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.0134588613119</v>
+        <v>74.83299431156613</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>22.06622961986299</v>
+        <v>70.39110165164539</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.12452251942222</v>
+        <v>77.45216894508006</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>22.1684345794258</v>
+        <v>92.8380667432852</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>21.89113811157617</v>
+        <v>15.64333945048032</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22.08106432503591</v>
+        <v>68.98477510566036</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>22.13452119692684</v>
+        <v>78.19489764256662</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>21.91051201578421</v>
+        <v>56.45568626330117</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>21.90727611510819</v>
+        <v>26.36036606636772</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>21.95126238497372</v>
+        <v>36.63167456285152</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>21.98446127467232</v>
+        <v>53.40302254212291</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>21.79425100690513</v>
+        <v>9.464822455227564</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>21.92032984318177</v>
+        <v>43.62911684993332</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.96281895353311</v>
+        <v>54.16058737961092</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21.77353770878432</v>
+        <v>11.306080787465</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>21.89999018213673</v>
+        <v>33.88334981842421</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21.93830926471879</v>
+        <v>48.42003440033726</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>21.77683156996488</v>
+        <v>12.22327799480784</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>21.87964091852411</v>
+        <v>39.11015935238275</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21.91995908463434</v>
+        <v>54.9912232706309</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21.84363336917366</v>
+        <v>7.186162211389124</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.92610581831283</v>
+        <v>52.5421203281854</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21.95750966884539</v>
+        <v>73.81006565250937</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>21.98175691635102</v>
+        <v>56.56619398559452</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>22.03054167048967</v>
+        <v>70.75558198478348</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>22.07011672315653</v>
+        <v>92.01614758310933</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>21.84025832385656</v>
+        <v>13.15075408826417</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>21.99163040766419</v>
+        <v>61.57726945093651</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.04282376735836</v>
+        <v>77.46079070918495</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>21.79239554198073</v>
+        <v>17.71971235292216</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>21.90514529884206</v>
+        <v>44.66013186449128</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>21.92618772187275</v>
+        <v>59.03274895848042</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.8004635161214</v>
+        <v>7.333943645538241</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21.88422959023206</v>
+        <v>56.0486037051862</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>21.90491213767975</v>
+        <v>63.22965192313136</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.85846452724762</v>
+        <v>24.57424396643029</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.92572523961079</v>
+        <v>84.70446306370687</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>21.94086915421714</v>
+        <v>92.68617010754986</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>21.94979311403002</v>
+        <v>54.59261644659418</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21.98630912997008</v>
+        <v>66.59991448525471</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.00403550176928</v>
+        <v>66.72570320460704</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21.822560161324</v>
+        <v>20.83589596827566</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.94155311826673</v>
+        <v>48.02274688602134</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.96952215666525</v>
+        <v>61.03715758502388</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21.77659373815462</v>
+        <v>16.31698531634994</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.94430832593866</v>
+        <v>40.38496385708503</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>21.98564726116526</v>
+        <v>44.43162502266059</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.7577959500019</v>
+        <v>-6.69879903232717</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>21.89082592578903</v>
+        <v>23.81175583674994</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.93309227891024</v>
+        <v>25.54855766982372</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>21.84864260575619</v>
+        <v>1.672004428592619</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>21.95486063508329</v>
+        <v>48.21109265033527</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>21.82070691529899</v>
+        <v>27.96912290510697</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>21.95560762177381</v>
+        <v>63.1411186628063</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>21.9757503744725</v>
+        <v>67.80570256634641</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.84420235313345</v>
+        <v>12.69414377691023</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>21.94910252396804</v>
+        <v>74.13683799493354</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>21.96815397448075</v>
+        <v>74.15577494280623</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.9096442456656</v>
+        <v>29.71992510225037</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.9943006434471</v>
+        <v>102.1427866660531</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>22.007960383202</v>
+        <v>102.4044979200144</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.04585633560826</v>
+        <v>93.88440593271702</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>22.08825401278034</v>
+        <v>106.1940886243473</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>22.10687962163721</v>
+        <v>100.8761114055016</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>21.89496080697737</v>
+        <v>33.03099202036695</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.04356021870606</v>
+        <v>77.57009519740906</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.06899933587705</v>
+        <v>80.84358366109399</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>21.83312784351669</v>
+        <v>23.36834614068977</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>22.03302781364504</v>
+        <v>57.27310917253056</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>22.07504228155007</v>
+        <v>56.68707390343979</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>21.83646970064231</v>
+        <v>-2.219586622395063</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>22.00081736513993</v>
+        <v>47.92413792254125</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>22.04301456237013</v>
+        <v>48.1750774208045</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>21.93790244929777</v>
+        <v>10.40333905116277</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>22.06980509344519</v>
+        <v>77.06974980381213</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>21.80770155706735</v>
+        <v>17.89109111936308</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>21.9421389856377</v>
+        <v>53.80064221436227</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>21.96225156173189</v>
+        <v>58.84929110414534</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.8349369818672</v>
+        <v>9.411558807320059</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>21.94075970890016</v>
+        <v>70.39496155749407</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.95984774077186</v>
+        <v>71.36645483101974</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.89892701707026</v>
+        <v>25.85125903254975</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>21.98442297600839</v>
+        <v>97.66727798056581</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>21.9981754261968</v>
+        <v>98.9699780990523</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>22.0348692751717</v>
+        <v>97.26983011586714</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>22.07686709391182</v>
+        <v>108.1890787741921</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>22.09617373849882</v>
+        <v>103.6751195632735</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>21.88450587193076</v>
+        <v>20.51266481913964</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>22.03431855359015</v>
+        <v>67.48585100147653</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>22.05969732067276</v>
+        <v>70.63070127408247</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.81759662947773</v>
+        <v>16.03601863412766</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.0165910966432</v>
+        <v>50.09227678775247</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>22.05841631707035</v>
+        <v>51.94154448987462</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>21.82733743945934</v>
+        <v>-5.523024405906675</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>21.99254750453741</v>
+        <v>44.35301677156551</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>22.03463700406996</v>
+        <v>48.63998227041089</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>21.92635647717912</v>
+        <v>6.704566770177571</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.05910716123713</v>
+        <v>73.23243863432997</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>21.80660360597397</v>
+        <v>8.064238139981915</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>21.91491606003131</v>
+        <v>44.34121170750297</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>21.93527209139464</v>
+        <v>57.54148550913231</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.82808987598373</v>
+        <v>10.79706563272557</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>21.91163825560499</v>
+        <v>71.87811568957925</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.93179675885131</v>
+        <v>79.70612754893565</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.87828744368941</v>
+        <v>24.08637783400232</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.94561822463188</v>
+        <v>95.54002996982587</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>21.96055019003749</v>
+        <v>103.9383792804186</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>21.976569027745</v>
+        <v>86.83891523320216</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>22.01117327543493</v>
+        <v>97.89977041972327</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>22.02978938821186</v>
+        <v>98.53014832926394</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>21.8557952434563</v>
+        <v>15.98259984011265</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>21.97414390782741</v>
+        <v>63.53787335181119</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>22.00122760665018</v>
+        <v>73.83654044810734</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.80391630917144</v>
+        <v>9.248970649235849</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>21.96454058321572</v>
+        <v>44.49754426432298</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>22.00404048282697</v>
+        <v>52.14388626083088</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.8076194672895</v>
+        <v>-4.571603134722928</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>21.93888469493386</v>
+        <v>42.05076333688455</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>21.97944935747513</v>
+        <v>51.70696056854122</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.88635608594606</v>
+        <v>6.05484792898033</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>21.99156071708648</v>
+        <v>68.37341991141071</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>21.98711828843369</v>
+        <v>53.04232594075422</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.99851634141703</v>
+        <v>39.82467057774927</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.06794280902313</v>
+        <v>56.76960861851225</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.1043144097121</v>
+        <v>60.22722988570172</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.81899846700856</v>
+        <v>10.72865550655494</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.01430032550342</v>
+        <v>42.50406205134107</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>22.06568343691277</v>
+        <v>49.76465811096371</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.76442871506848</v>
+        <v>14.26987655399464</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.95909077579687</v>
+        <v>35.74146842462062</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.00820071639157</v>
+        <v>45.23501173097048</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21.74005815309881</v>
+        <v>-4.429688546431223</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>21.90041174655932</v>
+        <v>22.73998028668805</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21.95178508620041</v>
+        <v>31.09354334780245</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.85709000555229</v>
+        <v>2.603146450757194</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>21.98595324009938</v>
+        <v>48.98539451017656</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>22.02540259495449</v>
+        <v>61.78324251103684</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22.06914345563597</v>
+        <v>47.22182478788896</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>22.14652971154907</v>
+        <v>63.60064597994738</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>22.19142529315498</v>
+        <v>68.57707119429691</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21.84753336084023</v>
+        <v>6.987649337676686</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.08155877082257</v>
+        <v>42.00625596867079</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.14516909937142</v>
+        <v>55.42097490240103</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.10182665524118</v>
+        <v>80.30275445091652</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>22.15672659022222</v>
+        <v>76.13094996141979</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>22.23592779496115</v>
+        <v>89.34871559836907</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>22.27498776216599</v>
+        <v>88.17770627948707</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>21.94500430305749</v>
+        <v>25.14248516371528</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>22.18480431147216</v>
+        <v>84.48284168658789</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.23498080266138</v>
+        <v>83.41389438559843</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21.84896632273666</v>
+        <v>19.27983763470942</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>22.07952275505962</v>
+        <v>53.98076580348268</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.12903904509439</v>
+        <v>52.74421453592572</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>21.85136971573631</v>
+        <v>-2.459836541122812</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>22.0468974793741</v>
+        <v>51.46765050371547</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>22.0978876057296</v>
+        <v>48.87691120975883</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>21.9801183137448</v>
+        <v>6.034130614244333</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>22.13789225477824</v>
+        <v>79.13737876920084</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.17682924508068</v>
+        <v>80.37143421533079</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>22.2771734790771</v>
+        <v>89.97992877437224</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>22.36472439223246</v>
+        <v>98.05744351552374</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>22.41266598500201</v>
+        <v>95.01232701028891</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>22.0186447216987</v>
+        <v>23.94391960124139</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>22.30248922359102</v>
+        <v>90.6021745564249</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>22.36452681162955</v>
+        <v>89.97214780319561</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>22.09112627503808</v>
+        <v>80.34732791322502</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>22.1443698692481</v>
+        <v>70.91892872100404</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>22.22244100450227</v>
+        <v>82.82987598096594</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.26222498541036</v>
+        <v>85.44728787611832</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>21.93400099098459</v>
+        <v>15.05176502128415</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>22.17469362364797</v>
+        <v>79.36610901855514</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.22470928282541</v>
+        <v>79.48340845760899</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>21.84169980479217</v>
+        <v>10.98771854602052</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>22.07095807065513</v>
+        <v>48.79518655770476</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.11993717966344</v>
+        <v>48.09903009663637</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>21.85215728236678</v>
+        <v>-7.957266987215974</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>22.04820085767281</v>
+        <v>49.98126663632108</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.09867735268651</v>
+        <v>48.5182115078834</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>21.9773005362751</v>
+        <v>1.035146557622582</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>22.13563998495886</v>
+        <v>78.03384535474174</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>22.17425154180407</v>
+        <v>80.20531436675552</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>22.27450431209617</v>
+        <v>88.90167064190535</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>22.36073813250511</v>
+        <v>96.31040488179681</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.40916205337527</v>
+        <v>96.40978323711366</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>22.01815354349815</v>
+        <v>12.97360353466279</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.30236100598253</v>
+        <v>88.80141741077986</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.36370778222754</v>
+        <v>88.50432821281888</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>22.02271261255287</v>
+        <v>80.63367826515797</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>22.04432042309035</v>
+        <v>53.29037210377061</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.10916066642298</v>
+        <v>68.6819599624817</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>22.1457536306844</v>
+        <v>74.86497244276433</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>21.875185910108</v>
+        <v>12.19920191687011</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.0668179264475</v>
+        <v>73.67896286462468</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>22.11618695427134</v>
+        <v>80.17994118946197</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.81894948563232</v>
+        <v>5.409933952665643</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.00478230337993</v>
+        <v>46.64424569849947</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.05103637771942</v>
+        <v>53.26041681779962</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.82167524241906</v>
+        <v>-4.135070256945973</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>21.9786379120239</v>
+        <v>50.92889352721946</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.02711855951623</v>
+        <v>58.09235355379857</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>21.92265218612771</v>
+        <v>3.164147177647727</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.04916335255792</v>
+        <v>76.7998219352409</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>22.08656363165056</v>
+        <v>87.5963672306633</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>22.14466997750732</v>
+        <v>82.22680065561076</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>22.21686325830254</v>
+        <v>94.88702434412539</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>22.2611555037175</v>
+        <v>101.1949884356475</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>21.93669142819471</v>
+        <v>11.15806395374917</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>22.16464005857681</v>
+        <v>87.17686462064566</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.22468725068437</v>
+        <v>94.99160253103588</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>21.72877849552841</v>
+        <v>14.44348372977202</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>21.81193880996301</v>
+        <v>11.49983125903004</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.83241785565097</v>
+        <v>21.61311094067555</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.73117922778609</v>
+        <v>-1.483763488230323</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>21.78686232326304</v>
+        <v>8.650186776933957</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.80717415776185</v>
+        <v>11.91428504337505</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.77495920150081</v>
+        <v>3.964331938988579</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.81925054588434</v>
+        <v>21.98204773274716</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>21.83440179416916</v>
+        <v>25.67356887138309</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>21.81910829982007</v>
+        <v>10.47321691153565</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>21.84401222938872</v>
+        <v>15.96755366382016</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>21.86391944090008</v>
+        <v>17.71729568319608</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.72640448450263</v>
+        <v>20.70258858532797</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.80759399080357</v>
+        <v>17.45332024165707</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>21.83575689837852</v>
+        <v>30.78521834800708</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>21.68877086519626</v>
+        <v>15.0112989257249</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>21.81429282230853</v>
+        <v>23.40507665269651</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>21.85388166892876</v>
+        <v>32.65459383430983</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>21.66746987870694</v>
+        <v>-1.977117084271036</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>21.75984160767091</v>
+        <v>1.36813139003818</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>21.80053402194679</v>
+        <v>7.318687202971887</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>21.73633787793659</v>
+        <v>-3.397941386643353</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.80938850087292</v>
+        <v>13.85809162079786</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>21.74891370182093</v>
+        <v>15.15217960710016</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.84987566738952</v>
+        <v>19.73375958385206</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.87003038628614</v>
+        <v>23.00844646379835</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>21.76466719892982</v>
+        <v>-2.15807862361849</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.83705663976128</v>
+        <v>19.91549239582799</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.85644785690073</v>
+        <v>21.17884994805721</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>21.8141437208965</v>
+        <v>5.1589630878401</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>21.87217171319186</v>
+        <v>34.80053244487883</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>21.88645415670717</v>
+        <v>35.40028547086913</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>21.89452003620275</v>
+        <v>38.03170776321292</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>21.92385050523859</v>
+        <v>43.09979362608128</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>21.94511750952586</v>
+        <v>45.1443800904589</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>21.78302944838841</v>
+        <v>27.92507034923455</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>21.88777482035509</v>
+        <v>44.74214213394903</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>21.9144553356802</v>
+        <v>51.76540867483003</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>21.73155756097317</v>
+        <v>15.28379924574542</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>21.88308559500672</v>
+        <v>34.24862872645745</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>21.92396114850289</v>
+        <v>42.42937637687905</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>21.72952823909556</v>
+        <v>1.309947205471076</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>21.84687357125318</v>
+        <v>24.88349124807787</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>21.888268869801</v>
+        <v>37.96898339429779</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.80645639215918</v>
+        <v>6.282391632663568</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>21.89996066333551</v>
+        <v>44.60186117203618</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>21.74031281333852</v>
+        <v>6.808243677396412</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>21.84131068675198</v>
+        <v>13.56297621746878</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>21.86145888950198</v>
+        <v>17.6701624724144</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.75947788757988</v>
+        <v>-5.684948662814051</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>21.83317509414571</v>
+        <v>17.18564443471953</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>21.85262209575815</v>
+        <v>20.64065505003654</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.80789481222965</v>
+        <v>2.308892357418216</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.86706958459358</v>
+        <v>32.9426698659116</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.88145253635407</v>
+        <v>35.58088362912656</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>21.88919425265553</v>
+        <v>38.36129742787887</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>21.91836653136165</v>
+        <v>41.67940957481929</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.94015017034197</v>
+        <v>46.56761770938246</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>21.77767605333993</v>
+        <v>14.7121461219321</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>21.8841284031433</v>
+        <v>35.08973509520824</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.91076589526178</v>
+        <v>43.49204204578865</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>21.72181042698098</v>
+        <v>7.157493105943203</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>21.87315134910724</v>
+        <v>26.14904844678107</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.91387243485403</v>
+        <v>37.75341228126018</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>21.7255333887759</v>
+        <v>-3.316869227053846</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>21.84431643165865</v>
+        <v>19.63021876851166</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.88563116482612</v>
+        <v>39.25432822192479</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.80066695300645</v>
+        <v>2.003745965037684</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21.89547662779422</v>
+        <v>40.26749357347761</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>21.74933772932335</v>
+        <v>1.273730183284549</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>21.83013894064966</v>
+        <v>7.692401791011935</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>21.84998572186761</v>
+        <v>17.42298425969177</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.76387901436049</v>
+        <v>-5.062089404644048</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.82110263430692</v>
+        <v>16.52463677391272</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.84092607141038</v>
+        <v>23.29412868037124</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.80159912772611</v>
+        <v>-0.8138739018281953</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.84737855505379</v>
+        <v>28.37564090551441</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>21.8623171798277</v>
+        <v>34.63740924255328</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.85556649335372</v>
+        <v>28.49671378208159</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.87946983081718</v>
+        <v>31.16867182218642</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.89981157409833</v>
+        <v>37.31430009743597</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.76672223057786</v>
+        <v>11.00265636655505</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>21.8495840277726</v>
+        <v>27.28719120769595</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>21.87685545970134</v>
+        <v>41.73672906991855</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.72407064393795</v>
+        <v>4.58085506692824</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.84548232722954</v>
+        <v>22.02928836110897</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>21.88335889058822</v>
+        <v>37.42817872560545</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.72288027831536</v>
+        <v>-1.857398610864074</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>21.81607512872658</v>
+        <v>14.57091731410349</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.85516802008816</v>
+        <v>35.12134131781227</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.7822983807439</v>
+        <v>0.3365779449194903</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>21.85641647382028</v>
+        <v>31.26928110183043</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.84077952636761</v>
+        <v>25.17423075645311</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.81747446529015</v>
+        <v>17.38449681181758</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.86885144814988</v>
+        <v>35.93040073004846</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.90694180309895</v>
+        <v>42.88625891801325</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.68409075099622</v>
+        <v>2.682515142500591</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>21.82341081025048</v>
+        <v>13.72955399900775</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.87431343634206</v>
+        <v>25.24934215764327</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.68314833586967</v>
+        <v>15.91917922890855</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.83047007551076</v>
+        <v>23.02762434190118</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>21.8770668592757</v>
+        <v>31.74541460669337</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>21.65910554984614</v>
+        <v>-2.706966183085449</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>21.77336514186421</v>
+        <v>2.489778478767363</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.82229115997717</v>
+        <v>7.118765453407065</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>21.74915322631369</v>
+        <v>-3.204588083479209</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.8403263978424</v>
+        <v>18.6464936616535</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>21.87823158628979</v>
+        <v>30.54287234611617</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.88436508201347</v>
+        <v>20.40432453991731</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>21.94173907732923</v>
+        <v>39.90822800252334</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>21.98785686166768</v>
+        <v>48.86161102889827</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>21.71558254492761</v>
+        <v>5.146157430299283</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>21.88604795662367</v>
+        <v>19.16969187551279</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>21.9479820790421</v>
+        <v>29.93306741861892</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>21.93179138445269</v>
+        <v>61.72142328581105</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>21.94354638894513</v>
+        <v>50.10057592647165</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>22.00252549992872</v>
+        <v>64.70690680314573</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.04379128205933</v>
+        <v>71.99085819237618</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>21.78440825221786</v>
+        <v>17.63337620158998</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.95943911684978</v>
+        <v>59.9611270691434</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>22.01038340545962</v>
+        <v>69.89633539048064</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>21.75138445880349</v>
+        <v>24.51361522402604</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>21.92776487402853</v>
+        <v>44.79174432973213</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.97549643593472</v>
+        <v>49.94194551182265</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>21.7508440384061</v>
+        <v>4.707475577623118</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>21.89323553130705</v>
+        <v>36.18615911282822</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>21.94268697361414</v>
+        <v>42.17020363680721</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>21.84977461965764</v>
+        <v>11.953814841229</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>21.96404194376133</v>
+        <v>60.80582411982149</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>22.00222593580985</v>
+        <v>72.04234468552733</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>22.05505533481852</v>
+        <v>77.18698439776986</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>22.12028725507174</v>
+        <v>85.67958633389316</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>22.16996641190914</v>
+        <v>92.36250825702908</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>21.85649785110299</v>
+        <v>32.79205318135533</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>22.0670352648824</v>
+        <v>80.49161379083736</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.12881845478545</v>
+        <v>87.5852755219363</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>21.92731612932121</v>
+        <v>63.23451146566882</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>21.93867283533194</v>
+        <v>39.6918961690184</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>21.99691611306446</v>
+        <v>51.3363479069496</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.03870245638957</v>
+        <v>65.40418136890713</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>21.78008970808819</v>
+        <v>5.328561313286322</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.95679099810664</v>
+        <v>51.85991429583401</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.00758236673659</v>
+        <v>65.42345841858574</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>21.74882148022628</v>
+        <v>16.23922274003332</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.9247092130026</v>
+        <v>39.17953195271693</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.9719956169458</v>
+        <v>47.78825418768788</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.75540235049386</v>
+        <v>-1.338584106479903</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>21.8989717121264</v>
+        <v>33.23215362844252</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>21.94800217206803</v>
+        <v>45.00293340207448</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>21.85154892655239</v>
+        <v>7.228146528591999</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>21.96691052145384</v>
+        <v>59.64028024990679</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>22.00483290938283</v>
+        <v>75.8621312097975</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>22.05859745869063</v>
+        <v>73.25366071227667</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.12295244918888</v>
+        <v>79.77087825778553</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.17293340552014</v>
+        <v>92.95660198641241</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>21.86127398831281</v>
+        <v>20.27832502244744</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>22.07307540697641</v>
+        <v>75.35058663227571</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.13426223150333</v>
+        <v>87.68109725946741</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>21.8867450864689</v>
+        <v>55.2312274386082</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>21.87578784580222</v>
+        <v>22.52825362668465</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>21.9240413538582</v>
+        <v>33.5522721902511</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>21.96183679606385</v>
+        <v>50.90084046122773</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>21.74920958764276</v>
+        <v>2.817383085720838</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>21.88840778851896</v>
+        <v>39.79837323043988</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>21.93729360568774</v>
+        <v>57.39862839309271</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>21.74179522097037</v>
+        <v>11.70240472116532</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>21.88363658371189</v>
+        <v>35.60721132231494</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.92764877901624</v>
+        <v>49.35227255809095</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>21.74161609252608</v>
+        <v>0.1878976165031574</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>21.85544922803533</v>
+        <v>28.94893977250576</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>21.90174967320812</v>
+        <v>44.92867368445695</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>21.81895174731917</v>
+        <v>3.670446764586682</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>21.91016530160016</v>
+        <v>49.70942492663731</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>21.94619610569931</v>
+        <v>70.52124421916514</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>21.96815916765501</v>
+        <v>56.25656190420242</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>22.02196390179565</v>
+        <v>68.55987164553891</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>22.06702980395312</v>
+        <v>87.67454461128634</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>21.80888066352233</v>
+        <v>13.96199220390869</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>21.97734786476108</v>
+        <v>63.54512674701013</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.03593365629568</v>
+        <v>81.39075149824419</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>21.73867027000744</v>
+        <v>13.19293068186434</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>21.81093688329128</v>
+        <v>9.790203588391115</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.82805561935211</v>
+        <v>18.43603866269228</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.73957628382644</v>
+        <v>-0.5129444134333774</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>21.7885624700884</v>
+        <v>7.165944861612612</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.80551960234748</v>
+        <v>9.851279926797606</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.77840947221848</v>
+        <v>3.598119765902023</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.81741530788946</v>
+        <v>19.02341518288592</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>21.83002038587322</v>
+        <v>22.19736650617682</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.81665816167999</v>
+        <v>8.385449369425146</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.83845030428309</v>
+        <v>13.27670506840121</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.85464841251148</v>
+        <v>14.43171809948816</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>21.73552336600646</v>
+        <v>12.09503719296126</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>21.80673092390501</v>
+        <v>7.961841921229144</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>21.83007836294595</v>
+        <v>18.28014503070073</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.70919224972343</v>
+        <v>15.10885243074318</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.81822559733742</v>
+        <v>21.90343513661021</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>21.85152722764757</v>
+        <v>29.82876744844474</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.68993922451212</v>
+        <v>-0.1393926656720623</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.77091984911399</v>
+        <v>3.497589285479858</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>21.8051421632792</v>
+        <v>8.714596251191882</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.75067021997054</v>
+        <v>-0.4069536972296817</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>21.81478566014761</v>
+        <v>15.64364718181117</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21.75476193975711</v>
+        <v>13.23381086593212</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.84237061688836</v>
+        <v>15.8910231109425</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.85914594296174</v>
+        <v>18.89365745406298</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.76690272864728</v>
+        <v>-1.414276217581197</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.8303138283264</v>
+        <v>16.0809490033982</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>21.8464140255304</v>
+        <v>17.06510436078848</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.81076556566198</v>
+        <v>3.251202293507369</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>21.86163372845387</v>
+        <v>28.21024226946419</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.87343664247838</v>
+        <v>28.74625601388968</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.87986544001401</v>
+        <v>30.6438488274848</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.90550312110693</v>
+        <v>34.95446935745861</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.92276550323597</v>
+        <v>36.14527441757394</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.78246898928338</v>
+        <v>16.1798243152838</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>21.87400411686115</v>
+        <v>28.22519094446994</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.89597474723352</v>
+        <v>33.38381802134155</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>21.74495475696417</v>
+        <v>14.39637832735641</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>21.87640061735959</v>
+        <v>30.10616670439947</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.91070789416337</v>
+        <v>37.22011807167199</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.7419867334809</v>
+        <v>1.662629736399182</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>21.84452403071828</v>
+        <v>22.59280785346366</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.87924797208922</v>
+        <v>33.36258069982214</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.80981748674196</v>
+        <v>6.029442068472111</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.89159107440076</v>
+        <v>40.01986510057134</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.747345506249</v>
+        <v>5.97828241818625</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.83494869274256</v>
+        <v>10.18517632439692</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.85172036458582</v>
+        <v>14.11502429099642</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.76242379672476</v>
+        <v>-4.224613787929552</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.82691005284102</v>
+        <v>13.64595948496302</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21.84306002242482</v>
+        <v>16.66936898640079</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.80534120017005</v>
+        <v>0.9270584253661305</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21.85715468892458</v>
+        <v>26.37324694429883</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>21.86904516395375</v>
+        <v>28.83187924309848</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>21.87516662644002</v>
+        <v>31.31509268291467</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>21.90065657198308</v>
+        <v>34.05240892198144</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>21.9183782237509</v>
+        <v>37.67273566308418</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>21.77779910429589</v>
+        <v>4.982227341394935</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>21.87073843141418</v>
+        <v>19.73315887466913</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>21.89268023380039</v>
+        <v>26.19176273169578</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.73634555449203</v>
+        <v>7.433224308069384</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>21.86757775391338</v>
+        <v>23.0299599218517</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.90175577675681</v>
+        <v>33.3111904359124</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.73830720263239</v>
+        <v>-2.175025233742552</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>21.84201077207562</v>
+        <v>18.06243857312302</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.87666885821242</v>
+        <v>34.54354259200481</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.8045517588698</v>
+        <v>2.473189819719181</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>21.88738975775203</v>
+        <v>36.20039637197407</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>21.75631674183796</v>
+        <v>1.32956459110563</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.82644820606668</v>
+        <v>5.561244942504082</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>21.84304114816994</v>
+        <v>14.18697093326647</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.76769898890133</v>
+        <v>-3.947133098794961</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.81786190603325</v>
+        <v>13.21762742278445</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.83441699150149</v>
+        <v>19.02339678688797</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>21.80120702712996</v>
+        <v>-1.32922912849266</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>21.84136995153641</v>
+        <v>23.22951039637583</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>21.85380614747993</v>
+        <v>28.79428066259546</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>21.84769922763333</v>
+        <v>23.80804936068842</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>21.86859286935269</v>
+        <v>26.30775236508362</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.8852299777608</v>
+        <v>31.09310999853524</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>21.77004962489336</v>
+        <v>2.630965142864767</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>21.84250645202429</v>
+        <v>14.86657253138296</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.86513104426112</v>
+        <v>26.07618924637028</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>21.73879455744642</v>
+        <v>5.638898884729752</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>21.84413769990289</v>
+        <v>20.22792505324818</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>21.87599672096306</v>
+        <v>33.67413739720838</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>21.73681016557174</v>
+        <v>-0.7839522190940507</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.81828816592955</v>
+        <v>14.17032977152221</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.8511652026815</v>
+        <v>31.68341516731932</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.78927277172327</v>
+        <v>1.905258377402141</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>21.85413092651731</v>
+        <v>29.64640249705318</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.84113836041604</v>
+        <v>24.98181059072428</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.8223814230227</v>
+        <v>18.86859567487351</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>21.86697543960444</v>
+        <v>35.04160091190626</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>21.89843195590456</v>
+        <v>40.5107185001969</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>21.70594650158438</v>
+        <v>4.921823636469519</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>21.8276920230508</v>
+        <v>14.48910179921878</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>21.8702059295565</v>
+        <v>24.22878528953449</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>21.70457461769043</v>
+        <v>14.33581285363297</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.83250313265026</v>
+        <v>20.24957728622675</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>21.87171843132327</v>
+        <v>29.42059311998622</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>21.68258728726446</v>
+        <v>-2.198892576320066</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.78257802185878</v>
+        <v>2.832551171693456</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.82374788761797</v>
+        <v>8.881726154782509</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>21.76167994020869</v>
+        <v>-1.553324125084188</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>21.84153827458336</v>
+        <v>18.38862180441899</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.87338407476523</v>
+        <v>30.03432154854355</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.8797286557704</v>
+        <v>20.6460041183888</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>21.92962672756764</v>
+        <v>38.04155939582553</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>21.9678489405719</v>
+        <v>45.71577030098116</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>21.7329285771666</v>
+        <v>4.1085607197912</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>21.88170058886684</v>
+        <v>16.81683203266939</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>21.9335433680565</v>
+        <v>27.64634709586391</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>21.91823527633938</v>
+        <v>53.89690669098548</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>21.92938756110622</v>
+        <v>44.85847826156201</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>21.98056441350884</v>
+        <v>57.51836288412618</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>22.01459720153542</v>
+        <v>63.09608774185757</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>21.79068102122361</v>
+        <v>15.2826751768987</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>21.94323306815952</v>
+        <v>51.16808692196629</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>21.98562714459035</v>
+        <v>59.19909791615103</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>21.76205434333609</v>
+        <v>20.64481731821279</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.91503159357649</v>
+        <v>38.14701346268853</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>21.95510875296036</v>
+        <v>43.9499169758535</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>21.75993853851385</v>
+        <v>4.067404254889144</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>21.8842160297772</v>
+        <v>32.1577608964614</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>21.92571988287597</v>
+        <v>38.44263883567245</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>21.84685878697871</v>
+        <v>10.23392164935595</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>21.94665806254475</v>
+        <v>53.73080493505086</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>21.97864457523257</v>
+        <v>63.93938222979669</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>22.02483090816495</v>
+        <v>67.56117510704709</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>22.08154662936008</v>
+        <v>75.98892744604314</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>22.12266410684041</v>
+        <v>81.23412413662487</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>21.85231643824706</v>
+        <v>26.83040156075551</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.03566452556886</v>
+        <v>68.52073376093597</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>22.08720313419179</v>
+        <v>75.67766599794669</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>21.91404383922957</v>
+        <v>55.25770052452319</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>21.92477075860495</v>
+        <v>36.35365503044078</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>21.97530237217199</v>
+        <v>46.56843181430663</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>22.00980322474934</v>
+        <v>57.8743483870544</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>21.78660557771496</v>
+        <v>4.847701198131297</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>21.9405041409394</v>
+        <v>44.2587596906048</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>21.98277859010971</v>
+        <v>55.545831068886</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>21.75956063879803</v>
+        <v>13.61412263999163</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>21.91205738872328</v>
+        <v>33.49252488870376</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>21.95175671218391</v>
+        <v>42.22814875868863</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>21.76355957646678</v>
+        <v>-0.8251586324395959</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>21.8887746405531</v>
+        <v>30.07072488743829</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>21.92992167267289</v>
+        <v>41.12429417452063</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>21.84803991377935</v>
+        <v>6.52950957801783</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>21.94871765243086</v>
+        <v>53.14465777460223</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>21.98048292713523</v>
+        <v>67.49413060808554</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>22.02738433235824</v>
+        <v>64.71468264591559</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>22.08333011069649</v>
+        <v>71.61215270738441</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>22.12473023331577</v>
+        <v>82.30416983526314</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>21.85599502599236</v>
+        <v>16.44011189787559</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>22.0403337683681</v>
+        <v>64.79093528970142</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.09137302760509</v>
+        <v>76.29056004169937</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>21.87959382466584</v>
+        <v>49.80203228688239</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>21.87117229092658</v>
+        <v>22.86463546265125</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>21.91303961404516</v>
+        <v>33.21512620095794</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>21.94433304032341</v>
+        <v>46.90200894468642</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>21.76079098798207</v>
+        <v>3.817804833801986</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>21.88216401375542</v>
+        <v>35.89078646706485</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.92300886822962</v>
+        <v>50.63069496894681</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>21.75409257059834</v>
+        <v>10.15696509239286</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>21.8771375948338</v>
+        <v>31.25550911911148</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>21.91416779422514</v>
+        <v>44.27985445506742</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>21.75263167733046</v>
+        <v>0.4856044966770909</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>21.8520258536887</v>
+        <v>26.80894838157383</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>21.89097748076131</v>
+        <v>41.59572622238704</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>21.82063896709732</v>
+        <v>4.366460514923222</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>21.90034058507606</v>
+        <v>45.92672815626598</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>21.93060586629489</v>
+        <v>64.40069610038776</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>21.95027011657801</v>
+        <v>51.89351395702514</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>21.99704471058314</v>
+        <v>63.60171635388379</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>22.03446365216184</v>
+        <v>79.330082175342</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>21.81184114062162</v>
+        <v>11.3425874394526</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>21.95860312824747</v>
+        <v>55.97686322663508</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>22.00764191269174</v>
+        <v>72.03886507815503</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>21.75869976546527</v>
+        <v>13.19936805111539</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>21.83957820315216</v>
+        <v>19.97119849028217</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.85706663210646</v>
+        <v>32.25368378851238</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.75978002390233</v>
+        <v>-1.7866044580195</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>21.81710011437397</v>
+        <v>16.53774375479323</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.83440545352552</v>
+        <v>21.81923247419904</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.80374807156458</v>
+        <v>6.694618428791838</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>21.8495017109058</v>
+        <v>37.95470986370713</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>21.86229364785646</v>
+        <v>43.55144009116025</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.85420590623519</v>
+        <v>23.35994087301133</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.87966954075275</v>
+        <v>29.21750502457154</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.89507121169475</v>
+        <v>30.19889441133339</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>21.76288944229627</v>
+        <v>9.36111485825605</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.8455600859003</v>
+        <v>18.6348247827071</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.86880942614582</v>
+        <v>30.63797536872267</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>21.72874166541519</v>
+        <v>15.31880940000282</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>21.8496254010352</v>
+        <v>25.87356032408649</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.88371670417199</v>
+        <v>30.87709960441558</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>21.70804900218941</v>
+        <v>-3.217870549470522</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>21.80054179765393</v>
+        <v>6.152449146509515</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>21.83556588383558</v>
+        <v>7.233816901542124</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>21.7764420989565</v>
+        <v>-3.020710338914526</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>21.84986972071363</v>
+        <v>21.8579435719391</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>21.77807169122162</v>
+        <v>17.19546523641188</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.87561982039152</v>
+        <v>33.92746751472603</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.89257902228751</v>
+        <v>38.51460917436348</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>21.79095047822171</v>
+        <v>3.189556830822109</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>21.86406886985189</v>
+        <v>36.76270792074931</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>21.88028725430085</v>
+        <v>37.74134922269862</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>21.84052528209475</v>
+        <v>10.7677276055171</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>21.89927087445842</v>
+        <v>56.65972650851246</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>21.91106276213296</v>
+        <v>57.089410662839</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>21.92435318095853</v>
+        <v>56.7822818107206</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>21.95414054111886</v>
+        <v>62.77218905452023</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>21.97044250170515</v>
+        <v>63.07478540740657</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>21.81527303138824</v>
+        <v>19.51389531114036</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>21.9201749681962</v>
+        <v>50.87578354392812</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>21.94167679521739</v>
+        <v>56.03320074039533</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>21.76898313459637</v>
+        <v>17.37917419924013</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>21.9141221205355</v>
+        <v>39.63844893086302</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>21.9490122747015</v>
+        <v>42.09785591274314</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>21.76535522495115</v>
+        <v>1.359279650571203</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>21.88131739960921</v>
+        <v>32.80510329873603</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>21.91658393376377</v>
+        <v>36.02162220949257</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>21.84166596331596</v>
+        <v>6.187572767361935</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>21.93432301056805</v>
+        <v>53.54307662596359</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>21.76935964629367</v>
+        <v>9.500149397412663</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.86675410348943</v>
+        <v>27.37182818738763</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>21.88369965332827</v>
+        <v>33.33270052643589</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>21.78530584875847</v>
+        <v>1.067536973559339</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>21.859379073987</v>
+        <v>34.63322683987221</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>21.87563839557613</v>
+        <v>38.08996031058295</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>21.83378711440954</v>
+        <v>9.05944571649059</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.89338403882095</v>
+        <v>54.87076815784008</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>21.90525894316778</v>
+        <v>57.66135112673861</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>21.91802067213998</v>
+        <v>59.11601066404281</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>21.94758196610697</v>
+        <v>63.35481957434074</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>21.9644035143682</v>
+        <v>66.32491851756726</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>21.80914334044145</v>
+        <v>8.343794932006663</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>21.91528882498898</v>
+        <v>42.14568688731469</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>21.93676106185573</v>
+        <v>48.68762179190168</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>21.75883443039446</v>
+        <v>10.5994182340318</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>21.90355714646784</v>
+        <v>32.2517436165227</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>21.93830415653822</v>
+        <v>38.67432044895837</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>21.7603685705768</v>
+        <v>-2.020638638208318</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>21.87733184475122</v>
+        <v>28.16355705700018</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>21.91252065114346</v>
+        <v>37.78511846503046</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>21.83487325410361</v>
+        <v>3.162695550603058</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>21.92846586636933</v>
+        <v>49.59534206496702</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>21.7744011615032</v>
+        <v>3.849696887815302</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>21.85254053965215</v>
+        <v>19.55152482431829</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>21.86947269174073</v>
+        <v>32.89514102389428</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>21.78647241213116</v>
+        <v>-0.3805395883926543</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>21.84444091936859</v>
+        <v>29.5448035450528</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>21.86131834247361</v>
+        <v>39.23032710932023</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>21.82448970909193</v>
+        <v>6.011184077910311</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>21.87098151357147</v>
+        <v>48.13297003139017</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>21.88359300260656</v>
+        <v>57.28811203575395</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>21.88247939011059</v>
+        <v>49.40622660543394</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>21.90675978778259</v>
+        <v>53.52710003175655</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>21.92276921007863</v>
+        <v>59.04626572931529</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>21.79544033181557</v>
+        <v>5.861743509096598</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>21.87864286304817</v>
+        <v>34.78245681209847</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.90118483984536</v>
+        <v>48.34611086703498</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>21.75649977410758</v>
+        <v>6.125305090464053</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>21.87286552327443</v>
+        <v>25.29525447653046</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>21.9054586365577</v>
+        <v>36.93110662064813</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>21.75395659781708</v>
+        <v>-3.529951685912668</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>21.84622000193521</v>
+        <v>18.58485740720474</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>21.8798486777072</v>
+        <v>32.70839653863283</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>21.8131678502901</v>
+        <v>-0.4015415667467863</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>21.88676252194182</v>
+        <v>37.33692864086277</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.8767360882263</v>
+        <v>27.27504618363721</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.86371775295117</v>
+        <v>20.88090920249197</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>21.91362208553905</v>
+        <v>35.48110429850279</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.94443606543001</v>
+        <v>36.88292887396615</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.734027866086</v>
+        <v>2.73375011258177</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.87192494328826</v>
+        <v>14.67485656986727</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.91456636983618</v>
+        <v>23.04215626415581</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>21.71988762475634</v>
+        <v>11.71663379557262</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>21.86135454943655</v>
+        <v>19.92848170481633</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>21.90168316914606</v>
+        <v>31.71666149323737</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>21.69518081472245</v>
+        <v>-5.059252496646632</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>21.80849432324458</v>
+        <v>4.128817301916278</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.85082334991434</v>
+        <v>12.62713422112492</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>21.78361313644932</v>
+        <v>-4.112790580866104</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.87429534693996</v>
+        <v>23.0960323457921</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>21.90693261367389</v>
+        <v>37.59805961036972</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>21.91895428710995</v>
+        <v>23.96524395539801</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>21.97497515388833</v>
+        <v>41.50463553650081</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>22.0128975405093</v>
+        <v>50.80196083711286</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>21.75704261161136</v>
+        <v>-0.8096478629724722</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.9244792270334</v>
+        <v>17.16933668842459</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>21.97692939853958</v>
+        <v>30.79181947996492</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.96125540559257</v>
+        <v>60.74421441362474</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>21.98040941642403</v>
+        <v>55.00266508970958</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>22.03757700377585</v>
+        <v>65.66056039619642</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>22.07078196127139</v>
+        <v>66.33369312652076</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.82649259406716</v>
+        <v>15.98183470247649</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>21.99787990970597</v>
+        <v>59.69475638777539</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.03994415032849</v>
+        <v>63.46946222894686</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.7822190945771</v>
+        <v>18.97968971157809</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.95079022502744</v>
+        <v>41.79167563960932</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>21.99173660222942</v>
+        <v>46.50605849524685</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>21.7782254217305</v>
+        <v>1.844718254235865</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>21.91796731578842</v>
+        <v>39.58872392004126</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>21.96032586989134</v>
+        <v>42.46645987413381</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>21.87542404118349</v>
+        <v>6.638157013822259</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>21.98781117764367</v>
+        <v>62.64948613221934</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>22.02032517043608</v>
+        <v>70.28881891736819</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>22.07476623500381</v>
+        <v>75.14404765545709</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>22.1383485723753</v>
+        <v>83.34384275222075</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>22.17898583200475</v>
+        <v>89.65261872581431</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>21.88498583545908</v>
+        <v>21.03081180991779</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.08999587735978</v>
+        <v>74.0383732324496</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>22.14162520342018</v>
+        <v>79.20633352738292</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>21.95540221955322</v>
+        <v>62.79034074230562</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>21.97386177245953</v>
+        <v>47.5960361684002</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>22.03026802364572</v>
+        <v>55.46344297302026</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>22.06401542396266</v>
+        <v>62.68832707183945</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>21.82072397957631</v>
+        <v>5.869233565731875</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.9932277655976</v>
+        <v>53.2169789675972</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.03517638264741</v>
+        <v>60.58440504903908</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>21.77851539251033</v>
+        <v>11.68846893256765</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>21.94637176199908</v>
+        <v>36.51324953999542</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>21.98690549460099</v>
+        <v>44.40010948562046</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>21.78096154257584</v>
+        <v>-3.844394074538116</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>21.92144299306663</v>
+        <v>36.39467834716345</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>21.9634093020256</v>
+        <v>44.05893717909103</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>21.87543705174518</v>
+        <v>2.231928413968411</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>21.98854660427577</v>
+        <v>60.96446955827364</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.0208145491048</v>
+        <v>72.83450638256051</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>22.07578650520254</v>
+        <v>71.89974693253535</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.13846229866959</v>
+        <v>78.25607903733155</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.17944450925746</v>
+        <v>91.01493671467355</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>21.88740973467814</v>
+        <v>9.590293451179459</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>22.0931346146005</v>
+        <v>69.67994109654109</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.14423753752061</v>
+        <v>79.16289063782773</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>21.91271154539085</v>
+        <v>54.70240267777952</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>21.90976329285846</v>
+        <v>27.2398791758463</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>21.95652163359895</v>
+        <v>36.7566409372848</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.98736497135392</v>
+        <v>46.21453091308916</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>21.78718184586046</v>
+        <v>2.535552650303423</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.92368518613077</v>
+        <v>40.16590514811007</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.96467751360747</v>
+        <v>53.3853431939084</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>21.76882704547346</v>
+        <v>5.436390005950518</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>21.90445392510526</v>
+        <v>30.5409083833139</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.94248767727521</v>
+        <v>45.33376576154993</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>21.76581409259645</v>
+        <v>-4.10488541086271</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>21.87766866618005</v>
+        <v>29.07795756800403</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>21.91766908355148</v>
+        <v>44.75186476754382</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>21.84202942818583</v>
+        <v>-1.407454681941054</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>21.93186655010545</v>
+        <v>49.84375949038979</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.96284783334291</v>
+        <v>69.88526129708035</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>21.98819916800068</v>
+        <v>56.14781699888469</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>22.04060482066383</v>
+        <v>67.92395777131351</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>22.07787777254199</v>
+        <v>86.01103802448907</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>21.83586619558474</v>
+        <v>4.621594795566232</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>22.00008303673755</v>
+        <v>58.89250012988953</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>22.04967010944643</v>
+        <v>76.26617065931728</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.60312837141865</v>
+        <v>11.60312837141828</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.65227971257302</v>
+        <v>10.65227971257305</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.20019211067697</v>
+        <v>21.20019211067657</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.552244601539968</v>
+        <v>7.552244601539812</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.87306296103983</v>
+        <v>19.87306296104016</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.06905285331369</v>
+        <v>23.06905285331363</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.069929762386383</v>
+        <v>5.06992976238654</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.76086211395472</v>
+        <v>25.76086211395545</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.03916058482972</v>
+        <v>29.03916058482947</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10.16258784316848</v>
+        <v>10.16258784316879</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14.35771919857075</v>
+        <v>14.35771919857092</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.44348241838109</v>
+        <v>16.44348241838085</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18.19957077786528</v>
+        <v>18.19957077786533</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.68172067725553</v>
+        <v>11.68172067725533</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.0760536064467</v>
+        <v>23.07605360644633</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.93915447258777</v>
+        <v>16.93915447258811</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.78780148629838</v>
+        <v>25.78780148629805</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.26707508864594</v>
+        <v>32.26707508864578</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.43256638213722</v>
+        <v>12.43256638213681</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.95306358836155</v>
+        <v>15.95306358836086</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.12206794409322</v>
+        <v>18.12206794409214</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.917584594745762</v>
+        <v>2.917584594746216</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.85200540143553</v>
+        <v>21.85200540143535</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.02061324121056</v>
+        <v>16.02061324121061</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.71948466126469</v>
+        <v>21.71948466126449</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.37900738030429</v>
+        <v>24.37900738030483</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.802748854742763</v>
+        <v>6.802748854743093</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.86438411837072</v>
+        <v>29.86438411837081</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.11572826513025</v>
+        <v>30.11572826513005</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.760974786257393</v>
+        <v>6.760974786257336</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.00984220966436</v>
+        <v>38.00984220966473</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.31894421382169</v>
+        <v>37.31894421382219</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.89730045648375</v>
+        <v>36.89730045648373</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.37863369012126</v>
+        <v>40.37863369012158</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.4939715661392</v>
+        <v>42.49397156613934</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.43162681325473</v>
+        <v>25.43162681325445</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.37692668543492</v>
+        <v>36.37692668543521</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>40.87063244832899</v>
+        <v>40.87063244832902</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16.97664040746294</v>
+        <v>16.97664040746254</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34.44599065356361</v>
+        <v>34.44599065356404</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.0726025633903</v>
+        <v>38.07260256338967</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>12.50669958889047</v>
+        <v>12.50669958889013</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.98019713959754</v>
+        <v>33.98019713959752</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.49825780341242</v>
+        <v>41.49825780341236</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.34999480330521</v>
+        <v>46.34999480330531</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.151218619542886</v>
+        <v>9.151218619542515</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>17.40734140679692</v>
+        <v>17.40734140679691</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>20.41941961743737</v>
+        <v>20.4194196174374</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.792562298469793</v>
+        <v>3.792562298469839</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.09224523952164</v>
+        <v>28.09224523952106</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.95676598779667</v>
+        <v>29.95676598779617</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.129577249154053</v>
+        <v>5.12957724915379</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>37.80623205065483</v>
+        <v>37.80623205065476</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38.62727696969912</v>
+        <v>38.62727696969914</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.80029691390605</v>
+        <v>38.80029691390562</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.65600745398959</v>
+        <v>40.6560074539891</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.23783780054215</v>
+        <v>45.23783780054219</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.71929298855959</v>
+        <v>13.71929298855929</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.73597917506056</v>
+        <v>28.73597917506052</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.19357219158734</v>
+        <v>34.19357219158741</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.53754536415478</v>
+        <v>10.53754536415523</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.4745580679208</v>
+        <v>28.47455806792065</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.48601125796257</v>
+        <v>34.48601125796284</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.114820916892739</v>
+        <v>9.114820916892196</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.56362298908585</v>
+        <v>30.56362298908538</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.37114374493559</v>
+        <v>43.37114374493532</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.697130318606082</v>
+        <v>5.697130318605478</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.15431015113075</v>
+        <v>44.15431015113006</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.662373762390065</v>
+        <v>1.662373762389926</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.38843107255721</v>
+        <v>10.3884310725568</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.77867963788711</v>
+        <v>19.77867963788688</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5.186725747954206</v>
+        <v>5.186725747954029</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.28464350049421</v>
+        <v>29.28464350049406</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.13690747821576</v>
+        <v>35.13690747821602</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.629282658016585</v>
+        <v>2.629282658016461</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.91781224434967</v>
+        <v>34.91781224435007</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.90446794981322</v>
+        <v>39.90446794981347</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>30.6398453153644</v>
+        <v>30.63984531536399</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.87244488218635</v>
+        <v>31.87244488218632</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.93820921145027</v>
+        <v>37.93820921144982</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10.78826272611261</v>
+        <v>10.7882627261132</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.54329002078083</v>
+        <v>23.54329002078119</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.95952729359873</v>
+        <v>35.95952729359892</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6.855065794105872</v>
+        <v>6.855065794106078</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.34295254072213</v>
+        <v>25.34295254072212</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>35.70920094851911</v>
+        <v>35.70920094851937</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>11.04765169496073</v>
+        <v>11.04765169496046</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.45432584051008</v>
+        <v>28.45432584050972</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.59886874451031</v>
+        <v>42.59886874451002</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4.995788555786032</v>
+        <v>4.995788555786191</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.46418210826777</v>
+        <v>38.46418210826806</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.74994226861651</v>
+        <v>29.74994226861626</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.257422945487</v>
+        <v>22.25742294548744</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.95663188799911</v>
+        <v>40.95663188800032</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.87447941208804</v>
+        <v>47.87447941208863</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>10.33170412513718</v>
+        <v>10.33170412513727</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18.4940346008074</v>
+        <v>18.49403460080678</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.06468285440368</v>
+        <v>25.0646828544035</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>15.05402265051291</v>
+        <v>15.05402265051278</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.29823736353917</v>
+        <v>21.29823736353914</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.14863551260182</v>
+        <v>32.14863551260165</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>10.34387372557747</v>
+        <v>10.34387372557691</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.24759784110222</v>
+        <v>14.24759784110148</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>20.14443813905833</v>
+        <v>20.14443813905801</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1.852353084518242</v>
+        <v>1.852353084517897</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.4940062083092</v>
+        <v>23.4940062083088</v>
       </c>
     </row>
     <row r="108">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22.56731897405725</v>
+        <v>22.56731897405829</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>44.68432457773603</v>
+        <v>44.68432457773594</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>56.22518827177623</v>
+        <v>56.22518827177621</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5.559452247976466</v>
+        <v>5.559452247976125</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.50553529780604</v>
+        <v>19.50553529780588</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.5335598107356</v>
+        <v>29.5335598107355</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>58.34076925701124</v>
+        <v>58.3407692570113</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>50.85353704515135</v>
+        <v>50.85353704515101</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>62.74127126074614</v>
+        <v>62.74127126074657</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>70.14313374520214</v>
+        <v>70.14313374520279</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.36388712308575</v>
+        <v>21.3638871230861</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>57.08638959886752</v>
+        <v>57.08638959886746</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60.79828323934426</v>
+        <v>60.79828323934445</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>20.97356566146276</v>
+        <v>20.97356566146242</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.87123849958156</v>
+        <v>38.8712384995813</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.69896161569273</v>
+        <v>44.69896161569214</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.6836828075964</v>
+        <v>13.68368280759666</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.20358924297841</v>
+        <v>42.20358924297836</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.918017292142</v>
+        <v>47.91801729214222</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.43980513023871</v>
+        <v>11.43980513023811</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>58.45475756950928</v>
+        <v>58.45475756950869</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>70.29533056779441</v>
+        <v>70.29533056779449</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>72.81690099322915</v>
+        <v>72.81690099322972</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>82.36058234143422</v>
+        <v>82.36058234143414</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>91.8854065786646</v>
+        <v>91.88540657866483</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.57645410157869</v>
+        <v>26.57645410157821</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>72.65178399082427</v>
+        <v>72.65178399082399</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.60474135264869</v>
+        <v>77.60474135264877</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>60.8058208508142</v>
+        <v>60.80582085081495</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>42.29311558990152</v>
+        <v>42.29311558990179</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>50.77632261763637</v>
+        <v>50.77632261763699</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>64.37353183286743</v>
+        <v>64.37353183286776</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.50440489895787</v>
+        <v>10.50440489895846</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>50.84618919195483</v>
+        <v>50.84618919195513</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.27455729626047</v>
+        <v>14.27455729626062</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>34.86893597640392</v>
+        <v>34.86893597640375</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>43.24429478270478</v>
+        <v>43.24429478270487</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>8.9914677615035</v>
+        <v>8.991467761503388</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>40.68954617902137</v>
+        <v>40.68954617902095</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>51.18364407924964</v>
+        <v>51.18364407924987</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>8.323464732316509</v>
+        <v>8.323464732316353</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>58.97079998883493</v>
+        <v>58.97079998883471</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>74.83299431156613</v>
+        <v>74.83299431156598</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>70.39110165164539</v>
+        <v>70.39110165164495</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>77.45216894508006</v>
+        <v>77.45216894508016</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>92.8380667432852</v>
+        <v>92.83806674328494</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>15.64333945048032</v>
+        <v>15.64333945048027</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>68.98477510566036</v>
+        <v>68.98477510566035</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>78.19489764256662</v>
+        <v>78.19489764256704</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>56.45568626330117</v>
+        <v>56.45568626330089</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.36036606636772</v>
+        <v>26.36036606636673</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.63167456285152</v>
+        <v>36.63167456285086</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>53.40302254212291</v>
+        <v>53.40302254212175</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.464822455227564</v>
+        <v>9.464822455228127</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.62911684993332</v>
+        <v>43.6291168499332</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>54.16058737961092</v>
+        <v>54.16058737961161</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>11.306080787465</v>
+        <v>11.30608078746488</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.88334981842421</v>
+        <v>33.88334981842394</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>48.42003440033726</v>
+        <v>48.42003440033713</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>12.22327799480784</v>
+        <v>12.22327799480753</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>39.11015935238275</v>
+        <v>39.11015935238255</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>54.9912232706309</v>
+        <v>54.99122327063046</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>7.186162211389124</v>
+        <v>7.186162211388897</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>52.5421203281854</v>
+        <v>52.54212032818519</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>73.81006565250937</v>
+        <v>73.81006565250911</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>56.56619398559452</v>
+        <v>56.5661939855945</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.75558198478348</v>
+        <v>70.75558198478271</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>92.01614758310933</v>
+        <v>92.01614758310905</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.15075408826417</v>
+        <v>13.15075408826383</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>61.57726945093651</v>
+        <v>61.57726945093574</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>77.46079070918495</v>
+        <v>77.46079070918515</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>17.71971235292216</v>
+        <v>17.71971235292214</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.66013186449128</v>
+        <v>44.66013186449135</v>
       </c>
     </row>
     <row r="182">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>7.333943645538241</v>
+        <v>7.333943645537875</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>56.0486037051862</v>
+        <v>56.04860370518613</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>63.22965192313136</v>
+        <v>63.22965192313173</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.57424396643029</v>
+        <v>24.57424396643018</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>84.70446306370687</v>
+        <v>84.70446306370678</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>92.68617010754986</v>
+        <v>92.68617010755003</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>54.59261644659418</v>
+        <v>54.59261644659419</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>66.59991448525471</v>
+        <v>66.59991448525446</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>66.72570320460704</v>
+        <v>66.72570320460693</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20.83589596827566</v>
+        <v>20.83589596827592</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>48.02274688602134</v>
+        <v>48.02274688602166</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>61.03715758502388</v>
+        <v>61.0371575850239</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.31698531634994</v>
+        <v>16.31698531635041</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>40.38496385708503</v>
+        <v>40.38496385708476</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>44.43162502266059</v>
+        <v>44.43162502266047</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-6.69879903232717</v>
+        <v>-6.698799032327461</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>23.81175583674994</v>
+        <v>23.81175583674936</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.54855766982372</v>
+        <v>25.54855766982331</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1.672004428592619</v>
+        <v>1.672004428592071</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>48.21109265033527</v>
+        <v>48.21109265033517</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>27.96912290510697</v>
+        <v>27.96912290510708</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>63.1411186628063</v>
+        <v>63.14111866280641</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>67.80570256634641</v>
+        <v>67.8057025663461</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>12.69414377691023</v>
+        <v>12.69414377691011</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>74.13683799493354</v>
+        <v>74.13683799493319</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>74.15577494280623</v>
+        <v>74.15577494280593</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.71992510225037</v>
+        <v>29.71992510225041</v>
       </c>
     </row>
     <row r="210">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>102.4044979200144</v>
+        <v>102.4044979200143</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>93.88440593271702</v>
+        <v>93.88440593271733</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>106.1940886243473</v>
+        <v>106.1940886243471</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>100.8761114055016</v>
+        <v>100.8761114055019</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>33.03099202036695</v>
+        <v>33.03099202036692</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>77.57009519740906</v>
+        <v>77.57009519740899</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>80.84358366109399</v>
+        <v>80.8435836610939</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>23.36834614068977</v>
+        <v>23.36834614068997</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>57.27310917253056</v>
+        <v>57.27310917253031</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>56.68707390343979</v>
+        <v>56.68707390343964</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-2.219586622395063</v>
+        <v>-2.219586622395624</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>47.92413792254125</v>
+        <v>47.92413792254175</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>48.1750774208045</v>
+        <v>48.17507742080433</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10.40333905116277</v>
+        <v>10.40333905116336</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>77.06974980381213</v>
+        <v>77.06974980381233</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>17.89109111936308</v>
+        <v>17.89109111936318</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>53.80064221436227</v>
+        <v>53.80064221436201</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>58.84929110414534</v>
+        <v>58.84929110414508</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>9.411558807320059</v>
+        <v>9.411558807320038</v>
       </c>
     </row>
     <row r="230">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>71.36645483101974</v>
+        <v>71.36645483101975</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.85125903254975</v>
+        <v>25.85125903254979</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>97.66727798056581</v>
+        <v>97.6672779805657</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>98.9699780990523</v>
+        <v>98.96997809905213</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>97.26983011586714</v>
+        <v>97.26983011586719</v>
       </c>
     </row>
     <row r="236">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>103.6751195632735</v>
+        <v>103.6751195632741</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>20.51266481913964</v>
+        <v>20.51266481913946</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>67.48585100147653</v>
+        <v>67.48585100147631</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>70.63070127408247</v>
+        <v>70.63070127408224</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>16.03601863412766</v>
+        <v>16.03601863412767</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>50.09227678775247</v>
+        <v>50.09227678775225</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>51.94154448987462</v>
+        <v>51.9415444898752</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-5.523024405906675</v>
+        <v>-5.523024405907083</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>44.35301677156551</v>
+        <v>44.35301677156535</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>48.63998227041089</v>
+        <v>48.63998227041028</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.704566770177571</v>
+        <v>6.704566770177163</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>73.23243863432997</v>
+        <v>73.23243863432967</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>8.064238139981915</v>
+        <v>8.06423813998172</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>44.34121170750297</v>
+        <v>44.34121170750286</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>57.54148550913231</v>
+        <v>57.54148550913237</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>10.79706563272557</v>
+        <v>10.79706563272546</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>71.87811568957925</v>
+        <v>71.87811568957937</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>79.70612754893565</v>
+        <v>79.70612754893568</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.08637783400232</v>
+        <v>24.08637783400219</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>95.54002996982587</v>
+        <v>95.54002996982652</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>103.9383792804186</v>
+        <v>103.9383792804185</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>86.83891523320216</v>
+        <v>86.83891523320224</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>97.89977041972327</v>
+        <v>97.89977041972307</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>98.53014832926394</v>
+        <v>98.53014832926391</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>15.98259984011265</v>
+        <v>15.98259984011247</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>63.53787335181119</v>
+        <v>63.53787335181079</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>73.83654044810734</v>
+        <v>73.83654044810746</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>9.248970649235849</v>
+        <v>9.248970649235975</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>44.49754426432298</v>
+        <v>44.49754426432285</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>52.14388626083088</v>
+        <v>52.14388626083029</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-4.571603134722928</v>
+        <v>-4.571603134722753</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>42.05076333688455</v>
+        <v>42.05076333688423</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>51.70696056854122</v>
+        <v>51.70696056854179</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>6.05484792898033</v>
+        <v>6.054847928980358</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>68.37341991141071</v>
+        <v>68.37341991141099</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>53.04232594075422</v>
+        <v>53.0423259407539</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>39.82467057774927</v>
+        <v>39.82467057774983</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>56.76960861851225</v>
+        <v>56.76960861851202</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>60.22722988570172</v>
+        <v>60.22722988570133</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>10.72865550655494</v>
+        <v>10.7286555065555</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>42.50406205134107</v>
+        <v>42.50406205134085</v>
       </c>
     </row>
     <row r="278">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>14.26987655399464</v>
+        <v>14.269876553995</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>35.74146842462062</v>
+        <v>35.74146842462058</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>45.23501173097048</v>
+        <v>45.23501173097027</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-4.429688546431223</v>
+        <v>-4.429688546431407</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.73998028668805</v>
+        <v>22.73998028668816</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>31.09354334780245</v>
+        <v>31.09354334780217</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>2.603146450757194</v>
+        <v>2.603146450757464</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>48.98539451017656</v>
+        <v>48.9853945101767</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>61.78324251103684</v>
+        <v>61.78324251103647</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>47.22182478788896</v>
+        <v>47.22182478788843</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>63.60064597994738</v>
+        <v>63.60064597994739</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>68.57707119429691</v>
+        <v>68.5770711942973</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>6.987649337676686</v>
+        <v>6.987649337676942</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>42.00625596867079</v>
+        <v>42.00625596867081</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>55.42097490240103</v>
+        <v>55.42097490240039</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>80.30275445091652</v>
+        <v>80.30275445091726</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>76.13094996141979</v>
+        <v>76.13094996141982</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>89.34871559836907</v>
+        <v>89.34871559836927</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>88.17770627948707</v>
+        <v>88.17770627948676</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.14248516371528</v>
+        <v>25.14248516371481</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>84.48284168658789</v>
+        <v>84.48284168658799</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>83.41389438559843</v>
+        <v>83.41389438559833</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19.27983763470942</v>
+        <v>19.27983763470984</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>53.98076580348268</v>
+        <v>53.98076580348253</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>52.74421453592572</v>
+        <v>52.74421453592521</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-2.459836541122812</v>
+        <v>-2.459836541123348</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>51.46765050371547</v>
+        <v>51.4676505037157</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>48.87691120975883</v>
+        <v>48.87691120975894</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>6.034130614244333</v>
+        <v>6.034130614244134</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>79.13737876920084</v>
+        <v>79.13737876919998</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>80.37143421533079</v>
+        <v>80.37143421533037</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>89.97992877437224</v>
+        <v>89.9799287743723</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>98.05744351552374</v>
+        <v>98.0574435155242</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>95.01232701028891</v>
+        <v>95.01232701028849</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>23.94391960124139</v>
+        <v>23.94391960124092</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>90.6021745564249</v>
+        <v>90.60217455642459</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>89.97214780319561</v>
+        <v>89.97214780319544</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>80.34732791322502</v>
+        <v>80.34732791322506</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>70.91892872100404</v>
+        <v>70.91892872100402</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>82.82987598096594</v>
+        <v>82.82987598096477</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>85.44728787611832</v>
+        <v>85.44728787611807</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.05176502128415</v>
+        <v>15.0517650212839</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>79.36610901855514</v>
+        <v>79.36610901855485</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>79.48340845760899</v>
+        <v>79.48340845760885</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>10.98771854602052</v>
+        <v>10.98771854602054</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>48.79518655770476</v>
+        <v>48.79518655770453</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>48.09903009663637</v>
+        <v>48.09903009663606</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-7.957266987215974</v>
+        <v>-7.957266987215981</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>49.98126663632108</v>
+        <v>49.98126663632092</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>48.5182115078834</v>
+        <v>48.51821150788338</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>1.035146557622582</v>
+        <v>1.035146557622568</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>78.03384535474174</v>
+        <v>78.0338453547412</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>80.20531436675552</v>
+        <v>80.2053143667556</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>88.90167064190535</v>
+        <v>88.90167064190538</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>96.31040488179681</v>
+        <v>96.31040488179718</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>96.40978323711366</v>
+        <v>96.40978323711386</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>12.97360353466279</v>
+        <v>12.97360353466254</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>88.80141741077986</v>
+        <v>88.80141741077929</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>88.50432821281888</v>
+        <v>88.50432821281893</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>80.63367826515797</v>
+        <v>80.63367826515822</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>53.29037210377061</v>
+        <v>53.29037210377088</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>68.6819599624817</v>
+        <v>68.68195996248181</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>74.86497244276433</v>
+        <v>74.86497244276458</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>12.19920191687011</v>
+        <v>12.1992019168704</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>73.67896286462468</v>
+        <v>73.67896286462476</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>80.17994118946197</v>
+        <v>80.17994118946135</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>5.409933952665643</v>
+        <v>5.409933952665945</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.64424569849947</v>
+        <v>46.64424569849928</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>53.26041681779962</v>
+        <v>53.26041681779947</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-4.135070256945973</v>
+        <v>-4.135070256946186</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>50.92889352721946</v>
+        <v>50.92889352721983</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>58.09235355379857</v>
+        <v>58.09235355379882</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>3.164147177647727</v>
+        <v>3.164147177647408</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>76.7998219352409</v>
+        <v>76.79982193524098</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>87.5963672306633</v>
+        <v>87.59636723066322</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>82.22680065561076</v>
+        <v>82.22680065561084</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>94.88702434412539</v>
+        <v>94.887024344125</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>101.1949884356475</v>
+        <v>101.1949884356472</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>11.15806395374917</v>
+        <v>11.15806395374926</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>87.17686462064566</v>
+        <v>87.17686462064563</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>94.99160253103588</v>
+        <v>94.99160253103582</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>14.44348372977202</v>
+        <v>14.44348372977209</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>11.49983125903004</v>
+        <v>11.49983125903031</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.61311094067555</v>
+        <v>21.61311094067584</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-1.483763488230323</v>
+        <v>-1.483763488230231</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>8.650186776933957</v>
+        <v>8.650186776933769</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.91428504337505</v>
+        <v>11.91428504337528</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>3.964331938988579</v>
+        <v>3.96433193898843</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.98204773274716</v>
+        <v>21.98204773274706</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.67356887138309</v>
+        <v>25.67356887138254</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>10.47321691153565</v>
+        <v>10.4732169115356</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>15.96755366382016</v>
+        <v>15.96755366381984</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.71729568319608</v>
+        <v>17.71729568319633</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.70258858532797</v>
+        <v>20.70258858532793</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>17.45332024165707</v>
+        <v>17.45332024165665</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.78521834800708</v>
+        <v>30.78521834800625</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>15.0112989257249</v>
+        <v>15.01129892572484</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.40507665269651</v>
+        <v>23.40507665269688</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.65459383430983</v>
+        <v>32.65459383430944</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1.977117084271036</v>
+        <v>-1.977117084271086</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>1.36813139003818</v>
+        <v>1.368131390037988</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>7.318687202971887</v>
+        <v>7.318687202972121</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-3.397941386643353</v>
+        <v>-3.397941386643168</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>13.85809162079786</v>
+        <v>13.85809162079744</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>15.15217960710016</v>
+        <v>15.15217960709979</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>19.73375958385206</v>
+        <v>19.73375958385167</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.00844646379835</v>
+        <v>23.00844646379837</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-2.15807862361849</v>
+        <v>-2.158078623618316</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19.91549239582799</v>
+        <v>19.91549239582788</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.17884994805721</v>
+        <v>21.1788499480571</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>5.1589630878401</v>
+        <v>5.158963087840348</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.80053244487883</v>
+        <v>34.80053244487866</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.40028547086913</v>
+        <v>35.40028547086833</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.03170776321292</v>
+        <v>38.03170776321311</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.09979362608128</v>
+        <v>43.09979362608154</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>45.1443800904589</v>
+        <v>45.14438009045855</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.92507034923455</v>
+        <v>27.92507034923452</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.74214213394903</v>
+        <v>44.74214213394966</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>51.76540867483003</v>
+        <v>51.7654086748304</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>15.28379924574542</v>
+        <v>15.28379924574574</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.24862872645745</v>
+        <v>34.24862872645771</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>42.42937637687905</v>
+        <v>42.42937637687893</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1.309947205471076</v>
+        <v>1.309947205471019</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>24.88349124807787</v>
+        <v>24.88349124807765</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>37.96898339429779</v>
+        <v>37.96898339429794</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>6.282391632663568</v>
+        <v>6.282391632663099</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>44.60186117203618</v>
+        <v>44.60186117203591</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.808243677396412</v>
+        <v>6.808243677396597</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.56297621746878</v>
+        <v>13.56297621746889</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>17.6701624724144</v>
+        <v>17.67016247241456</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-5.684948662814051</v>
+        <v>-5.684948662813717</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.18564443471953</v>
+        <v>17.18564443472001</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.64065505003654</v>
+        <v>20.64065505003625</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>2.308892357418216</v>
+        <v>2.308892357418326</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.9426698659116</v>
+        <v>32.94266986591202</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>35.58088362912656</v>
+        <v>35.58088362912663</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>38.36129742787887</v>
+        <v>38.36129742787865</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.67940957481929</v>
+        <v>41.67940957481954</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>46.56761770938246</v>
+        <v>46.56761770938211</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14.7121461219321</v>
+        <v>14.71214612193239</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>35.08973509520824</v>
+        <v>35.0897350952087</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>43.49204204578865</v>
+        <v>43.49204204578938</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.157493105943203</v>
+        <v>7.157493105943612</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.14904844678107</v>
+        <v>26.14904844678166</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>37.75341228126018</v>
+        <v>37.75341228126025</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-3.316869227053846</v>
+        <v>-3.316869227053598</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>19.63021876851166</v>
+        <v>19.63021876851137</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>39.25432822192479</v>
+        <v>39.25432822192533</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>2.003745965037684</v>
+        <v>2.003745965037439</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.26749357347761</v>
+        <v>40.26749357347751</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1.273730183284549</v>
+        <v>1.273730183284709</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>7.692401791011935</v>
+        <v>7.69240179101145</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>17.42298425969177</v>
+        <v>17.42298425969182</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-5.062089404644048</v>
+        <v>-5.062089404643849</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.52463677391272</v>
+        <v>16.52463677391288</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.29412868037124</v>
+        <v>23.29412868037098</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-0.8138739018281953</v>
+        <v>-0.8138739018282521</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.37564090551441</v>
+        <v>28.37564090551367</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>34.63740924255328</v>
+        <v>34.63740924255313</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.49671378208159</v>
+        <v>28.49671378208169</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.16867182218642</v>
+        <v>31.16867182218624</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.31430009743597</v>
+        <v>37.31430009743602</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>11.00265636655505</v>
+        <v>11.00265636655491</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.28719120769595</v>
+        <v>27.28719120769564</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>41.73672906991855</v>
+        <v>41.73672906991858</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>4.58085506692824</v>
+        <v>4.580855066928329</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.02928836110897</v>
+        <v>22.02928836110887</v>
       </c>
     </row>
     <row r="446">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-1.857398610864074</v>
+        <v>-1.857398610863989</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>14.57091731410349</v>
+        <v>14.5709173141038</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>35.12134131781227</v>
+        <v>35.12134131781251</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0.3365779449194903</v>
+        <v>0.3365779449194832</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.26928110183043</v>
+        <v>31.26928110183022</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.17423075645311</v>
+        <v>25.17423075645283</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>17.38449681181758</v>
+        <v>17.38449681181768</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>35.93040073004846</v>
+        <v>35.93040073004788</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>42.88625891801325</v>
+        <v>42.88625891801295</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>2.682515142500591</v>
+        <v>2.682515142500321</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.72955399900775</v>
+        <v>13.72955399900761</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.24934215764327</v>
+        <v>25.24934215764406</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.91917922890855</v>
+        <v>15.91917922890846</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.02762434190118</v>
+        <v>23.02762434190077</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.74541460669337</v>
+        <v>31.74541460669347</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-2.706966183085449</v>
+        <v>-2.706966183085296</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>2.489778478767363</v>
+        <v>2.489778478766922</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.118765453407065</v>
+        <v>7.118765453406589</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-3.204588083479209</v>
+        <v>-3.2045880834794</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.6464936616535</v>
+        <v>18.64649366165364</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.54287234611617</v>
+        <v>30.54287234611601</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.40432453991731</v>
+        <v>20.40432453991754</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.90822800252334</v>
+        <v>39.90822800252329</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>48.86161102889827</v>
+        <v>48.86161102889796</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>5.146157430299283</v>
+        <v>5.146157430298373</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>19.16969187551279</v>
+        <v>19.16969187551291</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.93306741861892</v>
+        <v>29.93306741861872</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>61.72142328581105</v>
+        <v>61.72142328581145</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>50.10057592647165</v>
+        <v>50.10057592647217</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.70690680314573</v>
+        <v>64.70690680314604</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>71.99085819237618</v>
+        <v>71.99085819237675</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.63337620158998</v>
+        <v>17.63337620159002</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>59.9611270691434</v>
+        <v>59.96112706914288</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>69.89633539048064</v>
+        <v>69.8963353904807</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.51361522402604</v>
+        <v>24.51361522402638</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>44.79174432973213</v>
+        <v>44.79174432973154</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>49.94194551182265</v>
+        <v>49.94194551182268</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>4.707475577623118</v>
+        <v>4.707475577622667</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.18615911282822</v>
+        <v>36.18615911282826</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>42.17020363680721</v>
+        <v>42.17020363680766</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>11.953814841229</v>
+        <v>11.95381484122873</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>60.80582411982149</v>
+        <v>60.80582411982147</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>72.04234468552733</v>
+        <v>72.04234468552701</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>77.18698439776986</v>
+        <v>77.18698439777043</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>85.67958633389316</v>
+        <v>85.67958633389307</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>92.36250825702908</v>
+        <v>92.36250825702942</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>32.79205318135533</v>
+        <v>32.79205318135552</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>80.49161379083736</v>
+        <v>80.49161379083668</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>87.5852755219363</v>
+        <v>87.58527552193655</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>63.23451146566882</v>
+        <v>63.23451146566933</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>39.6918961690184</v>
+        <v>39.69189616901881</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>51.3363479069496</v>
+        <v>51.33634790695018</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>65.40418136890713</v>
+        <v>65.40418136890759</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>5.328561313286322</v>
+        <v>5.328561313286414</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>51.85991429583401</v>
+        <v>51.85991429583417</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>65.42345841858574</v>
+        <v>65.42345841858577</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.23922274003332</v>
+        <v>16.2392227400334</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>39.17953195271693</v>
+        <v>39.17953195271649</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>47.78825418768788</v>
+        <v>47.78825418768794</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-1.338584106479903</v>
+        <v>-1.338584106479914</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.23215362844252</v>
+        <v>33.23215362844291</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>45.00293340207448</v>
+        <v>45.00293340207463</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>7.228146528591999</v>
+        <v>7.22814652859185</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>59.64028024990679</v>
+        <v>59.64028024990665</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>75.8621312097975</v>
+        <v>75.8621312097971</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>73.25366071227667</v>
+        <v>73.25366071227671</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>79.77087825778553</v>
+        <v>79.77087825778548</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>92.95660198641241</v>
+        <v>92.95660198641252</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>20.27832502244744</v>
+        <v>20.2783250224476</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>75.35058663227571</v>
+        <v>75.35058663227639</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>87.68109725946741</v>
+        <v>87.68109725946798</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>55.2312274386082</v>
+        <v>55.23122743860804</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.52825362668465</v>
+        <v>22.52825362668513</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.5522721902511</v>
+        <v>33.55227219025062</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>50.90084046122773</v>
+        <v>50.90084046122765</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>2.817383085720838</v>
+        <v>2.817383085720564</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.79837323043988</v>
+        <v>39.79837323044005</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>57.39862839309271</v>
+        <v>57.39862839309233</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>11.70240472116532</v>
+        <v>11.7024047211653</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.60721132231494</v>
+        <v>35.60721132231538</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>49.35227255809095</v>
+        <v>49.35227255809104</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>0.1878976165031574</v>
+        <v>0.1878976165033706</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.94893977250576</v>
+        <v>28.94893977250542</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>44.92867368445695</v>
+        <v>44.92867368445702</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>3.670446764586682</v>
+        <v>3.670446764587002</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>49.70942492663731</v>
+        <v>49.70942492663697</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>70.52124421916514</v>
+        <v>70.52124421916542</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>56.25656190420242</v>
+        <v>56.25656190420185</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>68.55987164553891</v>
+        <v>68.55987164553912</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>87.67454461128634</v>
+        <v>87.67454461128636</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>13.96199220390869</v>
+        <v>13.96199220390812</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>63.54512674701013</v>
+        <v>63.54512674700969</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>81.39075149824419</v>
+        <v>81.3907514982437</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>13.19293068186434</v>
+        <v>13.19293068186418</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>9.790203588391115</v>
+        <v>9.7902035883913</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>18.43603866269228</v>
+        <v>18.43603866269264</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.5129444134333774</v>
+        <v>-0.5129444134334129</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>7.165944861612612</v>
+        <v>7.165944861612722</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>9.851279926797606</v>
+        <v>9.851279926797687</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.598119765902023</v>
+        <v>3.598119765901732</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.02341518288592</v>
+        <v>19.02341518288576</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.19736650617682</v>
+        <v>22.19736650617659</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>8.385449369425146</v>
+        <v>8.385449369425157</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>13.27670506840121</v>
+        <v>13.27670506840135</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.43171809948816</v>
+        <v>14.43171809948809</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>12.09503719296126</v>
+        <v>12.09503719296096</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>7.961841921229144</v>
+        <v>7.961841921229297</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.28014503070073</v>
+        <v>18.28014503070072</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>15.10885243074318</v>
+        <v>15.10885243074338</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.90343513661021</v>
+        <v>21.90343513660983</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.82876744844474</v>
+        <v>29.82876744844445</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-0.1393926656720623</v>
+        <v>-0.1393926656723714</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>3.497589285479858</v>
+        <v>3.497589285479805</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.714596251191882</v>
+        <v>8.714596251191686</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-0.4069536972296817</v>
+        <v>-0.4069536972292305</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.64364718181117</v>
+        <v>15.64364718181143</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>13.23381086593212</v>
+        <v>13.23381086593215</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.8910231109425</v>
+        <v>15.89102311094292</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.89365745406298</v>
+        <v>18.89365745406307</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-1.414276217581197</v>
+        <v>-1.414276217581296</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>16.0809490033982</v>
+        <v>16.08094900339823</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>17.06510436078848</v>
+        <v>17.06510436078865</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>3.251202293507369</v>
+        <v>3.251202293507497</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.21024226946419</v>
+        <v>28.21024226946398</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.74625601388968</v>
+        <v>28.74625601388938</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.6438488274848</v>
+        <v>30.64384882748481</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.95446935745861</v>
+        <v>34.95446935745868</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.14527441757394</v>
+        <v>36.14527441757436</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>16.1798243152838</v>
+        <v>16.17982431528397</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.22519094446994</v>
+        <v>28.22519094446989</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.38381802134155</v>
+        <v>33.38381802134177</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.39637832735641</v>
+        <v>14.39637832735657</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.10616670439947</v>
+        <v>30.10616670439908</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>37.22011807167199</v>
+        <v>37.22011807167188</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>1.662629736399182</v>
+        <v>1.662629736398976</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.59280785346366</v>
+        <v>22.59280785346357</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>33.36258069982214</v>
+        <v>33.3625806998223</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>6.029442068472111</v>
+        <v>6.029442068472026</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>40.01986510057134</v>
+        <v>40.0198651005714</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.97828241818625</v>
+        <v>5.978282418186254</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.18517632439692</v>
+        <v>10.18517632439707</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>14.11502429099642</v>
+        <v>14.11502429099649</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-4.224613787929552</v>
+        <v>-4.224613787929513</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>13.64595948496302</v>
+        <v>13.64595948496326</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.66936898640079</v>
+        <v>16.6693689864012</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>0.9270584253661305</v>
+        <v>0.9270584253662228</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.37324694429883</v>
+        <v>26.37324694429871</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.83187924309848</v>
+        <v>28.83187924309838</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.31509268291467</v>
+        <v>31.31509268291455</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.05240892198144</v>
+        <v>34.05240892198105</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>37.67273566308418</v>
+        <v>37.6727356630838</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>4.982227341394935</v>
+        <v>4.982227341395014</v>
       </c>
     </row>
     <row r="599">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>26.19176273169578</v>
+        <v>26.19176273169588</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>7.433224308069384</v>
+        <v>7.433224308069189</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>23.0299599218517</v>
+        <v>23.0299599218515</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.3111904359124</v>
+        <v>33.31119043591293</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-2.175025233742552</v>
+        <v>-2.17502523374263</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.06243857312302</v>
+        <v>18.06243857312283</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.54354259200481</v>
+        <v>34.5435425920049</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>2.473189819719181</v>
+        <v>2.473189819719121</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.20039637197407</v>
+        <v>36.20039637197425</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>1.32956459110563</v>
+        <v>1.329564591105715</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>5.561244942504082</v>
+        <v>5.561244942504533</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.18697093326647</v>
+        <v>14.18697093326664</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-3.947133098794961</v>
+        <v>-3.94713309879479</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>13.21762742278445</v>
+        <v>13.21762742278446</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.02339678688797</v>
+        <v>19.02339678688788</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-1.32922912849266</v>
+        <v>-1.329229128492322</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.22951039637583</v>
+        <v>23.22951039637576</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.79428066259546</v>
+        <v>28.79428066259587</v>
       </c>
     </row>
     <row r="618">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.30775236508362</v>
+        <v>26.30775236508376</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.09310999853524</v>
+        <v>31.09310999853522</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>2.630965142864767</v>
+        <v>2.630965142864476</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>14.86657253138296</v>
+        <v>14.8665725313833</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.07618924637028</v>
+        <v>26.07618924637082</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>5.638898884729752</v>
+        <v>5.638898884729652</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>20.22792505324818</v>
+        <v>20.22792505324838</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>33.67413739720838</v>
+        <v>33.67413739720806</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-0.7839522190940507</v>
+        <v>-0.7839522190940009</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>14.17032977152221</v>
+        <v>14.17032977152247</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.68341516731932</v>
+        <v>31.6834151673188</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1.905258377402141</v>
+        <v>1.905258377402436</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.64640249705318</v>
+        <v>29.64640249705285</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>24.98181059072428</v>
+        <v>24.98181059072432</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>18.86859567487351</v>
+        <v>18.86859567487378</v>
       </c>
     </row>
     <row r="634">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>40.5107185001969</v>
+        <v>40.51071850019729</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>4.921823636469519</v>
+        <v>4.921823636469021</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>14.48910179921878</v>
+        <v>14.48910179921777</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.22878528953449</v>
+        <v>24.2287852895344</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>14.33581285363297</v>
+        <v>14.33581285363343</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>20.24957728622675</v>
+        <v>20.24957728622669</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.42059311998622</v>
+        <v>29.42059311998641</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-2.198892576320066</v>
+        <v>-2.198892576320393</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>2.832551171693456</v>
+        <v>2.832551171693439</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>8.881726154782509</v>
+        <v>8.881726154782243</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-1.553324125084188</v>
+        <v>-1.553324125084202</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.38862180441899</v>
+        <v>18.38862180441886</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>30.03432154854355</v>
+        <v>30.03432154854386</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>20.6460041183888</v>
+        <v>20.64600411838888</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.04155939582553</v>
+        <v>38.04155939582469</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>45.71577030098116</v>
+        <v>45.71577030098085</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>4.1085607197912</v>
+        <v>4.108560719790429</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>16.81683203266939</v>
+        <v>16.8168320326695</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.64634709586391</v>
+        <v>27.6463470958635</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>53.89690669098548</v>
+        <v>53.89690669098536</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.85847826156201</v>
+        <v>44.85847826156219</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>57.51836288412618</v>
+        <v>57.51836288412616</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>63.09608774185757</v>
+        <v>63.09608774185768</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.2826751768987</v>
+        <v>15.2826751768983</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>51.16808692196629</v>
+        <v>51.1680869219668</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>59.19909791615103</v>
+        <v>59.19909791615155</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>20.64481731821279</v>
+        <v>20.64481731821274</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.14701346268853</v>
+        <v>38.14701346268865</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>43.9499169758535</v>
+        <v>43.94991697585329</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.067404254889144</v>
+        <v>4.067404254889095</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.1577608964614</v>
+        <v>32.15776089646119</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.44263883567245</v>
+        <v>38.4426388356724</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>10.23392164935595</v>
+        <v>10.23392164935608</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>53.73080493505086</v>
+        <v>53.73080493505077</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>63.93938222979669</v>
+        <v>63.93938222979718</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>67.56117510704709</v>
+        <v>67.56117510704712</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>75.98892744604314</v>
+        <v>75.98892744604331</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>81.23412413662487</v>
+        <v>81.23412413662473</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.83040156075551</v>
+        <v>26.83040156075521</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>68.52073376093597</v>
+        <v>68.5207337609362</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>75.67766599794669</v>
+        <v>75.67766599794768</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>55.25770052452319</v>
+        <v>55.25770052452369</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.35365503044078</v>
+        <v>36.35365503044052</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.56843181430663</v>
+        <v>46.56843181430639</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>57.8743483870544</v>
+        <v>57.87434838705374</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>4.847701198131297</v>
+        <v>4.847701198131176</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.2587596906048</v>
+        <v>44.25875969060482</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>55.545831068886</v>
+        <v>55.54583106888516</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.61412263999163</v>
+        <v>13.61412263999182</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.49252488870376</v>
+        <v>33.49252488870403</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>42.22814875868863</v>
+        <v>42.2281487586883</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>-0.8251586324395959</v>
+        <v>-0.8251586324397131</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.07072488743829</v>
+        <v>30.07072488743859</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.12429417452063</v>
+        <v>41.1242941745209</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>6.52950957801783</v>
+        <v>6.529509578017496</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>53.14465777460223</v>
+        <v>53.14465777460212</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>67.49413060808554</v>
+        <v>67.4941306080856</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>64.71468264591559</v>
+        <v>64.7146826459151</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>71.61215270738441</v>
+        <v>71.6121527073843</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>82.30416983526314</v>
+        <v>82.3041698352624</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>16.44011189787559</v>
+        <v>16.44011189787563</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>64.79093528970142</v>
+        <v>64.79093528970138</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>76.29056004169937</v>
+        <v>76.29056004169968</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>49.80203228688239</v>
+        <v>49.80203228688293</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.86463546265125</v>
+        <v>22.86463546265082</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.21512620095794</v>
+        <v>33.21512620095724</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.90200894468642</v>
+        <v>46.90200894468679</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>3.817804833801986</v>
+        <v>3.817804833801528</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.89078646706485</v>
+        <v>35.89078646706474</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>50.63069496894681</v>
+        <v>50.63069496894613</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>10.15696509239286</v>
+        <v>10.15696509239306</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.25550911911148</v>
+        <v>31.25550911911157</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>44.27985445506742</v>
+        <v>44.27985445506789</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>0.4856044966770909</v>
+        <v>0.4856044966768422</v>
       </c>
     </row>
     <row r="709">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>41.59572622238704</v>
+        <v>41.59572622238707</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>4.366460514923222</v>
+        <v>4.36646051492286</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.92672815626598</v>
+        <v>45.92672815626556</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>64.40069610038776</v>
+        <v>64.40069610038789</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>51.89351395702514</v>
+        <v>51.89351395702483</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>63.60171635388379</v>
+        <v>63.60171635388328</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>79.330082175342</v>
+        <v>79.33008217534257</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>11.3425874394526</v>
+        <v>11.34258743945244</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>55.97686322663508</v>
+        <v>55.9768632266351</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>72.03886507815503</v>
+        <v>72.03886507815452</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>13.19936805111539</v>
+        <v>13.19936805111509</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>19.97119849028217</v>
+        <v>19.97119849028194</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.25368378851238</v>
+        <v>32.25368378851222</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-1.7866044580195</v>
+        <v>-1.786604458019461</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.53774375479323</v>
+        <v>16.53774375479305</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.81923247419904</v>
+        <v>21.81923247419891</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>6.694618428791838</v>
+        <v>6.694618428791784</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>37.95470986370713</v>
+        <v>37.95470986370706</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>43.55144009116025</v>
+        <v>43.5514400911602</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.35994087301133</v>
+        <v>23.35994087301123</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.21750502457154</v>
+        <v>29.21750502457126</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.19889441133339</v>
+        <v>30.19889441133363</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.36111485825605</v>
+        <v>9.361114858256268</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.6348247827071</v>
+        <v>18.634824782707</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>30.63797536872267</v>
+        <v>30.63797536872255</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>15.31880940000282</v>
+        <v>15.3188094000028</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.87356032408649</v>
+        <v>25.87356032408644</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>30.87709960441558</v>
+        <v>30.87709960441511</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-3.217870549470522</v>
+        <v>-3.217870549470426</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>6.152449146509515</v>
+        <v>6.15244914650934</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>7.233816901542124</v>
+        <v>7.233816901542163</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-3.020710338914526</v>
+        <v>-3.020710338914803</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>21.8579435719391</v>
+        <v>21.85794357193927</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>17.19546523641188</v>
+        <v>17.1954652364116</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.92746751472603</v>
+        <v>33.927467514726</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>38.51460917436348</v>
+        <v>38.51460917436327</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>3.189556830822109</v>
+        <v>3.189556830822141</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.76270792074931</v>
+        <v>36.76270792074927</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>37.74134922269862</v>
+        <v>37.74134922269853</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>10.7677276055171</v>
+        <v>10.76772760551736</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>56.65972650851246</v>
+        <v>56.65972650851264</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>57.089410662839</v>
+        <v>57.08941066283871</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>56.7822818107206</v>
+        <v>56.78228181072044</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>62.77218905452023</v>
+        <v>62.77218905452035</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>63.07478540740657</v>
+        <v>63.07478540740625</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>19.51389531114036</v>
+        <v>19.51389531114032</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.87578354392812</v>
+        <v>50.87578354392843</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>56.03320074039533</v>
+        <v>56.0332007403951</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.37917419924013</v>
+        <v>17.37917419924023</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>39.63844893086302</v>
+        <v>39.63844893086318</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>42.09785591274314</v>
+        <v>42.09785591274262</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1.359279650571203</v>
+        <v>1.359279650570887</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.80510329873603</v>
+        <v>32.80510329873619</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>36.02162220949257</v>
+        <v>36.02162220949339</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>6.187572767361935</v>
+        <v>6.187572767361992</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>53.54307662596359</v>
+        <v>53.54307662596346</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.500149397412663</v>
+        <v>9.5001493974127</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.37182818738763</v>
+        <v>27.37182818738766</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>33.33270052643589</v>
+        <v>33.33270052643558</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1.067536973559339</v>
+        <v>1.067536973559502</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.63322683987221</v>
+        <v>34.63322683987185</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>38.08996031058295</v>
+        <v>38.0899603105829</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>9.05944571649059</v>
+        <v>9.059445716490913</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>54.87076815784008</v>
+        <v>54.87076815784003</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>57.66135112673861</v>
+        <v>57.66135112673842</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>59.11601066404281</v>
+        <v>59.11601066404268</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>63.35481957434074</v>
+        <v>63.35481957434104</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>66.32491851756726</v>
+        <v>66.32491851756731</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>8.343794932006663</v>
+        <v>8.343794932006674</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>42.14568688731469</v>
+        <v>42.14568688731487</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>48.68762179190168</v>
+        <v>48.68762179190176</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>10.5994182340318</v>
+        <v>10.59941823403181</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.2517436165227</v>
+        <v>32.25174361652273</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.67432044895837</v>
+        <v>38.67432044895867</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-2.020638638208318</v>
+        <v>-2.020638638208226</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.16355705700018</v>
+        <v>28.16355705700043</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.78511846503046</v>
+        <v>37.78511846503055</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>3.162695550603058</v>
+        <v>3.162695550603207</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>49.59534206496702</v>
+        <v>49.59534206496724</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>3.849696887815302</v>
+        <v>3.849696887815114</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>19.55152482431829</v>
+        <v>19.55152482431812</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.89514102389428</v>
+        <v>32.89514102389439</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-0.3805395883926543</v>
+        <v>-0.3805395883925264</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.5448035450528</v>
+        <v>29.54480354505298</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.23032710932023</v>
+        <v>39.23032710932021</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>6.011184077910311</v>
+        <v>6.011184077910674</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>48.13297003139017</v>
+        <v>48.13297003139029</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>57.28811203575395</v>
+        <v>57.28811203575394</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.40622660543394</v>
+        <v>49.40622660543391</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>53.52710003175655</v>
+        <v>53.52710003175628</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>59.04626572931529</v>
+        <v>59.0462657293157</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>5.861743509096598</v>
+        <v>5.861743509096332</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.78245681209847</v>
+        <v>34.78245681209857</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>48.34611086703498</v>
+        <v>48.34611086703509</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>6.125305090464053</v>
+        <v>6.12530509046395</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.29525447653046</v>
+        <v>25.29525447653033</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>36.93110662064813</v>
+        <v>36.93110662064867</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-3.529951685912668</v>
+        <v>-3.529951685912941</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>18.58485740720474</v>
+        <v>18.58485740720445</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>32.70839653863283</v>
+        <v>32.70839653863317</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-0.4015415667467863</v>
+        <v>-0.4015415667462179</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.33692864086277</v>
+        <v>37.33692864086326</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>27.27504618363721</v>
+        <v>27.27504618363686</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.88090920249197</v>
+        <v>20.88090920249181</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.48110429850279</v>
+        <v>35.48110429850291</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>36.88292887396615</v>
+        <v>36.88292887396673</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>2.73375011258177</v>
+        <v>2.733750112581919</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>14.67485656986727</v>
+        <v>14.67485656986759</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.04215626415581</v>
+        <v>23.04215626415579</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>11.71663379557262</v>
+        <v>11.71663379557261</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>19.92848170481633</v>
+        <v>19.92848170481652</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.71666149323737</v>
+        <v>31.71666149323696</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-5.059252496646632</v>
+        <v>-5.059252496646877</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>4.128817301916278</v>
+        <v>4.128817301916438</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>12.62713422112492</v>
+        <v>12.62713422112511</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-4.112790580866104</v>
+        <v>-4.112790580866125</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>23.0960323457921</v>
+        <v>23.09603234579225</v>
       </c>
     </row>
     <row r="827">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.96524395539801</v>
+        <v>23.96524395539829</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>41.50463553650081</v>
+        <v>41.50463553650068</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.80196083711286</v>
+        <v>50.80196083711255</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-0.8096478629724722</v>
+        <v>-0.8096478629725148</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.16933668842459</v>
+        <v>17.16933668842491</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.79181947996492</v>
+        <v>30.79181947996534</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>60.74421441362474</v>
+        <v>60.74421441362416</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>55.00266508970958</v>
+        <v>55.00266508970994</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>65.66056039619642</v>
+        <v>65.66056039619644</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>66.33369312652076</v>
+        <v>66.33369312652101</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.98183470247649</v>
+        <v>15.9818347024763</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>59.69475638777539</v>
+        <v>59.69475638777542</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>63.46946222894686</v>
+        <v>63.46946222894737</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.97968971157809</v>
+        <v>18.97968971157825</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>41.79167563960932</v>
+        <v>41.79167563960943</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>46.50605849524685</v>
+        <v>46.50605849524673</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1.844718254235865</v>
+        <v>1.844718254236035</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.58872392004126</v>
+        <v>39.58872392004157</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>42.46645987413381</v>
+        <v>42.46645987413438</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>6.638157013822259</v>
+        <v>6.638157013822138</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>62.64948613221934</v>
+        <v>62.64948613221929</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>70.28881891736819</v>
+        <v>70.28881891736748</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>75.14404765545709</v>
+        <v>75.14404765545706</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>83.34384275222075</v>
+        <v>83.34384275222141</v>
       </c>
     </row>
     <row r="852">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>21.03081180991779</v>
+        <v>21.03081180991782</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>74.0383732324496</v>
+        <v>74.03837323244957</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>79.20633352738292</v>
+        <v>79.20633352738284</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.79034074230562</v>
+        <v>62.79034074230643</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>47.5960361684002</v>
+        <v>47.59603616840003</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>55.46344297302026</v>
+        <v>55.46344297302083</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>62.68832707183945</v>
+        <v>62.68832707183951</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>5.869233565731875</v>
+        <v>5.869233565731893</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>53.2169789675972</v>
+        <v>53.21697896759753</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>60.58440504903908</v>
+        <v>60.58440504903977</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>11.68846893256765</v>
+        <v>11.68846893256745</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.51324953999542</v>
+        <v>36.51324953999512</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>44.40010948562046</v>
+        <v>44.40010948562036</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-3.844394074538116</v>
+        <v>-3.844394074537881</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.39467834716345</v>
+        <v>36.39467834716325</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>44.05893717909103</v>
+        <v>44.05893717909083</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>2.231928413968411</v>
+        <v>2.231928413968387</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>60.96446955827364</v>
+        <v>60.9644695582733</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>72.83450638256051</v>
+        <v>72.83450638256062</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>71.89974693253535</v>
+        <v>71.89974693253544</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>78.25607903733155</v>
+        <v>78.25607903733143</v>
       </c>
     </row>
     <row r="874">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.590293451179459</v>
+        <v>9.590293451178869</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>69.67994109654109</v>
+        <v>69.67994109654123</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>79.16289063782773</v>
+        <v>79.1628906378273</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>54.70240267777952</v>
+        <v>54.70240267777934</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.2398791758463</v>
+        <v>27.23987917584654</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.7566409372848</v>
+        <v>36.75664093728528</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>46.21453091308916</v>
+        <v>46.21453091308899</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>2.535552650303423</v>
+        <v>2.535552650302854</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>40.16590514811007</v>
+        <v>40.16590514811009</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>53.3853431939084</v>
+        <v>53.38534319390848</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>5.436390005950518</v>
+        <v>5.436390005950607</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.5409083833139</v>
+        <v>30.54090838331421</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>45.33376576154993</v>
+        <v>45.33376576154973</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-4.10488541086271</v>
+        <v>-4.104885410862785</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.07795756800403</v>
+        <v>29.07795756800393</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>44.75186476754382</v>
+        <v>44.75186476754391</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-1.407454681941054</v>
+        <v>-1.407454681941104</v>
       </c>
     </row>
     <row r="892">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>69.88526129708035</v>
+        <v>69.88526129708032</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>56.14781699888469</v>
+        <v>56.14781699888454</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>67.92395777131351</v>
+        <v>67.9239577713129</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>86.01103802448907</v>
+        <v>86.01103802448878</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>4.621594795566232</v>
+        <v>4.621594795566423</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>58.89250012988953</v>
+        <v>58.89250012988968</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>76.26617065931728</v>
+        <v>76.26617065931771</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.677</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.085</v>
+        <v>15.396</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.732</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.83</v>
+        <v>12.127</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.519</v>
+        <v>1.232</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.60312837141828</v>
+        <v>12.66120558591969</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.65227971257305</v>
+        <v>10.72026615985534</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.20019211067657</v>
+        <v>23.89178212446946</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.552244601539812</v>
+        <v>3.221428367505681</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.87306296104016</v>
+        <v>20.66238927407701</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.06905285331363</v>
+        <v>25.16059855172699</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.06992976238654</v>
+        <v>5.995178968470725</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.76086211395545</v>
+        <v>35.70942730104235</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.03916058482947</v>
+        <v>35.54489029415964</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10.16258784316879</v>
+        <v>11.91974417136498</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14.35771919857092</v>
+        <v>15.1194410425928</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.44348241838085</v>
+        <v>15.15822715040381</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18.19957077786533</v>
+        <v>23.17466422228924</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.68172067725533</v>
+        <v>18.23288620287428</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.07605360644633</v>
+        <v>35.32101837815564</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.93915447258811</v>
+        <v>13.29324975873235</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.78780148629805</v>
+        <v>23.99768774064484</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.26707508864578</v>
+        <v>36.38043285795818</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.43256638213681</v>
+        <v>10.19414869532743</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.95306358836086</v>
+        <v>16.61065584521256</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.12206794409214</v>
+        <v>19.66307882499219</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.917584594746216</v>
+        <v>3.043676695741897</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.85200540143535</v>
+        <v>19.07359039823427</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.02061324121061</v>
+        <v>21.40519764252883</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.71948466126449</v>
+        <v>23.86522058041695</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.37900738030483</v>
+        <v>25.05306743902754</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.802748854743093</v>
+        <v>4.025842274607886</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.86438411837081</v>
+        <v>32.36213246530735</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.11572826513005</v>
+        <v>33.51415332881576</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.760974786257336</v>
+        <v>7.742344425105628</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.00984220966473</v>
+        <v>38.95017656969502</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.31894421382219</v>
+        <v>37.54101691290519</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.89730045648373</v>
+        <v>38.5021909453609</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.37863369012158</v>
+        <v>41.37806282853848</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.49397156613934</v>
+        <v>41.97056815192319</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.43162681325445</v>
+        <v>32.27662577229243</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.37692668543521</v>
+        <v>39.15527388642386</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>40.87063244832902</v>
+        <v>41.67306931033269</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16.97664040746254</v>
+        <v>21.06488307991967</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34.44599065356404</v>
+        <v>32.63849365495282</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.07260256338967</v>
+        <v>35.2545095064139</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>12.50669958889013</v>
+        <v>10.23729432039174</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.98019713959752</v>
+        <v>36.12314660380324</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.49825780341236</v>
+        <v>41.73583795477528</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.34999480330531</v>
+        <v>50.52390633699295</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.151218619542515</v>
+        <v>6.548664514172287</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>17.40734140679691</v>
+        <v>17.72106392367213</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>20.4194196174374</v>
+        <v>22.43045195529423</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.792562298469839</v>
+        <v>1.805050667354688</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.09224523952106</v>
+        <v>30.00899375102109</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.95676598779617</v>
+        <v>31.6093763155417</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.12957724915379</v>
+        <v>6.04854476789561</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>37.80623205065476</v>
+        <v>39.7793342482376</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38.62727696969914</v>
+        <v>42.81617903253989</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.80029691390562</v>
+        <v>44.29675311351902</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.6560074539891</v>
+        <v>45.37586246149722</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.23783780054219</v>
+        <v>51.83874605159716</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.71929298855929</v>
+        <v>14.89453316938759</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.73597917506052</v>
+        <v>29.26435520879292</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.19357219158741</v>
+        <v>35.36591356740664</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.53754536415523</v>
+        <v>12.07016088224488</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.47455806792065</v>
+        <v>29.30557928989825</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.48601125796284</v>
+        <v>34.03206643650259</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.114820916892196</v>
+        <v>10.45474221698586</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.56362298908538</v>
+        <v>29.38003022885602</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.37114374493532</v>
+        <v>39.90324854515553</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.697130318605478</v>
+        <v>5.220624624044984</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.15431015113006</v>
+        <v>44.44312830540831</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.662373762389926</v>
+        <v>3.696187244270988</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.3884310725568</v>
+        <v>10.24932621362221</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.77867963788688</v>
+        <v>18.95484962692712</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5.186725747954029</v>
+        <v>2.551731635359893</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.28464350049406</v>
+        <v>29.12045720504575</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.13690747821602</v>
+        <v>34.65007846952174</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.629282658016461</v>
+        <v>2.290301737167326</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.91781224435007</v>
+        <v>39.44797846144122</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.90446794981347</v>
+        <v>40.94884886739602</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>30.63984531536399</v>
+        <v>41.04719776042339</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.87244488218632</v>
+        <v>41.91671402198397</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.93820921144982</v>
+        <v>48.12739534740531</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10.7882627261132</v>
+        <v>12.69752889480593</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.54329002078119</v>
+        <v>21.74354148028322</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.95952729359892</v>
+        <v>37.14337991344976</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6.855065794106078</v>
+        <v>8.41289482492358</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.34295254072212</v>
+        <v>25.71481529849246</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>35.70920094851937</v>
+        <v>32.46450456388452</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>11.04765169496046</v>
+        <v>10.33083614613639</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.45432584050972</v>
+        <v>28.41815227369622</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.59886874451002</v>
+        <v>40.44681027725795</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4.995788555786191</v>
+        <v>1.869809546813652</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.46418210826806</v>
+        <v>38.71386440391059</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.74994226861626</v>
+        <v>24.14062415048054</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.25742294548744</v>
+        <v>19.53889093463988</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.95663188800032</v>
+        <v>41.76490048933319</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.87447941208863</v>
+        <v>46.64685780068088</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>10.33170412513727</v>
+        <v>7.445402781824004</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18.49403460080678</v>
+        <v>15.78693179558329</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.0646828544035</v>
+        <v>24.28427181574483</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>15.05402265051278</v>
+        <v>11.6376844674401</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.29823736353914</v>
+        <v>19.37224795267101</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.14863551260165</v>
+        <v>32.9411940342005</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>10.34387372557691</v>
+        <v>9.691874181867362</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.24759784110148</v>
+        <v>14.77629226361669</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>20.14443813905801</v>
+        <v>19.20334773875413</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1.852353084517897</v>
+        <v>2.972841198572354</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.4940062083088</v>
+        <v>18.28479800885679</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.21089545735049</v>
+        <v>33.5794392900208</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22.56731897405829</v>
+        <v>20.87197466401598</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>44.68432457773594</v>
+        <v>48.14538615813028</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>56.22518827177621</v>
+        <v>54.94470188541285</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5.559452247976125</v>
+        <v>5.599074479659514</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.50553529780588</v>
+        <v>18.24246991254594</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.5335598107355</v>
+        <v>27.86036873389737</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>58.3407692570113</v>
+        <v>58.9835700851125</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>50.85353704515101</v>
+        <v>52.80679312201163</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>62.74127126074657</v>
+        <v>64.78554236039534</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>70.14313374520279</v>
+        <v>68.38791172665407</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.3638871230861</v>
+        <v>22.00927918532885</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>57.08638959886746</v>
+        <v>58.5966934287769</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60.79828323934445</v>
+        <v>60.42184250260883</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>20.97356566146242</v>
+        <v>24.6327522083783</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.8712384995813</v>
+        <v>37.39256690414628</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.69896161569214</v>
+        <v>44.11344202819664</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.68368280759666</v>
+        <v>11.31931311812606</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.20358924297836</v>
+        <v>42.13002960158818</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.91801729214222</v>
+        <v>48.90414716232905</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.43980513023811</v>
+        <v>5.830061938114984</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>58.45475756950869</v>
+        <v>60.89357323572246</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>70.29533056779449</v>
+        <v>72.3719748283561</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>72.81690099322972</v>
+        <v>67.70111843277394</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>82.36058234143414</v>
+        <v>80.74376432989159</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>91.88540657866483</v>
+        <v>88.30945001468754</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.57645410157821</v>
+        <v>27.12449393241002</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>72.65178399082399</v>
+        <v>75.9284823813454</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.60474135264877</v>
+        <v>76.40791052063744</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>60.80582085081495</v>
+        <v>63.80539882480742</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>42.29311558990179</v>
+        <v>41.1107555917021</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>50.77632261763699</v>
+        <v>49.18486678469895</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>64.37353183286776</v>
+        <v>65.73911924771784</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.50440489895846</v>
+        <v>12.30335783142692</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>50.84618919195513</v>
+        <v>50.09946542006919</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.27455729626062</v>
+        <v>14.91251195970754</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>34.86893597640375</v>
+        <v>32.24406191381865</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>43.24429478270487</v>
+        <v>42.93816240439689</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>8.991467761503388</v>
+        <v>11.20360546005478</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>40.68954617902095</v>
+        <v>37.75812996517396</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>51.18364407924987</v>
+        <v>48.55988493856567</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>8.323464732316353</v>
+        <v>6.559691723980606</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>58.97079998883471</v>
+        <v>55.99461817116014</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>74.83299431156598</v>
+        <v>76.93496516225542</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>70.39110165164495</v>
+        <v>64.71380309042789</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>77.45216894508016</v>
+        <v>74.720370931383</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>92.83806674328494</v>
+        <v>89.79800003188043</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>15.64333945048027</v>
+        <v>16.41066947445974</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>68.98477510566035</v>
+        <v>63.12056248116955</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>78.19489764256704</v>
+        <v>72.48270073316829</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>56.45568626330089</v>
+        <v>55.44225004112375</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.36036606636673</v>
+        <v>24.76486675253397</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.63167456285086</v>
+        <v>31.62375601169482</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>53.40302254212175</v>
+        <v>45.40962124054859</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.464822455228127</v>
+        <v>8.701733151683062</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.6291168499332</v>
+        <v>45.21962200620226</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>54.16058737961161</v>
+        <v>52.25957906361212</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>11.30608078746488</v>
+        <v>11.65926767255835</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.88334981842394</v>
+        <v>30.86304762208345</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>48.42003440033713</v>
+        <v>45.61139893663331</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>12.22327799480753</v>
+        <v>11.39490483675242</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>39.11015935238255</v>
+        <v>37.03451096392232</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>54.99122327063046</v>
+        <v>52.98202103804387</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>7.186162211388897</v>
+        <v>2.59627247024963</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>52.54212032818519</v>
+        <v>51.4073491824285</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>73.81006565250911</v>
+        <v>75.15741425342279</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>56.5661939855945</v>
+        <v>57.2628516694508</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.75558198478271</v>
+        <v>68.9994193572236</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>92.01614758310905</v>
+        <v>89.86860943809251</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.15075408826383</v>
+        <v>13.49101413795254</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>61.57726945093574</v>
+        <v>62.03352485501514</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>77.46079070918515</v>
+        <v>76.97112462208642</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>17.71971235292214</v>
+        <v>20.16461130895976</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.66013186449135</v>
+        <v>28.90887188746434</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>59.03274895848042</v>
+        <v>48.7899751025296</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>7.333943645537875</v>
+        <v>4.184954636237066</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>56.04860370518613</v>
+        <v>39.23872887164954</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>63.22965192313173</v>
+        <v>47.39838669557071</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.57424396643018</v>
+        <v>8.1942616455989</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>84.70446306370678</v>
+        <v>77.9553547669545</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>92.68617010755003</v>
+        <v>81.81634591939829</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>54.59261644659419</v>
+        <v>32.33288638021497</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>66.59991448525446</v>
+        <v>36.16111696030612</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>66.72570320460693</v>
+        <v>37.39198769095376</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20.83589596827592</v>
+        <v>22.56837383668386</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>48.02274688602166</v>
+        <v>32.80048534202461</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>61.0371575850239</v>
+        <v>63.5719719227308</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.31698531635041</v>
+        <v>19.60959799561745</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>40.38496385708476</v>
+        <v>39.88001603667128</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>44.43162502266047</v>
+        <v>40.89332218505655</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-6.698799032327461</v>
+        <v>2.904358814393753</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>23.81175583674936</v>
+        <v>19.58489343458226</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.54855766982331</v>
+        <v>24.5725745549878</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1.672004428592071</v>
+        <v>6.601308235394583</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>48.21109265033517</v>
+        <v>40.33811067311738</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>27.96912290510708</v>
+        <v>38.2690680102546</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>63.14111866280641</v>
+        <v>54.77826308050962</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>67.8057025663461</v>
+        <v>53.94882326735554</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>12.69414377691011</v>
+        <v>5.120911410881309</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>74.13683799493319</v>
+        <v>55.66262300981638</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>74.15577494280593</v>
+        <v>55.83440273809209</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.71992510225041</v>
+        <v>9.134696423755646</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>102.1427866660531</v>
+        <v>85.36218097565332</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>102.4044979200143</v>
+        <v>79.92449242665339</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>93.88440593271733</v>
+        <v>69.70890706120912</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>106.1940886243471</v>
+        <v>79.41958760090483</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>100.8761114055019</v>
+        <v>77.74850206290697</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>33.03099202036692</v>
+        <v>37.43084466909708</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>77.57009519740899</v>
+        <v>67.49807960750103</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>80.8435836610939</v>
+        <v>72.91519939207433</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>23.36834614068997</v>
+        <v>29.69820678243098</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>57.27310917253031</v>
+        <v>46.8406073332481</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>56.68707390343964</v>
+        <v>45.87751258083393</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-2.219586622395624</v>
+        <v>2.406536709249675</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>47.92413792254175</v>
+        <v>38.6909327278191</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>48.17507742080433</v>
+        <v>42.26417468666835</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10.40333905116336</v>
+        <v>7.187482446770943</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>77.06974980381233</v>
+        <v>66.35967283538184</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>17.89109111936318</v>
+        <v>8.220536130659326</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>53.80064221436201</v>
+        <v>34.73046348554663</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>58.84929110414508</v>
+        <v>41.99628165811379</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>9.411558807320038</v>
+        <v>3.61803940532694</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>70.39496155749407</v>
+        <v>55.23872489631385</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>71.36645483101975</v>
+        <v>54.79327254733049</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.85125903254979</v>
+        <v>5.511778651233165</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>97.6672779805657</v>
+        <v>80.23266647417404</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>98.96997809905213</v>
+        <v>79.21489611311191</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>97.26983011586719</v>
+        <v>89.49510418170293</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>108.1890787741921</v>
+        <v>101.2092465142245</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>103.6751195632741</v>
+        <v>90.07259530828628</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>20.51266481913946</v>
+        <v>4.862282415779806</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>67.48585100147631</v>
+        <v>39.21769061847612</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>70.63070127408224</v>
+        <v>50.59668663733054</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>16.03601863412767</v>
+        <v>19.2120284511801</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>50.09227678775225</v>
+        <v>44.88980150105964</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>51.9415444898752</v>
+        <v>43.55664060835903</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-5.523024405907083</v>
+        <v>2.540344418758892</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>44.35301677156535</v>
+        <v>40.60597641683657</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>48.63998227041028</v>
+        <v>43.73556557412395</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.704566770177163</v>
+        <v>6.487989101523322</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>73.23243863432967</v>
+        <v>65.75445168103758</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>8.06423813998172</v>
+        <v>7.08446950446649</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>44.34121170750286</v>
+        <v>29.33268036944271</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>57.54148550913237</v>
+        <v>44.01391960252464</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>10.79706563272546</v>
+        <v>4.733784743189918</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>71.87811568957937</v>
+        <v>58.36342726749849</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>79.70612754893568</v>
+        <v>63.53398445044853</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.08637783400219</v>
+        <v>5.339222335810501</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>95.54002996982652</v>
+        <v>87.34355539117941</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>103.9383792804185</v>
+        <v>86.26310778182989</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>86.83891523320224</v>
+        <v>84.10294948181146</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>97.89977041972307</v>
+        <v>92.55572469609749</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>98.53014832926391</v>
+        <v>93.4754866817091</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>15.98259984011247</v>
+        <v>6.598718221107532</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>63.53787335181079</v>
+        <v>41.10839351382593</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>73.83654044810746</v>
+        <v>57.03357530011953</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>9.248970649235975</v>
+        <v>12.95998307416966</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>44.49754426432285</v>
+        <v>42.6345049179271</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>52.14388626083029</v>
+        <v>45.95886880357225</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-4.571603134722753</v>
+        <v>2.551368389276465</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>42.05076333688423</v>
+        <v>38.7736915397906</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>51.70696056854179</v>
+        <v>46.57694268871217</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>6.054847928980358</v>
+        <v>5.942136209304628</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>68.37341991141099</v>
+        <v>61.02321394808256</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>53.0423259407539</v>
+        <v>39.46001610123638</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>39.82467057774983</v>
+        <v>33.04777198964</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>56.76960861851202</v>
+        <v>47.33482469803059</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>60.22722988570133</v>
+        <v>54.88959363101159</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>10.7286555065555</v>
+        <v>14.9176792601084</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>42.50406205134085</v>
+        <v>34.48939524794234</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>49.76465811096371</v>
+        <v>43.26280660489669</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>14.269876553995</v>
+        <v>14.20362503375303</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>35.74146842462058</v>
+        <v>33.48145455878564</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>45.23501173097027</v>
+        <v>42.69636546677399</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-4.429688546431407</v>
+        <v>2.613439574887206</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.73998028668816</v>
+        <v>16.18752910425493</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>31.09354334780217</v>
+        <v>29.59268291238111</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>2.603146450757464</v>
+        <v>7.729088190580462</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>48.9853945101767</v>
+        <v>41.30534694882079</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>61.78324251103647</v>
+        <v>66.82919243677026</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>47.22182478788843</v>
+        <v>38.22428882366124</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>63.60064597994739</v>
+        <v>61.24618943055668</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>68.5770711942973</v>
+        <v>66.93493935109237</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>6.987649337676942</v>
+        <v>12.93521101083377</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>42.00625596867081</v>
+        <v>35.46887707149482</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>55.42097490240039</v>
+        <v>52.00076174769016</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>80.30275445091726</v>
+        <v>72.10147531038029</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>76.13094996141982</v>
+        <v>68.86313484824382</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>89.34871559836927</v>
+        <v>77.35769118716223</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>88.17770627948676</v>
+        <v>78.15567154696217</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.14248516371481</v>
+        <v>28.73796924083102</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>84.48284168658799</v>
+        <v>71.22200157025046</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>83.41389438559833</v>
+        <v>71.73545409455247</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19.27983763470984</v>
+        <v>30.65965670525625</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>53.98076580348253</v>
+        <v>47.70234539693033</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>52.74421453592521</v>
+        <v>46.21272165961121</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-2.459836541123348</v>
+        <v>2.474189738963297</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>51.4676505037157</v>
+        <v>46.67426747992509</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>48.87691120975894</v>
+        <v>44.8184047389143</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>6.034130614244134</v>
+        <v>4.11715364757849</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>79.13737876919998</v>
+        <v>71.8134005625206</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>80.37143421533037</v>
+        <v>71.87666868984445</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>89.9799287743723</v>
+        <v>77.71314995589753</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>98.0574435155242</v>
+        <v>81.61603023910743</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>95.01232701028849</v>
+        <v>80.96626688355524</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>23.94391960124092</v>
+        <v>29.93007729649791</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>90.60217455642459</v>
+        <v>77.38096206025881</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>89.97214780319544</v>
+        <v>80.03819862119829</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>80.34732791322506</v>
+        <v>69.35218103256565</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>70.91892872100402</v>
+        <v>65.55618005525028</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>82.82987598096477</v>
+        <v>77.01627544270751</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>85.44728787611807</v>
+        <v>76.18087058929851</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.0517650212839</v>
+        <v>16.63936982987743</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>79.36610901855485</v>
+        <v>69.47529176247249</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>79.48340845760885</v>
+        <v>68.84016376638044</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>10.98771854602054</v>
+        <v>16.79302389075775</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>48.79518655770453</v>
+        <v>42.42083226821291</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>48.09903009663606</v>
+        <v>41.42881985337895</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-7.957266987215981</v>
+        <v>2.022291552570469</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>49.98126663632092</v>
+        <v>48.03635350858299</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>48.51821150788338</v>
+        <v>43.15223810796911</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>1.035146557622568</v>
+        <v>5.458241764315456</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>78.0338453547412</v>
+        <v>73.81535337666296</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>80.2053143667556</v>
+        <v>72.28525276361697</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>88.90167064190538</v>
+        <v>82.57952149099768</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>96.31040488179718</v>
+        <v>87.03188581330679</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>96.40978323711386</v>
+        <v>85.98749790841393</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>12.97360353466254</v>
+        <v>10.92311127954015</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>88.80141741077929</v>
+        <v>79.62193936708042</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>88.50432821281893</v>
+        <v>80.76952783540418</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>80.63367826515822</v>
+        <v>74.20628506551597</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>53.29037210377088</v>
+        <v>42.93347956368632</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>68.68195996248181</v>
+        <v>56.76136831424466</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>74.86497244276458</v>
+        <v>64.80982691360823</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>12.1992019168704</v>
+        <v>11.99326377273313</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>73.67896286462476</v>
+        <v>70.19465168452513</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>80.17994118946135</v>
+        <v>74.58156001777817</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>5.409933952665945</v>
+        <v>10.8901418676764</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.64424569849928</v>
+        <v>43.31454570035238</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>53.26041681779947</v>
+        <v>45.98544174721731</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-4.135070256946186</v>
+        <v>2.066323701368656</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>50.92889352721983</v>
+        <v>45.26910891716862</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>58.09235355379882</v>
+        <v>49.91359909730053</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>3.164147177647408</v>
+        <v>3.411025084240954</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>76.79982193524098</v>
+        <v>69.52870365603437</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>87.59636723066322</v>
+        <v>74.93042220305227</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>82.22680065561084</v>
+        <v>74.23826633287277</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>94.887024344125</v>
+        <v>81.71080064376495</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>101.1949884356472</v>
+        <v>86.72657342337799</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>11.15806395374926</v>
+        <v>8.257711719685219</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>87.17686462064563</v>
+        <v>76.91528090217329</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>94.99160253103582</v>
+        <v>82.8002222029275</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>14.44348372977209</v>
+        <v>12.75138589570684</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>11.49983125903031</v>
+        <v>14.13136452580316</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.61311094067584</v>
+        <v>20.77369081812615</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-1.483763488230231</v>
+        <v>2.47978539796593</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>8.650186776933769</v>
+        <v>10.51322544504088</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.91428504337528</v>
+        <v>11.97021709736557</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>3.96433193898843</v>
+        <v>7.743582511400664</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.98204773274706</v>
+        <v>23.35829920308927</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.67356887138254</v>
+        <v>24.56458220556277</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>10.4732169115356</v>
+        <v>13.10816895949105</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>15.96755366381984</v>
+        <v>17.60394158113488</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.71729568319633</v>
+        <v>19.63176710712328</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.70258858532793</v>
+        <v>20.89419474852476</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>17.45332024165665</v>
+        <v>21.61347829303966</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.78521834800625</v>
+        <v>32.03452727896999</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>15.01129892572484</v>
+        <v>10.78516738935268</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.40507665269688</v>
+        <v>23.59993816595775</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.65459383430944</v>
+        <v>34.02662646964872</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1.977117084271086</v>
+        <v>0.708426727129492</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>1.368131390037988</v>
+        <v>4.876568784719002</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>7.318687202972121</v>
+        <v>6.558364842425835</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-3.397941386643168</v>
+        <v>2.109393766848793</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>13.85809162079744</v>
+        <v>14.72931033820596</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>15.15217960709979</v>
+        <v>17.07993763618682</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>19.73375958385167</v>
+        <v>21.15066469354088</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.00844646379837</v>
+        <v>20.68740228093118</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-2.158078623618316</v>
+        <v>2.832340324667872</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19.91549239582788</v>
+        <v>22.26714875168354</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.1788499480571</v>
+        <v>24.43529094413874</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>5.158963087840348</v>
+        <v>7.869637941187491</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.80053244487866</v>
+        <v>32.93985216725039</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.40028547086833</v>
+        <v>32.67318090006373</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.03170776321311</v>
+        <v>36.56677359622555</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.09979362608154</v>
+        <v>41.97950342493858</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>45.14438009045855</v>
+        <v>43.93650560778264</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.92507034923452</v>
+        <v>27.1499136941899</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.74214213394966</v>
+        <v>44.87018695356123</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>51.7654086748304</v>
+        <v>45.81361046047698</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>15.28379924574574</v>
+        <v>13.62988843672144</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.24862872645771</v>
+        <v>32.49781983827697</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>42.42937637687893</v>
+        <v>38.66830516751601</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1.309947205471019</v>
+        <v>0.9845583308444539</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>24.88349124807765</v>
+        <v>29.56424008646079</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>37.96898339429794</v>
+        <v>41.2046325910883</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>6.282391632663099</v>
+        <v>3.963450287298226</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>44.60186117203591</v>
+        <v>51.22926092393207</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.808243677396597</v>
+        <v>8.007468549269632</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.56297621746889</v>
+        <v>16.52622490689149</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>17.67016247241456</v>
+        <v>18.15566006000018</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-5.684948662813717</v>
+        <v>0.8895993972074514</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.18564443472001</v>
+        <v>22.00940105685785</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.64065505003625</v>
+        <v>23.58867318350862</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>2.308892357418326</v>
+        <v>6.383674092683901</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.94266986591202</v>
+        <v>34.01202978500839</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>35.58088362912663</v>
+        <v>37.45987694694178</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>38.36129742787865</v>
+        <v>38.23169298997683</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.67940957481954</v>
+        <v>40.16423579690321</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>46.56761770938211</v>
+        <v>46.18923336002449</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14.71214612193239</v>
+        <v>17.85831081360531</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>35.0897350952087</v>
+        <v>32.4883535867521</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>43.49204204578938</v>
+        <v>37.99616244194789</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.157493105943612</v>
+        <v>6.006776354485353</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.14904844678166</v>
+        <v>26.63682972593127</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>37.75341228126025</v>
+        <v>37.86830500820155</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-3.316869227053598</v>
+        <v>0.2946873126010772</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>19.63021876851137</v>
+        <v>17.56313919739057</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>39.25432822192533</v>
+        <v>38.22870509601724</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>2.003745965037439</v>
+        <v>2.390905892306126</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.26749357347751</v>
+        <v>33.55180596158097</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1.273730183284709</v>
+        <v>6.910934273460725</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>7.69240179101145</v>
+        <v>12.53053429294031</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>17.42298425969182</v>
+        <v>16.59804339836536</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-5.062089404643849</v>
+        <v>1.034735855470103</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.52463677391288</v>
+        <v>16.96284581009942</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.29412868037098</v>
+        <v>24.24343566565218</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-0.8138739018282521</v>
+        <v>3.546921148363101</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.37564090551367</v>
+        <v>29.68597993964976</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>34.63740924255313</v>
+        <v>34.35875790374862</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.49671378208169</v>
+        <v>29.69609247544233</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.16867182218624</v>
+        <v>32.46406976924695</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.31430009743602</v>
+        <v>37.68980314028769</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>11.00265636655491</v>
+        <v>18.20722467827813</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.28719120769564</v>
+        <v>29.80062249372319</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>41.73672906991858</v>
+        <v>37.07981841503372</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>4.580855066928329</v>
+        <v>4.478822905050862</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.02928836110887</v>
+        <v>21.86305984633917</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.42817872560545</v>
+        <v>34.37502388011416</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-1.857398610863989</v>
+        <v>1.145947989967294</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>14.5709173141038</v>
+        <v>15.77385274807664</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>35.12134131781251</v>
+        <v>38.29076831165871</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0.3365779449194832</v>
+        <v>1.532998865716145</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.26928110183022</v>
+        <v>28.60432086299443</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.17423075645283</v>
+        <v>19.17762960076294</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>17.38449681181768</v>
+        <v>18.66923451420573</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>35.93040073004788</v>
+        <v>37.92734067576032</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>42.88625891801295</v>
+        <v>45.36353002184126</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>2.682515142500321</v>
+        <v>3.503394884312996</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.72955399900761</v>
+        <v>11.47048664497241</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.24934215764406</v>
+        <v>19.73193320017555</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.91917922890846</v>
+        <v>12.46882651175518</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.02762434190077</v>
+        <v>22.18753769512898</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.74541460669347</v>
+        <v>31.25442509016039</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-2.706966183085296</v>
+        <v>0.2295680489796972</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>2.489778478766922</v>
+        <v>3.770448539621807</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.118765453406589</v>
+        <v>7.664237270275223</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-3.2045880834794</v>
+        <v>2.683756672866956</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.64649366165364</v>
+        <v>15.17694604754937</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.54287234611601</v>
+        <v>24.68043032198115</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.40432453991754</v>
+        <v>19.70833982712462</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.90822800252329</v>
+        <v>38.85008288721637</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>48.86161102889796</v>
+        <v>45.91785721053467</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>5.146157430298373</v>
+        <v>5.06053819681927</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>19.16969187551291</v>
+        <v>14.92406257234168</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.93306741861872</v>
+        <v>21.42835287785369</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>61.72142328581145</v>
+        <v>63.57015587349007</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>50.10057592647217</v>
+        <v>54.42306379894167</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.70690680314604</v>
+        <v>67.66689509619164</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>71.99085819237675</v>
+        <v>70.25991425100953</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.63337620159002</v>
+        <v>13.20778492548772</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>59.96112706914288</v>
+        <v>64.66830134481805</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>69.8963353904807</v>
+        <v>69.25493052044722</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.51361522402638</v>
+        <v>24.66789856686177</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>44.79174432973154</v>
+        <v>41.46897444588932</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>49.94194551182268</v>
+        <v>46.08832308557628</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>4.707475577622667</v>
+        <v>2.951426707245179</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.18615911282826</v>
+        <v>35.58620480789143</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>42.17020363680766</v>
+        <v>46.99176154115547</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>11.95381484122873</v>
+        <v>10.33703334684709</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>60.80582411982147</v>
+        <v>66.56448899716855</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>72.04234468552701</v>
+        <v>72.27169827049966</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>77.18698439777043</v>
+        <v>75.97416208416519</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>85.67958633389307</v>
+        <v>83.39425625213616</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>92.36250825702942</v>
+        <v>88.78747345458615</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>32.79205318135552</v>
+        <v>29.312872189115</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>80.49161379083668</v>
+        <v>80.92315074344111</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>87.58527552193655</v>
+        <v>83.75722471705689</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>63.23451146566933</v>
+        <v>64.91098900329848</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>39.69189616901881</v>
+        <v>33.2833643748811</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>51.33634790695018</v>
+        <v>47.76012117964768</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>65.40418136890759</v>
+        <v>69.42691977556478</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>5.328561313286414</v>
+        <v>3.778051179354911</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>51.85991429583417</v>
+        <v>50.18342765324923</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>65.42345841858577</v>
+        <v>63.52932410962767</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.2392227400334</v>
+        <v>12.84860133588287</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>39.17953195271649</v>
+        <v>34.3322214783981</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>47.78825418768794</v>
+        <v>44.29940810995081</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-1.338584106479914</v>
+        <v>1.433428522530445</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.23215362844291</v>
+        <v>31.30425925467755</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>45.00293340207463</v>
+        <v>45.81501756781189</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>7.22814652859185</v>
+        <v>5.300634905685843</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>59.64028024990665</v>
+        <v>54.5555965824441</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>75.8621312097971</v>
+        <v>74.37934264579707</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>73.25366071227671</v>
+        <v>63.51939155109702</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>79.77087825778548</v>
+        <v>74.86652674208716</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>92.95660198641252</v>
+        <v>89.1877539710563</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>20.2783250224476</v>
+        <v>15.93180565677866</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>75.35058663227639</v>
+        <v>69.10568123544624</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>87.68109725946798</v>
+        <v>80.32041456977061</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>55.23122743860804</v>
+        <v>60.08253331463327</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.52825362668513</v>
+        <v>20.53956550263807</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.55227219025062</v>
+        <v>29.1368688079407</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>50.90084046122765</v>
+        <v>49.90208697584711</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>2.817383085720564</v>
+        <v>3.86909868626601</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.79837323044005</v>
+        <v>37.88063246807792</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>57.39862839309233</v>
+        <v>56.45700282625025</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>11.7024047211653</v>
+        <v>9.732274783847167</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.60721132231538</v>
+        <v>32.36291045812912</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>49.35227255809104</v>
+        <v>45.21451038115529</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>0.1878976165033706</v>
+        <v>1.668736704064436</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.94893977250542</v>
+        <v>28.97486171369886</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>44.92867368445702</v>
+        <v>46.62170696802338</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>3.670446764587002</v>
+        <v>2.818772474029444</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>49.70942492663697</v>
+        <v>48.23232978001339</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>70.52124421916542</v>
+        <v>72.81545158530938</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>56.25656190420185</v>
+        <v>51.89267295020879</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>68.55987164553912</v>
+        <v>65.46327639151022</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>87.67454461128636</v>
+        <v>85.3595064100715</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>13.96199220390812</v>
+        <v>11.96565097529141</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>63.54512674700969</v>
+        <v>62.61576767875282</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>81.3907514982437</v>
+        <v>77.51835848117801</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>13.19293068186418</v>
+        <v>13.63052260532652</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>9.7902035883913</v>
+        <v>16.51874288560947</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>18.43603866269264</v>
+        <v>20.12116269835207</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.5129444134334129</v>
+        <v>7.142078043641973</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>7.165944861612722</v>
+        <v>11.10809442338429</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>9.851279926797687</v>
+        <v>11.77539277576892</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.598119765901732</v>
+        <v>11.01184658391821</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.02341518288576</v>
+        <v>19.53592808709591</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.19736650617659</v>
+        <v>21.34531892658121</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>8.385449369425157</v>
+        <v>14.86474329763392</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>13.27670506840135</v>
+        <v>18.665213777479</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.43171809948809</v>
+        <v>21.13196974519449</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>12.09503719296096</v>
+        <v>13.98484565917005</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>7.961841921229297</v>
+        <v>15.63408180171043</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.28014503070072</v>
+        <v>19.30237631413265</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>15.10885243074338</v>
+        <v>14.24372496802286</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.90343513660983</v>
+        <v>25.54624795768166</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.82876744844445</v>
+        <v>32.15354644975535</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-0.1393926656723714</v>
+        <v>5.232870299493872</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>3.497589285479805</v>
+        <v>9.161145603251846</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.714596251191686</v>
+        <v>11.21614514727432</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-0.4069536972292305</v>
+        <v>7.414736718704205</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.64364718181143</v>
+        <v>20.38557208524703</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>13.23381086593215</v>
+        <v>16.53805728072446</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.89102311094292</v>
+        <v>21.03319318272031</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.89365745406307</v>
+        <v>19.58481075432339</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-1.414276217581296</v>
+        <v>7.656660561657009</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>16.08094900339823</v>
+        <v>20.52944126076711</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>17.06510436078865</v>
+        <v>22.99791822620434</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>3.251202293507497</v>
+        <v>10.62281185369329</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.21024226946398</v>
+        <v>28.94059792310776</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.74625601388938</v>
+        <v>28.10575420180816</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.64384882748481</v>
+        <v>31.41195643271322</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.95446935745868</v>
+        <v>36.49598332069108</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.14527441757436</v>
+        <v>37.50062837752272</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>16.17982431528397</v>
+        <v>17.13317505783388</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.22519094446989</v>
+        <v>29.60065683821987</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.38381802134177</v>
+        <v>29.83525787904079</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.39637832735657</v>
+        <v>15.18113586388589</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.10616670439908</v>
+        <v>31.61476725644539</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>37.22011807167188</v>
+        <v>35.58286876637778</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>1.662629736398976</v>
+        <v>5.567191283459152</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.59280785346357</v>
+        <v>28.10822052776002</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>33.3625806998223</v>
+        <v>36.16505455338719</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>6.029442068472026</v>
+        <v>7.777707667803476</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>40.0198651005714</v>
+        <v>46.98046586945847</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.978282418186254</v>
+        <v>10.6200415774229</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.18517632439707</v>
+        <v>15.83919076598652</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>14.11502429099649</v>
+        <v>16.50822708759921</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-4.224613787929513</v>
+        <v>5.889149346355389</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>13.64595948496326</v>
+        <v>18.88283712772313</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.6693689864012</v>
+        <v>19.77074557286073</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>0.9270584253662228</v>
+        <v>9.445132070308901</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.37324694429871</v>
+        <v>27.1093770759702</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.83187924309838</v>
+        <v>29.12453217405045</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.31509268291455</v>
+        <v>30.98766088498366</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.05240892198105</v>
+        <v>33.88383390381687</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>37.6727356630838</v>
+        <v>37.27629281540403</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>4.982227341395014</v>
+        <v>11.95568370819915</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>19.73315887466913</v>
+        <v>19.64915626843924</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>26.19176273169588</v>
+        <v>22.95959358312177</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>7.433224308069189</v>
+        <v>9.428077958591711</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>23.0299599218515</v>
+        <v>25.50977303499728</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.31119043591293</v>
+        <v>35.5743931412261</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-2.17502523374263</v>
+        <v>4.574345957182835</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.06243857312283</v>
+        <v>18.53197523181775</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.5435425920049</v>
+        <v>34.92476747966559</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>2.473189819719121</v>
+        <v>7.161924741541313</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.20039637197425</v>
+        <v>30.43181906827551</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>1.329564591105715</v>
+        <v>9.909386280277062</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>5.561244942504533</v>
+        <v>13.52566285575345</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.18697093326664</v>
+        <v>16.21261979737493</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-3.94713309879479</v>
+        <v>5.863653409591635</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>13.21762742278446</v>
+        <v>14.93282626753343</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.02339678688788</v>
+        <v>20.63152482794497</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-1.329229128492322</v>
+        <v>7.633572524623435</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.22951039637576</v>
+        <v>24.10686945415761</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.79428066259587</v>
+        <v>28.12134752210105</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.80804936068842</v>
+        <v>23.57589763813331</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.30775236508376</v>
+        <v>26.72569229432936</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.09310999853522</v>
+        <v>30.13136042689123</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>2.630965142864476</v>
+        <v>12.16601885088513</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>14.8665725313833</v>
+        <v>19.32405035972882</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.07618924637082</v>
+        <v>21.80550175810977</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>5.638898884729652</v>
+        <v>8.774463403393774</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>20.22792505324838</v>
+        <v>22.51508138736633</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>33.67413739720806</v>
+        <v>32.86840604293992</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-0.7839522190940009</v>
+        <v>5.267572671405645</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>14.17032977152247</v>
+        <v>17.01949539299267</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.6834151673188</v>
+        <v>33.71211796167066</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1.905258377402436</v>
+        <v>6.896789451392593</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.64640249705285</v>
+        <v>27.78214176858216</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>24.98181059072432</v>
+        <v>23.17368262420275</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>18.86859567487378</v>
+        <v>21.80702553957182</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.04160091190626</v>
+        <v>37.85868439373878</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>40.51071850019729</v>
+        <v>43.86098402589348</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>4.921823636469021</v>
+        <v>8.827084720868548</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>14.48910179921777</v>
+        <v>17.17407154927474</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.2287852895344</v>
+        <v>24.31661106968982</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>14.33581285363343</v>
+        <v>15.72670636813125</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>20.24957728622669</v>
+        <v>25.06045045340132</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.42059311998641</v>
+        <v>31.47858930646921</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-2.198892576320393</v>
+        <v>4.731121550996701</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>2.832551171693439</v>
+        <v>7.290134417996736</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>8.881726154782243</v>
+        <v>10.13089171579572</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-1.553324125084202</v>
+        <v>7.577502624779001</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.38862180441886</v>
+        <v>18.11023697309328</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>30.03432154854386</v>
+        <v>24.6941611410132</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>20.64600411838888</v>
+        <v>22.67972390310968</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.04155939582469</v>
+        <v>38.92850934609901</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>45.71577030098085</v>
+        <v>44.05602174363424</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>4.108560719790429</v>
+        <v>9.683467974625223</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>16.8168320326695</v>
+        <v>17.54881455510496</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.6463470958635</v>
+        <v>21.98265521294918</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>53.89690669098536</v>
+        <v>54.86178021984472</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.85847826156219</v>
+        <v>48.28013737328953</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>57.51836288412616</v>
+        <v>59.25112840158779</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>63.09608774185768</v>
+        <v>61.07685561458276</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.2826751768983</v>
+        <v>14.3986630739752</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>51.1680869219668</v>
+        <v>57.14514722323256</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>59.19909791615155</v>
+        <v>59.04610169349402</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>20.64481731821274</v>
+        <v>23.53932518387871</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.14701346268865</v>
+        <v>38.3384886052508</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>43.94991697585329</v>
+        <v>42.25975929412017</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.067404254889095</v>
+        <v>6.711465680437829</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.15776089646119</v>
+        <v>32.85804758989557</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.4426388356724</v>
+        <v>42.6961564037458</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>10.23392164935608</v>
+        <v>13.49156037809397</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>53.73080493505077</v>
+        <v>59.09725125773611</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>63.93938222979718</v>
+        <v>62.47625315435082</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>67.56117510704712</v>
+        <v>63.92015945997503</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>75.98892744604331</v>
+        <v>72.04093657292073</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>81.23412413662473</v>
+        <v>75.02926193129264</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.83040156075521</v>
+        <v>27.78186314327408</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>68.5207337609362</v>
+        <v>71.1580449031718</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>75.67766599794768</v>
+        <v>72.67953580544665</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>55.25770052452369</v>
+        <v>56.52555129546127</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.35365503044052</v>
+        <v>31.88912329022433</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.56843181430639</v>
+        <v>44.12875417057142</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>57.87434838705374</v>
+        <v>61.15939008231916</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>4.847701198131176</v>
+        <v>8.078535321157354</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.25875969060482</v>
+        <v>45.45373360758393</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>55.54583106888516</v>
+        <v>56.20440000102715</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.61412263999182</v>
+        <v>13.38047087269249</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.49252488870403</v>
+        <v>31.19950953872823</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>42.2281487586883</v>
+        <v>40.14975673669129</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>-0.8251586324397131</v>
+        <v>5.453509316674165</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.07072488743859</v>
+        <v>29.7749953425539</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.1242941745209</v>
+        <v>42.9388912889062</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>6.529509578017496</v>
+        <v>9.028632232953701</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>53.14465777460212</v>
+        <v>48.1930481099927</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>67.4941306080856</v>
+        <v>64.24119874688191</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>64.7146826459151</v>
+        <v>55.93278992597926</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>71.6121527073843</v>
+        <v>66.11235479029581</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>82.3041698352624</v>
+        <v>74.83214836661527</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>16.44011189787563</v>
+        <v>17.5599806619355</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>64.79093528970138</v>
+        <v>61.66642432920123</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>76.29056004169968</v>
+        <v>70.06106566665621</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>49.80203228688293</v>
+        <v>53.24037930429483</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.86463546265082</v>
+        <v>22.57447909780323</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.21512620095724</v>
+        <v>31.71900014960262</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.90200894468679</v>
+        <v>46.78497626992446</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>3.817804833801528</v>
+        <v>8.471692875312467</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.89078646706474</v>
+        <v>35.38297505771446</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>50.63069496894613</v>
+        <v>51.13948708054474</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>10.15696509239306</v>
+        <v>12.14518205370654</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.25550911911157</v>
+        <v>30.80914562256053</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>44.27985445506789</v>
+        <v>42.44035550859439</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>0.4856044966768422</v>
+        <v>5.917722702663081</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>26.80894838157383</v>
+        <v>28.75966790424663</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>41.59572622238707</v>
+        <v>42.63555522562737</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>4.36646051492286</v>
+        <v>7.949040726695756</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.92672815626556</v>
+        <v>45.1515157020374</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>64.40069610038789</v>
+        <v>64.47008875647859</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>51.89351395702483</v>
+        <v>48.76871816727856</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>63.60171635388328</v>
+        <v>60.93960028679601</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>79.33008217534257</v>
+        <v>74.38389100343905</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>11.34258743945244</v>
+        <v>14.52015383107819</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>55.9768632266351</v>
+        <v>57.51166745474019</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>72.03886507815452</v>
+        <v>68.60971770453185</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>13.19936805111509</v>
+        <v>12.94030028035416</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>19.97119849028194</v>
+        <v>18.17417730877616</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.25368378851222</v>
+        <v>32.45215478297625</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-1.786604458019461</v>
+        <v>1.598799088725357</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.53774375479305</v>
+        <v>14.49559218874126</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.81923247419891</v>
+        <v>18.01776611621365</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>6.694618428791784</v>
+        <v>3.71096390718467</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>37.95470986370706</v>
+        <v>38.44073860881392</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>43.5514400911602</v>
+        <v>44.74689134121218</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.35994087301123</v>
+        <v>21.37298080900305</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.21750502457126</v>
+        <v>25.37985450100294</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.19889441133363</v>
+        <v>25.51879300938019</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.361114858256268</v>
+        <v>10.93273857420806</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.634824782707</v>
+        <v>19.0714467359937</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>30.63797536872255</v>
+        <v>34.15866499398783</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>15.3188094000028</v>
+        <v>12.67430820040166</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.87356032408644</v>
+        <v>26.29115375228421</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>30.87709960441511</v>
+        <v>31.63828770117932</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-3.217870549470426</v>
+        <v>1.114586309113982</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>6.15244914650934</v>
+        <v>9.802046496527979</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>7.233816901542163</v>
+        <v>11.65916027499783</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-3.020710338914803</v>
+        <v>2.431759005984826</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>21.85794357193927</v>
+        <v>23.33485902900541</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>17.1954652364116</v>
+        <v>22.69760130766392</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.927467514726</v>
+        <v>33.92513735969257</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>38.51460917436327</v>
+        <v>35.60915247279322</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>3.189556830822141</v>
+        <v>2.753277421267143</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.76270792074927</v>
+        <v>36.94273492024001</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>37.74134922269853</v>
+        <v>38.1773223638354</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>10.76772760551736</v>
+        <v>5.37727799611887</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>56.65972650851264</v>
+        <v>55.87269946788759</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>57.08941066283871</v>
+        <v>54.84137044506802</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>56.78228181072044</v>
+        <v>55.10468270128488</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>62.77218905452035</v>
+        <v>59.95523892224545</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>63.07478540740625</v>
+        <v>61.78410740672514</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>19.51389531114032</v>
+        <v>20.58830851637265</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.87578354392843</v>
+        <v>59.16371809957909</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>56.0332007403951</v>
+        <v>61.26733049720015</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.37917419924023</v>
+        <v>18.80211230979014</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>39.63844893086318</v>
+        <v>35.52582174344417</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>42.09785591274262</v>
+        <v>36.44659756604359</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1.359279650570887</v>
+        <v>1.117006033087183</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.80510329873619</v>
+        <v>34.53179754501533</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>36.02162220949339</v>
+        <v>35.35627635540703</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>6.187572767361992</v>
+        <v>2.796664548401573</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>53.54307662596346</v>
+        <v>55.60017306905179</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.5001493974127</v>
+        <v>5.595827409631092</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.37182818738766</v>
+        <v>24.93726712773291</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>33.33270052643558</v>
+        <v>30.3978548173838</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1.067536973559502</v>
+        <v>1.941529249095911</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.63322683987185</v>
+        <v>35.27887208866251</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>38.0899603105829</v>
+        <v>37.31262374816775</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>9.059445716490913</v>
+        <v>5.588513875242061</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>54.87076815784003</v>
+        <v>55.4133627298403</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>57.66135112673842</v>
+        <v>57.00740376895178</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>59.11601066404268</v>
+        <v>61.84628428861502</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>63.35481957434104</v>
+        <v>63.2647596990902</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>66.32491851756731</v>
+        <v>67.48845539881812</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>8.343794932006674</v>
+        <v>4.833173400083968</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>42.14568688731487</v>
+        <v>37.43216735488187</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>48.68762179190176</v>
+        <v>43.93063928486301</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>10.59941823403181</v>
+        <v>11.17224883432921</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.25174361652273</v>
+        <v>33.28242123309883</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.67432044895867</v>
+        <v>36.7083525222246</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-2.020638638208226</v>
+        <v>2.010176558633258</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.16355705700043</v>
+        <v>30.86563452470684</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.78511846503055</v>
+        <v>39.78503138963261</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>3.162695550603207</v>
+        <v>5.07418963828087</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>49.59534206496724</v>
+        <v>48.12333983035657</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>3.849696887815114</v>
+        <v>4.422274714131941</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>19.55152482431812</v>
+        <v>17.24317230586463</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.89514102389439</v>
+        <v>29.08256556189736</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-0.3805395883925264</v>
+        <v>1.146866741509854</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.54480354505298</v>
+        <v>18.47003607990321</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.23032710932021</v>
+        <v>40.10596274670269</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>6.011184077910674</v>
+        <v>2.699418937216056</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>48.13297003139029</v>
+        <v>48.19756226240811</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>57.28811203575394</v>
+        <v>56.57427160093621</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.40622660543391</v>
+        <v>52.77829768005275</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>53.52710003175628</v>
+        <v>57.00394430499061</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>59.0462657293157</v>
+        <v>62.96105840233584</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>5.861743509096332</v>
+        <v>5.111629656436001</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.78245681209857</v>
+        <v>34.9476739513196</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>48.34611086703509</v>
+        <v>46.2631521389273</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>6.12530509046395</v>
+        <v>7.173446480270805</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.29525447653033</v>
+        <v>28.22591350256918</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>36.93110662064867</v>
+        <v>33.91437415707134</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-3.529951685912941</v>
+        <v>1.948505365916819</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>18.58485740720445</v>
+        <v>23.47453009179037</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>32.70839653863317</v>
+        <v>36.8993718815784</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-0.4015415667462179</v>
+        <v>2.838197698307859</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.33692864086326</v>
+        <v>39.10167092011869</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>27.27504618363686</v>
+        <v>23.68803443587322</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.88090920249181</v>
+        <v>21.75004377184376</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.48110429850291</v>
+        <v>36.15443676146668</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>36.88292887396673</v>
+        <v>41.32803430954463</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>2.733750112581919</v>
+        <v>7.873145860286762</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>14.67485656986759</v>
+        <v>17.75303644254424</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.04215626415579</v>
+        <v>24.42375330551706</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>11.71663379557261</v>
+        <v>9.624089583296232</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>19.92848170481652</v>
+        <v>22.07859340837262</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.71666149323696</v>
+        <v>33.04389369809662</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-5.059252496646877</v>
+        <v>1.389801372502518</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>4.128817301916438</v>
+        <v>7.91284348008698</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>12.62713422112511</v>
+        <v>13.30992289634516</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-4.112790580866125</v>
+        <v>3.79750279550219</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>23.09603234579225</v>
+        <v>21.60892382401667</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.59805961036972</v>
+        <v>39.88243689373658</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.96524395539829</v>
+        <v>25.81547350475243</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>41.50463553650068</v>
+        <v>46.39098022178064</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.80196083711255</v>
+        <v>52.30880434590595</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-0.8096478629725148</v>
+        <v>6.497780208360641</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.16933668842491</v>
+        <v>19.55122869065266</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.79181947996534</v>
+        <v>32.64429511520258</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>60.74421441362416</v>
+        <v>59.9734783566221</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>55.00266508970994</v>
+        <v>56.97579416607729</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>65.66056039619644</v>
+        <v>66.81442667057128</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>66.33369312652101</v>
+        <v>63.77824504459229</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.9818347024763</v>
+        <v>16.57476280335715</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>59.69475638777542</v>
+        <v>60.63655351943822</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>63.46946222894737</v>
+        <v>63.39903605746808</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.97968971157825</v>
+        <v>21.04026892096751</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>41.79167563960943</v>
+        <v>39.58528698260628</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>46.50605849524673</v>
+        <v>42.58565522703498</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1.844718254236035</v>
+        <v>2.32276226170401</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.58872392004157</v>
+        <v>42.43918431759202</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>42.46645987413438</v>
+        <v>44.15820890817639</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>6.638157013822138</v>
+        <v>4.856121352570593</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>62.64948613221929</v>
+        <v>65.03656418950439</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>70.28881891736748</v>
+        <v>67.33692164016392</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>75.14404765545706</v>
+        <v>75.38101346461639</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>83.34384275222141</v>
+        <v>81.00216651536277</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>89.65261872581431</v>
+        <v>83.95016005130282</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>21.03081180991782</v>
+        <v>16.9085899184678</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>74.03837323244957</v>
+        <v>75.35982603372278</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>79.20633352738284</v>
+        <v>76.70184330387571</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.79034074230643</v>
+        <v>62.27392774971528</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>47.59603616840003</v>
+        <v>49.63320743247351</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>55.46344297302083</v>
+        <v>57.97283605617953</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>62.68832707183951</v>
+        <v>63.76705139413282</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>5.869233565731893</v>
+        <v>9.460509957716752</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>53.21697896759753</v>
+        <v>53.68353698703162</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>60.58440504903977</v>
+        <v>61.22188062683652</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>11.68846893256745</v>
+        <v>10.41386665668897</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.51324953999512</v>
+        <v>35.02037659647651</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>44.40010948562036</v>
+        <v>42.28530867293381</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-3.844394074537881</v>
+        <v>2.023117789033577</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.39467834716325</v>
+        <v>36.87967276563928</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>44.05893717909083</v>
+        <v>46.03297510713836</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>2.231928413968387</v>
+        <v>5.659143245355882</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>60.9644695582733</v>
+        <v>57.8167324023452</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>72.83450638256062</v>
+        <v>72.3947001156825</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>71.89974693253544</v>
+        <v>69.38558481897206</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>78.25607903733143</v>
+        <v>77.6128876342658</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>91.01493671467355</v>
+        <v>87.48839324776284</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.590293451178869</v>
+        <v>9.593114975035057</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>69.67994109654123</v>
+        <v>68.47060403003184</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>79.1628906378273</v>
+        <v>76.90162560343964</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>54.70240267777934</v>
+        <v>57.29307470951495</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.23987917584654</v>
+        <v>27.97019190283353</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.75664093728528</v>
+        <v>36.28162616561254</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>46.21453091308899</v>
+        <v>45.93365968896116</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>2.535552650302854</v>
+        <v>5.471980785914347</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>40.16590514811009</v>
+        <v>25.95733474776722</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>53.38534319390848</v>
+        <v>54.81689185686767</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>5.436390005950607</v>
+        <v>6.543362376982969</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.54090838331421</v>
+        <v>31.68881189498539</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>45.33376576154973</v>
+        <v>42.8477307071368</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-4.104885410862785</v>
+        <v>1.050444613979895</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.07795756800393</v>
+        <v>30.14640089616293</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>44.75186476754391</v>
+        <v>45.11099024835347</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-1.407454681941104</v>
+        <v>1.782040236520253</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>49.84375949038979</v>
+        <v>47.17043770691332</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>69.88526129708032</v>
+        <v>70.20990707978473</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>56.14781699888454</v>
+        <v>52.28450807931748</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>67.9239577713129</v>
+        <v>64.40122407129735</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>86.01103802448878</v>
+        <v>84.83368580346098</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>4.621594795566423</v>
+        <v>6.51036683654948</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>58.89250012988968</v>
+        <v>59.29390327506803</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>76.26617065931771</v>
+        <v>77.05971148855987</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.661</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.396</v>
+        <v>16.732</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.794</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.127</v>
+        <v>12.98</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.998</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.232</v>
+        <v>2.216</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.66120558591969</v>
+        <v>13.48294146927337</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.72026615985534</v>
+        <v>12.27747173887111</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.89178212446946</v>
+        <v>24.90224789111312</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.221428367505681</v>
+        <v>4.751429133830225</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.66238927407701</v>
+        <v>21.17156333000658</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.16059855172699</v>
+        <v>25.74775227080886</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.995178968470725</v>
+        <v>7.199118173220338</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35.70942730104235</v>
+        <v>33.49237301259779</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.54489029415964</v>
+        <v>34.49664317011648</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11.91974417136498</v>
+        <v>13.4554421611301</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15.1194410425928</v>
+        <v>16.39139019013714</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15.15822715040381</v>
+        <v>16.79170796822262</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.17466422228924</v>
+        <v>21.8724918193833</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18.23288620287428</v>
+        <v>19.50368578807805</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.32101837815564</v>
+        <v>35.5899479465601</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.29324975873235</v>
+        <v>13.15938846361197</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.99768774064484</v>
+        <v>23.47066240515253</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.38043285795818</v>
+        <v>35.15505854097999</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.19414869532743</v>
+        <v>10.67544682752732</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.61065584521256</v>
+        <v>16.83299603444305</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.66307882499219</v>
+        <v>17.37769221180281</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.043676695741897</v>
+        <v>3.831814987570347</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.07359039823427</v>
+        <v>17.97586309236928</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.40519764252883</v>
+        <v>19.78189751853967</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.86522058041695</v>
+        <v>24.14239185816342</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.05306743902754</v>
+        <v>25.45532325972265</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.025842274607886</v>
+        <v>4.844860724255618</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.36213246530735</v>
+        <v>31.56035798005719</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.51415332881576</v>
+        <v>34.78393095297192</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.742344425105628</v>
+        <v>8.039502002496707</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.95017656969502</v>
+        <v>40.1151431737285</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.54101691290519</v>
+        <v>38.89294351559257</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.5021909453609</v>
+        <v>39.16166941689741</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.37806282853848</v>
+        <v>42.24872803972808</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.97056815192319</v>
+        <v>42.33843315830846</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>32.27662577229243</v>
+        <v>27.74891899222673</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.15527388642386</v>
+        <v>36.15609332812376</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.67306931033269</v>
+        <v>42.74705578453829</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.06488307991967</v>
+        <v>19.84995166380764</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.63849365495282</v>
+        <v>32.19950590677568</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.2545095064139</v>
+        <v>33.74579472648691</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.23729432039174</v>
+        <v>11.00797417624719</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.12314660380324</v>
+        <v>34.14574495115833</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.73583795477528</v>
+        <v>39.54774167618231</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50.52390633699295</v>
+        <v>45.57829309717192</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.548664514172287</v>
+        <v>8.544752217816388</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>17.72106392367213</v>
+        <v>18.95269354309198</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.43045195529423</v>
+        <v>23.03146652788316</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.805050667354688</v>
+        <v>2.68186782426039</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.00899375102109</v>
+        <v>30.64483000840621</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.6093763155417</v>
+        <v>32.52555566711048</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.04854476789561</v>
+        <v>7.439704140191235</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>39.7793342482376</v>
+        <v>40.01651374510487</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.81617903253989</v>
+        <v>42.12769976791809</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>44.29675311351902</v>
+        <v>41.70028960208916</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.37586246149722</v>
+        <v>44.39838011588586</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.83874605159716</v>
+        <v>49.45195814272604</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.89453316938759</v>
+        <v>18.32019987023785</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.26435520879292</v>
+        <v>30.84222449056858</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.36591356740664</v>
+        <v>37.24198233459823</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.07016088224488</v>
+        <v>12.17785244617115</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.30557928989825</v>
+        <v>28.10135202444895</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.03206643650259</v>
+        <v>32.85385163188534</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10.45474221698586</v>
+        <v>10.75849417611531</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.38003022885602</v>
+        <v>27.87400655114945</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>39.90324854515553</v>
+        <v>39.43497903361154</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.220624624044984</v>
+        <v>5.261469986783542</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.44312830540831</v>
+        <v>41.0433488189992</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3.696187244270988</v>
+        <v>4.56242840681805</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.24932621362221</v>
+        <v>11.7251823546489</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>18.95484962692712</v>
+        <v>19.85304718554615</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.551731635359893</v>
+        <v>3.589105302448505</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.12045720504575</v>
+        <v>29.89066933682465</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.65007846952174</v>
+        <v>34.90051527175483</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.290301737167326</v>
+        <v>3.455175156349249</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.44797846144122</v>
+        <v>39.62446598905071</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.94884886739602</v>
+        <v>41.68868253932784</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.04719776042339</v>
+        <v>37.9743545941038</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>41.91671402198397</v>
+        <v>39.99235673425598</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>48.12739534740531</v>
+        <v>44.29508927313622</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>12.69752889480593</v>
+        <v>15.07710378988734</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>21.74354148028322</v>
+        <v>23.6325017212559</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>37.14337991344976</v>
+        <v>39.1776652449083</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8.41289482492358</v>
+        <v>8.893157967153595</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.71481529849246</v>
+        <v>24.71484767876979</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.46450456388452</v>
+        <v>31.5843776857306</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10.33083614613639</v>
+        <v>10.9729242502796</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.41815227369622</v>
+        <v>27.88656326437808</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>40.44681027725795</v>
+        <v>38.71530972834125</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.869809546813652</v>
+        <v>2.762839863121176</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.71386440391059</v>
+        <v>36.85323060925749</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.14062415048054</v>
+        <v>21.91936948836969</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>19.53889093463988</v>
+        <v>19.632825009246</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>41.76490048933319</v>
+        <v>39.39140018864633</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>46.64685780068088</v>
+        <v>45.15140872860498</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.445402781824004</v>
+        <v>7.835474896370982</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.78693179558329</v>
+        <v>15.19819625121855</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.28427181574483</v>
+        <v>22.71296750260753</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11.6376844674401</v>
+        <v>11.66029905622409</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>19.37224795267101</v>
+        <v>19.15725834115828</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.9411940342005</v>
+        <v>31.08918188599552</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>9.691874181867362</v>
+        <v>10.34279536977318</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.77629226361669</v>
+        <v>15.01253987473112</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>19.20334773875413</v>
+        <v>18.52500541563528</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2.972841198572354</v>
+        <v>3.856581476872705</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.28479800885679</v>
+        <v>18.47985556715544</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.5794392900208</v>
+        <v>32.21063440256112</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>20.87197466401598</v>
+        <v>20.62993201066615</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>48.14538615813028</v>
+        <v>46.52826350548068</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>54.94470188541285</v>
+        <v>52.77071138612759</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5.599074479659514</v>
+        <v>6.76021964400319</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.24246991254594</v>
+        <v>18.52819195687438</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.86036873389737</v>
+        <v>28.02933725665283</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>58.9835700851125</v>
+        <v>56.61861817998106</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>52.80679312201163</v>
+        <v>47.60507717921593</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>64.78554236039534</v>
+        <v>61.86737896521308</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>68.38791172665407</v>
+        <v>65.46146103723441</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.00927918532885</v>
+        <v>20.11506232829912</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>58.5966934287769</v>
+        <v>54.69463512333245</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60.42184250260883</v>
+        <v>57.21780903056182</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.6327522083783</v>
+        <v>23.17251503800972</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.39256690414628</v>
+        <v>36.07389765410672</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.11344202819664</v>
+        <v>42.68914086629677</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.31931311812606</v>
+        <v>11.9310176579474</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.13002960158818</v>
+        <v>40.54957496070895</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.90414716232905</v>
+        <v>47.88490672507402</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5.830061938114984</v>
+        <v>7.183764225210911</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>60.89357323572246</v>
+        <v>57.21166383749568</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>72.3719748283561</v>
+        <v>69.67183255624572</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.70111843277394</v>
+        <v>64.85302260459855</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80.74376432989159</v>
+        <v>78.28778724879996</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>88.30945001468754</v>
+        <v>85.20649336121657</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.12449393241002</v>
+        <v>25.02058391909203</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>75.9284823813454</v>
+        <v>72.16793903213616</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>76.40791052063744</v>
+        <v>73.24289140862678</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>63.80539882480742</v>
+        <v>60.88590721209587</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>41.1107555917021</v>
+        <v>39.41801377974384</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>49.18486678469895</v>
+        <v>47.10461172842351</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>65.73911924771784</v>
+        <v>62.53021487287127</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.30335783142692</v>
+        <v>12.39316544481229</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>50.09946542006919</v>
+        <v>48.22764994213193</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.91251195970754</v>
+        <v>15.61900676638415</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.24406191381865</v>
+        <v>31.64623421390901</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>42.93816240439689</v>
+        <v>41.84974344090948</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>11.20360546005478</v>
+        <v>10.9896941971333</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.75812996517396</v>
+        <v>37.55974113801166</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>48.55988493856567</v>
+        <v>47.54341202884528</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6.559691723980606</v>
+        <v>6.999774907742463</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>55.99461817116014</v>
+        <v>53.02923634504846</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>76.93496516225542</v>
+        <v>73.97607313785082</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>64.71380309042789</v>
+        <v>63.01277786002301</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>74.720370931383</v>
+        <v>71.43843859815804</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>89.79800003188043</v>
+        <v>86.27106589081902</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16.41066947445974</v>
+        <v>16.86232001737808</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>63.12056248116955</v>
+        <v>62.92741428512745</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>72.48270073316829</v>
+        <v>70.97212467532216</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>55.44225004112375</v>
+        <v>52.9238570737641</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.76486675253397</v>
+        <v>23.69852345025052</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.62375601169482</v>
+        <v>29.34757256431099</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>45.40962124054859</v>
+        <v>43.01572108412665</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>8.701733151683062</v>
+        <v>9.017695280594513</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.21962200620226</v>
+        <v>42.75424089962294</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>52.25957906361212</v>
+        <v>49.78505790482225</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>11.65926767255835</v>
+        <v>12.43544169036148</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>30.86304762208345</v>
+        <v>30.08320446894139</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>45.61139893663331</v>
+        <v>44.75513962715476</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>11.39490483675242</v>
+        <v>12.36972619701404</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.03451096392232</v>
+        <v>35.09743474875163</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>52.98202103804387</v>
+        <v>50.89739696410369</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2.59627247024963</v>
+        <v>3.08998315270253</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.4073491824285</v>
+        <v>47.9984687866866</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>75.15741425342279</v>
+        <v>72.21303454065989</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.2628516694508</v>
+        <v>52.35201712862241</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>68.9994193572236</v>
+        <v>65.82288237815794</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>89.86860943809251</v>
+        <v>86.04574796392168</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.49101413795254</v>
+        <v>13.73041008774464</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>62.03352485501514</v>
+        <v>58.85615732996246</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>76.97112462208642</v>
+        <v>73.59242937837539</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>20.16461130895976</v>
+        <v>20.13160387192926</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.90887188746434</v>
+        <v>27.74461377605071</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>48.7899751025296</v>
+        <v>42.26840916070527</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>4.184954636237066</v>
+        <v>8.60953266182441</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>39.23872887164954</v>
+        <v>34.13059023460227</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>47.39838669557071</v>
+        <v>40.20967907358697</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>8.1942616455989</v>
+        <v>12.20657421018734</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>77.9553547669545</v>
+        <v>61.85215974960958</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>81.81634591939829</v>
+        <v>66.26522578111579</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.33288638021497</v>
+        <v>29.92701850680631</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.16111696030612</v>
+        <v>32.64619267773659</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.39198769095376</v>
+        <v>34.1122458021745</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.56837383668386</v>
+        <v>21.45076431854269</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>32.80048534202461</v>
+        <v>29.89767551802465</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>63.5719719227308</v>
+        <v>50.30564603159173</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.60959799561745</v>
+        <v>20.56326758766889</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>39.88001603667128</v>
+        <v>36.38269605208843</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>40.89332218505655</v>
+        <v>38.09907884770395</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2.904358814393753</v>
+        <v>7.954506883313012</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>19.58489343458226</v>
+        <v>21.05003846290808</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>24.5725745549878</v>
+        <v>25.38181557024123</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>6.601308235394583</v>
+        <v>10.10946057804685</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>40.33811067311738</v>
+        <v>37.91866848613792</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>38.2690680102546</v>
+        <v>27.92512550141329</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>54.77826308050962</v>
+        <v>45.19780768802774</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>53.94882326735554</v>
+        <v>45.55739871201149</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>5.120911410881309</v>
+        <v>9.715289515146154</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>55.66262300981638</v>
+        <v>46.8915372400655</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>55.83440273809209</v>
+        <v>48.28439782532593</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>9.134696423755646</v>
+        <v>12.0549964280586</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>85.36218097565332</v>
+        <v>69.28476168469624</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>79.92449242665339</v>
+        <v>65.70316517513476</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>69.70890706120912</v>
+        <v>58.76528463262373</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>79.41958760090483</v>
+        <v>66.09225824354907</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>77.74850206290697</v>
+        <v>64.28004101170609</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.43084466909708</v>
+        <v>26.50518724746977</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>67.49807960750103</v>
+        <v>51.18445469695178</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>72.91519939207433</v>
+        <v>59.87880825552422</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.69820678243098</v>
+        <v>27.01730757348096</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.8406073332481</v>
+        <v>42.85741204998962</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>45.87751258083393</v>
+        <v>42.23206636253131</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2.406536709249675</v>
+        <v>8.145924774079408</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>38.6909327278191</v>
+        <v>37.25754115644879</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>42.26417468666835</v>
+        <v>39.69726076746331</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>7.187482446770943</v>
+        <v>11.03779840056396</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>66.35967283538184</v>
+        <v>60.44371038768696</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8.220536130659326</v>
+        <v>12.67396952930427</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>34.73046348554663</v>
+        <v>31.66222730142337</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>41.99628165811379</v>
+        <v>36.93631051312097</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>3.61803940532694</v>
+        <v>8.492962539081542</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>55.23872489631385</v>
+        <v>45.73050609599601</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>54.79327254733049</v>
+        <v>45.82754285089143</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>5.511778651233165</v>
+        <v>10.78837269247589</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>80.23266647417404</v>
+        <v>65.06474362249435</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>79.21489611311191</v>
+        <v>64.24808476525959</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>89.49510418170293</v>
+        <v>69.9458185011076</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>101.2092465142245</v>
+        <v>77.91892836913722</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>90.07259530828628</v>
+        <v>72.08206857073412</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>4.862282415779806</v>
+        <v>10.80054526735156</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>39.21769061847612</v>
+        <v>34.78764520933309</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>50.59668663733054</v>
+        <v>43.17561470806086</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.2120284511801</v>
+        <v>20.07887042465384</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.88980150105964</v>
+        <v>40.35485490115721</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>43.55664060835903</v>
+        <v>41.03608995162948</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2.540344418758892</v>
+        <v>7.822350446759071</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>40.60597641683657</v>
+        <v>36.29195635497043</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>43.73556557412395</v>
+        <v>40.22430006154819</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.487989101523322</v>
+        <v>9.961667616901185</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>65.75445168103758</v>
+        <v>55.15395410466497</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>7.08446950446649</v>
+        <v>11.29904865555325</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.33268036944271</v>
+        <v>28.02284461407205</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>44.01391960252464</v>
+        <v>38.49325974298808</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>4.733784743189918</v>
+        <v>9.506831561387482</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>58.36342726749849</v>
+        <v>48.20294440333264</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>63.53398445044853</v>
+        <v>53.07395653804515</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>5.339222335810501</v>
+        <v>9.336865011564925</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>87.34355539117941</v>
+        <v>69.65416803585809</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>86.26310778182989</v>
+        <v>69.51947855300662</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>84.10294948181146</v>
+        <v>67.6823369698009</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>92.55572469609749</v>
+        <v>73.90515443189258</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>93.4754866817091</v>
+        <v>74.78386964182678</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>6.598718221107532</v>
+        <v>10.20100352717744</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>41.10839351382593</v>
+        <v>36.63295147055966</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>57.03357530011953</v>
+        <v>48.19460943084805</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>12.95998307416966</v>
+        <v>15.55518384033043</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.6345049179271</v>
+        <v>37.49056622557203</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>45.95886880357225</v>
+        <v>41.89245049960446</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2.551368389276465</v>
+        <v>8.125185617208032</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>38.7736915397906</v>
+        <v>34.56486579440432</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>46.57694268871217</v>
+        <v>41.44152283058688</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>5.942136209304628</v>
+        <v>9.909811653012515</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>61.02321394808256</v>
+        <v>52.39307879968619</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>39.46001610123638</v>
+        <v>36.50259423452123</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.04777198964</v>
+        <v>32.41301143028237</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>47.33482469803059</v>
+        <v>44.32681803393179</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>54.88959363101159</v>
+        <v>49.19193689777252</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>14.9176792601084</v>
+        <v>17.16005129592659</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.48939524794234</v>
+        <v>32.66515701941558</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>43.26280660489669</v>
+        <v>39.25519214244222</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>14.20362503375303</v>
+        <v>17.07790223346449</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>33.48145455878564</v>
+        <v>32.91740361840085</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>42.69636546677399</v>
+        <v>39.34685118280017</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>2.613439574887206</v>
+        <v>7.688772477544045</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>16.18752910425493</v>
+        <v>17.98279370101659</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.59268291238111</v>
+        <v>28.09832650848456</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>7.729088190580462</v>
+        <v>11.28322359998094</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>41.30534694882079</v>
+        <v>37.2583480763943</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>66.82919243677026</v>
+        <v>57.57471052892093</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>38.22428882366124</v>
+        <v>35.63364637808735</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>61.24618943055668</v>
+        <v>53.41849994660942</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>66.93493935109237</v>
+        <v>59.02250041889825</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>12.93521101083377</v>
+        <v>15.41112134631132</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.46887707149482</v>
+        <v>33.59543505944571</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>52.00076174769016</v>
+        <v>45.5704388024851</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>72.10147531038029</v>
+        <v>63.73717100187304</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>68.86313484824382</v>
+        <v>61.88260316078954</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>77.35769118716223</v>
+        <v>68.71301206858051</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>78.15567154696217</v>
+        <v>68.3664285922427</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.73796924083102</v>
+        <v>25.56760154593474</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>71.22200157025046</v>
+        <v>64.29822921694658</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>71.73545409455247</v>
+        <v>63.79375005250839</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>30.65965670525625</v>
+        <v>28.04268588839951</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>47.70234539693033</v>
+        <v>44.09284220200343</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>46.21272165961121</v>
+        <v>43.37998671239914</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>2.474189738963297</v>
+        <v>8.075855230351188</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.67426747992509</v>
+        <v>43.36530503472732</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>44.8184047389143</v>
+        <v>42.70047227157139</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>4.11715364757849</v>
+        <v>9.61702303709615</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>71.8134005625206</v>
+        <v>65.51660580073494</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>71.87666868984445</v>
+        <v>64.55122647727283</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>77.71314995589753</v>
+        <v>69.40234191378902</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>81.61603023910743</v>
+        <v>73.6181340535712</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>80.96626688355524</v>
+        <v>72.58127269505488</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.93007729649791</v>
+        <v>28.68105506180244</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>77.38096206025881</v>
+        <v>69.74829981192408</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>80.03819862119829</v>
+        <v>71.87118238213625</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>69.35218103256565</v>
+        <v>61.85993900540397</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>65.55618005525028</v>
+        <v>56.01545487620346</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>77.01627544270751</v>
+        <v>65.79402338549784</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>76.18087058929851</v>
+        <v>67.16036302520169</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.63936982987743</v>
+        <v>18.14439157044158</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>69.47529176247249</v>
+        <v>61.30397515012559</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>68.84016376638044</v>
+        <v>61.34021057535839</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.79302389075775</v>
+        <v>18.60224494803698</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>42.42083226821291</v>
+        <v>39.23826164341391</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>41.42881985337895</v>
+        <v>39.75308693559538</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>2.022291552570469</v>
+        <v>7.358381423184404</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>48.03635350858299</v>
+        <v>43.63906174076617</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>43.15223810796911</v>
+        <v>41.08555949690607</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>5.458241764315456</v>
+        <v>9.811758005634097</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>73.81535337666296</v>
+        <v>64.6936403740856</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>72.28525276361697</v>
+        <v>64.20359844373395</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>82.57952149099768</v>
+        <v>70.60793693972458</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>87.03188581330679</v>
+        <v>75.33758475549661</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>85.98749790841393</v>
+        <v>75.60240254822051</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.92311127954015</v>
+        <v>17.09986253813172</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>79.62193936708042</v>
+        <v>70.38001826629329</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>80.76952783540418</v>
+        <v>71.84772561079427</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>74.20628506551597</v>
+        <v>64.7365733871014</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.93347956368632</v>
+        <v>38.8035018351116</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>56.76136831424466</v>
+        <v>50.16084392275661</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>64.80982691360823</v>
+        <v>57.6164925679127</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>11.99326377273313</v>
+        <v>15.22905949279743</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>70.19465168452513</v>
+        <v>60.13464489098463</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>74.58156001777817</v>
+        <v>64.61716796392585</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>10.8901418676764</v>
+        <v>14.5625316765238</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>43.31454570035238</v>
+        <v>39.91803917490219</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>45.98544174721731</v>
+        <v>43.45516580044224</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>2.066323701368656</v>
+        <v>7.70995329112295</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.26910891716862</v>
+        <v>41.85407469222562</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>49.91359909730053</v>
+        <v>46.56035716545209</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>3.411025084240954</v>
+        <v>8.754069134751415</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>69.52870365603437</v>
+        <v>61.3692727683135</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>74.93042220305227</v>
+        <v>66.27171100363701</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>74.23826633287277</v>
+        <v>65.83826787859135</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>81.71080064376495</v>
+        <v>71.79768849674906</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>86.72657342337799</v>
+        <v>75.88241680686835</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>8.257711719685219</v>
+        <v>13.53556979544589</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>76.91528090217329</v>
+        <v>68.61708421291939</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>82.8002222029275</v>
+        <v>73.5985112399145</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>12.75138589570684</v>
+        <v>13.78765055593617</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.13136452580316</v>
+        <v>15.19490742786012</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.77369081812615</v>
+        <v>21.68082765989871</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>2.47978539796593</v>
+        <v>4.196373651650227</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>10.51322544504088</v>
+        <v>12.99349814656467</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.97021709736557</v>
+        <v>14.4379266942283</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>7.743582511400664</v>
+        <v>8.925089091646381</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>23.35829920308927</v>
+        <v>24.38079805351581</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24.56458220556277</v>
+        <v>25.82219277175218</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>13.10816895949105</v>
+        <v>14.21069790608636</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>17.60394158113488</v>
+        <v>18.17526369315595</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.63176710712328</v>
+        <v>20.06404099581625</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.89419474852476</v>
+        <v>21.41553042299027</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.61347829303966</v>
+        <v>22.074845495041</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.03452727896999</v>
+        <v>32.2774521177441</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>10.78516738935268</v>
+        <v>12.55811344626248</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.59993816595775</v>
+        <v>24.63770358835738</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.02662646964872</v>
+        <v>34.07444715897996</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.708426727129492</v>
+        <v>2.847427318522747</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>4.876568784719002</v>
+        <v>7.665728511215232</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.558364842425835</v>
+        <v>10.48420832965937</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>2.109393766848793</v>
+        <v>3.848879398455296</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>14.72931033820596</v>
+        <v>16.18743849220145</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>17.07993763618682</v>
+        <v>18.07358245589428</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.15066469354088</v>
+        <v>22.24240935716392</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>20.68740228093118</v>
+        <v>21.82287829057287</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>2.832340324667872</v>
+        <v>5.064129415641215</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.26714875168354</v>
+        <v>24.0384948220159</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.43529094413874</v>
+        <v>26.58782602555745</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>7.869637941187491</v>
+        <v>8.907076032807453</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>32.93985216725039</v>
+        <v>34.54553799712089</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>32.67318090006373</v>
+        <v>33.72350769725175</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.56677359622555</v>
+        <v>36.10575281252395</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.97950342493858</v>
+        <v>41.05651182784419</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.93650560778264</v>
+        <v>42.43220181775927</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.1499136941899</v>
+        <v>25.75173015965195</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.87018695356123</v>
+        <v>41.20618662855522</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>45.81361046047698</v>
+        <v>45.05316114054445</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>13.62988843672144</v>
+        <v>15.69705933747955</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.49781983827697</v>
+        <v>34.29690755503189</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>38.66830516751601</v>
+        <v>37.94286020265463</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.9845583308444539</v>
+        <v>3.746720130774605</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.56424008646079</v>
+        <v>29.76567099706901</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>41.2046325910883</v>
+        <v>39.60178424592738</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>3.963450287298226</v>
+        <v>5.794531069974724</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>51.22926092393207</v>
+        <v>46.20923369507301</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.007468549269632</v>
+        <v>9.748105762051775</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>16.52622490689149</v>
+        <v>17.43010662837565</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>18.15566006000018</v>
+        <v>18.92940530273373</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>0.8895993972074514</v>
+        <v>3.002671585392566</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.00940105685785</v>
+        <v>22.95654896775695</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>23.58867318350862</v>
+        <v>24.23687193140843</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>6.383674092683901</v>
+        <v>7.818437265999503</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>34.01202978500839</v>
+        <v>33.51796571586144</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>37.45987694694178</v>
+        <v>36.14353529002612</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>38.23169298997683</v>
+        <v>37.09043207540068</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>40.16423579690321</v>
+        <v>39.39985456740256</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>46.18923336002449</v>
+        <v>44.68725211013401</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>17.85831081360531</v>
+        <v>18.78755650159898</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.4883535867521</v>
+        <v>31.94333191672902</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>37.99616244194789</v>
+        <v>36.35518883670504</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>6.006776354485353</v>
+        <v>8.344318649658685</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.63682972593127</v>
+        <v>27.46628142370788</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>37.86830500820155</v>
+        <v>37.06079895799659</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.2946873126010772</v>
+        <v>2.729481001005674</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>17.56313919739057</v>
+        <v>19.62930032905241</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.22870509601724</v>
+        <v>38.93588206504646</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>2.390905892306126</v>
+        <v>4.218571100043146</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.55180596158097</v>
+        <v>35.75888131442735</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.910934273460725</v>
+        <v>8.060997089331469</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>12.53053429294031</v>
+        <v>14.23464363431427</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.59804339836536</v>
+        <v>18.03497262247144</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1.034735855470103</v>
+        <v>3.366997026791061</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.96284581009942</v>
+        <v>19.64268487779339</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>24.24343566565218</v>
+        <v>25.37394704301121</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>3.546921148363101</v>
+        <v>5.203882465213272</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.68597993964976</v>
+        <v>31.23056752085748</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>34.35875790374862</v>
+        <v>35.05296457969644</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.69609247544233</v>
+        <v>30.17898345779463</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>32.46406976924695</v>
+        <v>32.82465897922626</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.68980314028769</v>
+        <v>37.50880240303062</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>18.20722467827813</v>
+        <v>18.4207443577762</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.80062249372319</v>
+        <v>28.67609607493057</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>37.07981841503372</v>
+        <v>36.95090139225393</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>4.478822905050862</v>
+        <v>7.163633790380018</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.86305984633917</v>
+        <v>23.03667245252041</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.37502388011416</v>
+        <v>34.33087079351186</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>1.145947989967294</v>
+        <v>3.45497424926689</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>15.77385274807664</v>
+        <v>18.6266848676223</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>38.29076831165871</v>
+        <v>37.9910244720633</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1.532998865716145</v>
+        <v>3.541120872893995</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.60432086299443</v>
+        <v>30.42986357962249</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.17762960076294</v>
+        <v>20.9772074957924</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>18.66923451420573</v>
+        <v>20.09717520515549</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>37.92734067576032</v>
+        <v>37.94248367654389</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>45.36353002184126</v>
+        <v>44.87738948219844</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>3.503394884312996</v>
+        <v>5.773566657976868</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>11.47048664497241</v>
+        <v>13.51810744098005</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.73193320017555</v>
+        <v>21.22983475925819</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>12.46882651175518</v>
+        <v>14.03811301406003</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.18753769512898</v>
+        <v>22.85061247570466</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.25442509016039</v>
+        <v>31.55008338437096</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>0.2295680489796972</v>
+        <v>2.546320243050076</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>3.770448539621807</v>
+        <v>6.439672308216537</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.664237270275223</v>
+        <v>10.1442600265412</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>2.683756672866956</v>
+        <v>4.533545828434843</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.17694604754937</v>
+        <v>16.83921022107501</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>24.68043032198115</v>
+        <v>27.42766430000389</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>19.70833982712462</v>
+        <v>21.27753688305805</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.85008288721637</v>
+        <v>38.75592525961501</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>45.91785721053467</v>
+        <v>45.85197136692477</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>5.06053819681927</v>
+        <v>7.328187924695683</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>14.92406257234168</v>
+        <v>16.75835637304992</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>21.42835287785369</v>
+        <v>23.90537058195919</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>63.57015587349007</v>
+        <v>60.6712635404277</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>54.42306379894167</v>
+        <v>49.44532616547241</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>67.66689509619164</v>
+        <v>64.46412404085108</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>70.25991425100953</v>
+        <v>67.74960753490677</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>13.20778492548772</v>
+        <v>15.12402082398584</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>64.66830134481805</v>
+        <v>59.99456208718543</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>69.25493052044722</v>
+        <v>66.00573451479687</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.66789856686177</v>
+        <v>24.31445417249058</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>41.46897444588932</v>
+        <v>40.95284017285957</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>46.08832308557628</v>
+        <v>44.75338713121309</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>2.951426707245179</v>
+        <v>5.54167473950924</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.58620480789143</v>
+        <v>36.29735739093491</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>46.99176154115547</v>
+        <v>45.93121338341351</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.33703334684709</v>
+        <v>11.54501357322656</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>66.56448899716855</v>
+        <v>61.35854556649778</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>72.27169827049966</v>
+        <v>68.62513720282031</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>75.97416208416519</v>
+        <v>71.52515656661757</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>83.39425625213616</v>
+        <v>79.81450122957804</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>88.78747345458615</v>
+        <v>84.47964847363986</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.312872189115</v>
+        <v>28.97766980103747</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>80.92315074344111</v>
+        <v>76.58065528238438</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>83.75722471705689</v>
+        <v>79.78555466722797</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>64.91098900329848</v>
+        <v>62.58021529246093</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.2833643748811</v>
+        <v>36.17925057659222</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>47.76012117964768</v>
+        <v>47.71471360949299</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>69.42691977556478</v>
+        <v>66.34916532822021</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>3.778051179354911</v>
+        <v>7.006024077207901</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>50.18342765324923</v>
+        <v>50.14684401354436</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>63.52932410962767</v>
+        <v>61.30424772925231</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>12.84860133588287</v>
+        <v>14.56170752709586</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34.3322214783981</v>
+        <v>34.51801184143899</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>44.29940810995081</v>
+        <v>43.08359772280627</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>1.433428522530445</v>
+        <v>3.414228033509893</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.30425925467755</v>
+        <v>32.73432282878067</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>45.81501756781189</v>
+        <v>45.70121839681359</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>5.300634905685843</v>
+        <v>6.7707049302721</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>54.5555965824441</v>
+        <v>53.01741128122147</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>74.37934264579707</v>
+        <v>71.24828872127117</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>63.51939155109702</v>
+        <v>63.51420062882021</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>74.86652674208716</v>
+        <v>72.18886204374627</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>89.1877539710563</v>
+        <v>84.68638313645101</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>15.93180565677866</v>
+        <v>17.58730679358815</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>69.10568123544624</v>
+        <v>67.50314626715549</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>80.32041456977061</v>
+        <v>77.36881621058799</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>60.08253331463327</v>
+        <v>57.89752970982748</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>20.53956550263807</v>
+        <v>23.00152878016315</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.1368688079407</v>
+        <v>30.14021801174275</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>49.90208697584711</v>
+        <v>49.01244030904141</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>3.86909868626601</v>
+        <v>6.221712840958293</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.88063246807792</v>
+        <v>39.6437781303116</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>56.45700282625025</v>
+        <v>55.12309550508925</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>9.732274783847167</v>
+        <v>12.10043649118732</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.36291045812912</v>
+        <v>32.52343206820534</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>45.21451038115529</v>
+        <v>44.41292100978869</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>1.668736704064436</v>
+        <v>4.287077127867615</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.97486171369886</v>
+        <v>29.73765044367945</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>46.62170696802338</v>
+        <v>45.75566178570482</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>2.818772474029444</v>
+        <v>4.775375746792772</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>48.23232978001339</v>
+        <v>48.04287534302912</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>72.81545158530938</v>
+        <v>69.75743315060024</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>51.89267295020879</v>
+        <v>52.53445212747461</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>65.46327639151022</v>
+        <v>64.45033217524178</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>85.3595064100715</v>
+        <v>81.85252695890297</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>11.96565097529141</v>
+        <v>14.02198560879171</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>62.61576767875282</v>
+        <v>61.90932250573088</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>77.51835848117801</v>
+        <v>74.83409162612801</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>13.63052260532652</v>
+        <v>18.0539553659573</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>16.51874288560947</v>
+        <v>19.94378620848246</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>20.12116269835207</v>
+        <v>23.05870248693349</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.142078043641973</v>
+        <v>12.56997157931675</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.10809442338429</v>
+        <v>16.78967210099596</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>11.77539277576892</v>
+        <v>17.31951577374048</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.01184658391821</v>
+        <v>15.44983000078216</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.53592808709591</v>
+        <v>23.77962237135645</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>21.34531892658121</v>
+        <v>24.82968806145222</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>14.86474329763392</v>
+        <v>18.68492379849543</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.665213777479</v>
+        <v>21.57595747429194</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.13196974519449</v>
+        <v>23.15391879225526</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.98484565917005</v>
+        <v>19.13792914727218</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.63408180171043</v>
+        <v>19.67270103027314</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.30237631413265</v>
+        <v>23.95727558296883</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>14.24372496802286</v>
+        <v>18.30874857338086</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.54624795768166</v>
+        <v>26.49740452596913</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>32.15354644975535</v>
+        <v>31.41517151163644</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>5.232870299493872</v>
+        <v>11.13616124781877</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>9.161145603251846</v>
+        <v>14.79784448895046</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.21614514727432</v>
+        <v>17.09594260595403</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.414736718704205</v>
+        <v>12.66698443655884</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.38557208524703</v>
+        <v>22.40117460406298</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.53805728072446</v>
+        <v>20.68245780125795</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.03319318272031</v>
+        <v>23.71221445282806</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>19.58481075432339</v>
+        <v>22.79662349823878</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>7.656660561657009</v>
+        <v>13.39303510681176</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>20.52944126076711</v>
+        <v>23.83918625006377</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>22.99791822620434</v>
+        <v>25.47812865038371</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>10.62281185369329</v>
+        <v>15.31291904076008</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.94059792310776</v>
+        <v>30.44401393371328</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.10575420180816</v>
+        <v>29.62727797312563</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.41195643271322</v>
+        <v>31.43743096881527</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.49598332069108</v>
+        <v>35.14055369148971</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>37.50062837752272</v>
+        <v>35.77660111739841</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>17.13317505783388</v>
+        <v>21.20978133136763</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.60065683821987</v>
+        <v>30.29652333478894</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.83525787904079</v>
+        <v>31.70346278253593</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>15.18113586388589</v>
+        <v>19.57810059899314</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.61476725644539</v>
+        <v>31.78812349077198</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.58286876637778</v>
+        <v>34.02500367857164</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>5.567191283459152</v>
+        <v>11.78239679603835</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.10822052776002</v>
+        <v>28.77416367545032</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>36.16505455338719</v>
+        <v>34.17955495884011</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>7.777707667803476</v>
+        <v>13.3386830745963</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>46.98046586945847</v>
+        <v>39.99856887377199</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.6200415774229</v>
+        <v>15.29072875692703</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.83919076598652</v>
+        <v>19.49925519333019</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>16.50822708759921</v>
+        <v>20.10136693993531</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>5.889149346355389</v>
+        <v>11.89531656148841</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>18.88283712772313</v>
+        <v>22.35307047744543</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.77074557286073</v>
+        <v>22.8926598251667</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.445132070308901</v>
+        <v>14.27976164507067</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.1093770759702</v>
+        <v>28.49902756491201</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.12453217405045</v>
+        <v>29.87727760304892</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.98766088498366</v>
+        <v>31.92465292306174</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.88383390381687</v>
+        <v>33.65670632071008</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>37.27629281540403</v>
+        <v>36.4088083758645</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.95568370819915</v>
+        <v>16.49141243818757</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>19.64915626843924</v>
+        <v>23.21274701199353</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.95959358312177</v>
+        <v>25.44546734092982</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>9.428077958591711</v>
+        <v>14.93273590346181</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.50977303499728</v>
+        <v>26.8917785668107</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.5743931412261</v>
+        <v>33.61238761839006</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>4.574345957182835</v>
+        <v>11.01931246515769</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.53197523181775</v>
+        <v>22.0683531186362</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.92476747966559</v>
+        <v>34.04402270539569</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>7.161924741541313</v>
+        <v>12.76392886554213</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.43181906827551</v>
+        <v>32.27168112667943</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.909386280277062</v>
+        <v>14.62247545297243</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>13.52566285575345</v>
+        <v>18.14062341501022</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>16.21261979737493</v>
+        <v>20.04180423939432</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>5.863653409591635</v>
+        <v>11.9120362390454</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>14.93282626753343</v>
+        <v>19.91677853961593</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.63152482794497</v>
+        <v>23.73993738306703</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>7.633572524623435</v>
+        <v>12.94979634472004</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.10686945415761</v>
+        <v>26.94303844613648</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.12134752210105</v>
+        <v>29.58703946856977</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.57589763813331</v>
+        <v>26.58905088068244</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.72569229432936</v>
+        <v>28.75578290013998</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.13136042689123</v>
+        <v>31.58410586974435</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>12.16601885088513</v>
+        <v>16.34401010253873</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>19.32405035972882</v>
+        <v>22.09448402099163</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.80550175810977</v>
+        <v>25.12413585430347</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>8.774463403393774</v>
+        <v>14.43257092377809</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.51508138736633</v>
+        <v>24.55069586737899</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>32.86840604293992</v>
+        <v>31.92355038961069</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>5.267572671405645</v>
+        <v>11.47617404986174</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>17.01949539299267</v>
+        <v>21.23120027702774</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.71211796167066</v>
+        <v>32.53224736428762</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>6.896789451392593</v>
+        <v>12.38180690843646</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.78214176858216</v>
+        <v>29.04294875157357</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.17368262420275</v>
+        <v>25.16004364993401</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.80702553957182</v>
+        <v>23.7633752452296</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.85868439373878</v>
+        <v>35.59695363573896</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>43.86098402589348</v>
+        <v>39.79919673790742</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>8.827084720868548</v>
+        <v>14.19906191643992</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.17407154927474</v>
+        <v>20.56373488968164</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.31661106968982</v>
+        <v>25.79914891729397</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>15.72670636813125</v>
+        <v>19.26939927621272</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.06045045340132</v>
+        <v>25.89753360585402</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.47858930646921</v>
+        <v>31.14048892021763</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>4.731121550996701</v>
+        <v>10.90412668661533</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>7.290134417996736</v>
+        <v>13.3200204236847</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.13089171579572</v>
+        <v>15.91482115115615</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>7.577502624779001</v>
+        <v>12.95347049408374</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.11023697309328</v>
+        <v>21.36619627829608</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.6941611410132</v>
+        <v>27.85523291251944</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.67972390310968</v>
+        <v>24.96938601283217</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.92850934609901</v>
+        <v>36.69444501737898</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>44.05602174363424</v>
+        <v>40.83956667782296</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>9.683467974625223</v>
+        <v>14.82398127362517</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>17.54881455510496</v>
+        <v>21.02662508646747</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>21.98265521294918</v>
+        <v>24.93468760700859</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>54.86178021984472</v>
+        <v>47.97596685178707</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>48.28013737328953</v>
+        <v>41.89019015912847</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>59.25112840158779</v>
+        <v>50.98169958361321</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>61.07685561458276</v>
+        <v>53.19698625379105</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>14.3986630739752</v>
+        <v>19.1965963845309</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>57.14514722323256</v>
+        <v>48.06029821813401</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>59.04610169349402</v>
+        <v>51.06374173993395</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>23.53932518387871</v>
+        <v>25.01286499068523</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.3384886052508</v>
+        <v>36.07664287869043</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.25975929412017</v>
+        <v>38.94181724337698</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.711465680437829</v>
+        <v>12.83458355771004</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.85804758989557</v>
+        <v>32.79898933761536</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>42.6961564037458</v>
+        <v>39.29278656331143</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>13.49156037809397</v>
+        <v>17.45288288195468</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>59.09725125773611</v>
+        <v>49.74546991485214</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>62.47625315435082</v>
+        <v>53.68672845429427</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>63.92015945997503</v>
+        <v>55.44810153578673</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>72.04093657292073</v>
+        <v>61.00369917153655</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>75.02926193129264</v>
+        <v>63.54494021449551</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.78186314327408</v>
+        <v>28.97060938657808</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>71.1580449031718</v>
+        <v>59.87903021034353</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>72.67953580544665</v>
+        <v>61.54879708684962</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>56.52555129546127</v>
+        <v>49.65827851633038</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.88912329022433</v>
+        <v>33.48103028688416</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.12875417057142</v>
+        <v>40.89514625216511</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>61.15939008231916</v>
+        <v>52.4317807769652</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>8.078535321157354</v>
+        <v>14.32241165201125</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>45.45373360758393</v>
+        <v>41.66588884991768</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>56.20440000102715</v>
+        <v>49.19507408109617</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.38047087269249</v>
+        <v>17.90535748487033</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.19950953872823</v>
+        <v>31.26936318859348</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>40.14975673669129</v>
+        <v>37.36032435828045</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>5.453509316674165</v>
+        <v>11.35640350517261</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.7749953425539</v>
+        <v>30.41100681848951</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.9388912889062</v>
+        <v>39.66370632754474</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>9.028632232953701</v>
+        <v>14.00591993262368</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>48.1930481099927</v>
+        <v>43.85400392917776</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>64.24119874688191</v>
+        <v>55.43333543479634</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>55.93278992597926</v>
+        <v>50.29550560006997</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>66.11235479029581</v>
+        <v>57.20366018618584</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>74.83214836661527</v>
+        <v>63.55797403162271</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>17.5599806619355</v>
+        <v>21.14115286953017</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>61.66642432920123</v>
+        <v>54.17997093320633</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>70.06106566665621</v>
+        <v>60.08801242553612</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>53.24037930429483</v>
+        <v>46.76769399877395</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.57447909780323</v>
+        <v>25.4624146135714</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.71900014960262</v>
+        <v>31.33056557604781</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.78497626992446</v>
+        <v>42.08363323626686</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>8.471692875312467</v>
+        <v>13.84512611290453</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.38297505771446</v>
+        <v>34.56205175579083</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>51.13948708054474</v>
+        <v>45.36182463124909</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>12.14518205370654</v>
+        <v>17.04861659636234</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.80914562256053</v>
+        <v>30.61815563041032</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.44035550859439</v>
+        <v>38.93439845165032</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>5.917722702663081</v>
+        <v>11.97558124433304</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.75966790424663</v>
+        <v>29.33741021373742</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>42.63555522562737</v>
+        <v>39.14811839788109</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>7.949040726695756</v>
+        <v>13.17418818249991</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.1515157020374</v>
+        <v>41.86171182012318</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>64.47008875647859</v>
+        <v>55.35915213390783</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>48.76871816727856</v>
+        <v>45.06999539274101</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>60.93960028679601</v>
+        <v>53.31656567393583</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>74.38389100343905</v>
+        <v>63.08799997444448</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>14.52015383107819</v>
+        <v>18.41309758968954</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>57.51166745474019</v>
+        <v>50.97720355598864</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>68.60971770453185</v>
+        <v>58.84991144277277</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>12.94030028035416</v>
+        <v>14.02300065057806</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>18.17417730877616</v>
+        <v>20.16866702319082</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.45215478297625</v>
+        <v>32.24693370733122</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>1.598799088725357</v>
+        <v>4.570599328777323</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>14.49559218874126</v>
+        <v>15.98247938047462</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>18.01776611621365</v>
+        <v>19.15882705765648</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>3.71096390718467</v>
+        <v>6.701903361264232</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>38.44073860881392</v>
+        <v>36.72393812372897</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>44.74689134121218</v>
+        <v>42.68489213400454</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.37298080900305</v>
+        <v>22.36991130959942</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.37985450100294</v>
+        <v>26.11026418204021</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.51879300938019</v>
+        <v>26.60003435479804</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>10.93273857420806</v>
+        <v>12.46852572573887</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>19.0714467359937</v>
+        <v>20.25486526624716</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.15866499398783</v>
+        <v>32.68759751234115</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>12.67430820040166</v>
+        <v>14.28471539027192</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.29115375228421</v>
+        <v>26.92995953337636</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.63828770117932</v>
+        <v>31.23322283405506</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1.114586309113982</v>
+        <v>4.146870213776342</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>9.802046496527979</v>
+        <v>12.45066445342195</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.65916027499783</v>
+        <v>14.53340273113725</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2.431759005984826</v>
+        <v>5.254502433408167</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.33485902900541</v>
+        <v>24.27782658465857</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.69760130766392</v>
+        <v>20.47257809284163</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.92513735969257</v>
+        <v>32.95209151061241</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>35.60915247279322</v>
+        <v>34.57810086432575</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2.753277421267143</v>
+        <v>5.687677431439916</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.94273492024001</v>
+        <v>35.75943793802505</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>38.1773223638354</v>
+        <v>37.43034864657238</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>5.37727799611887</v>
+        <v>7.664860215306334</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>55.87269946788759</v>
+        <v>52.72397585289359</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>54.84137044506802</v>
+        <v>52.08135395124221</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.10468270128488</v>
+        <v>51.89672857535179</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>59.95523892224545</v>
+        <v>56.15507478349553</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>61.78410740672514</v>
+        <v>57.62502420772984</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.58830851637265</v>
+        <v>18.30534796780486</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>59.16371809957909</v>
+        <v>52.47073662643518</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>61.26733049720015</v>
+        <v>57.02162098026455</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>18.80211230979014</v>
+        <v>18.92314977441963</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.52582174344417</v>
+        <v>35.72582222836329</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>36.44659756604359</v>
+        <v>35.60084927575287</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1.117006033087183</v>
+        <v>4.529948959248696</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.53179754501533</v>
+        <v>34.10947299555886</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.35627635540703</v>
+        <v>34.35801521218642</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>2.796664548401573</v>
+        <v>6.449737038285015</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>55.60017306905179</v>
+        <v>51.40948807985426</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>5.595827409631092</v>
+        <v>8.869869506761514</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.93726712773291</v>
+        <v>24.98995755508188</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.3978548173838</v>
+        <v>29.52442037330682</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1.941529249095911</v>
+        <v>4.580231033403159</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.27887208866251</v>
+        <v>33.649783549303</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>37.31262374816775</v>
+        <v>35.68365324180955</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>5.588513875242061</v>
+        <v>8.321314565606723</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>55.4133627298403</v>
+        <v>51.21983310914128</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>57.00740376895178</v>
+        <v>52.43088037275551</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>61.84628428861502</v>
+        <v>57.02988798751633</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>63.2647596990902</v>
+        <v>58.51568501996196</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>67.48845539881812</v>
+        <v>61.58166566142735</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>4.833173400083968</v>
+        <v>7.687684899246705</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>37.43216735488187</v>
+        <v>35.79346557564277</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>43.93063928486301</v>
+        <v>41.23658557188455</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>11.17224883432921</v>
+        <v>12.67895840824809</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>33.28242123309883</v>
+        <v>32.50156682634365</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.7083525222246</v>
+        <v>35.20099578766396</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>2.010176558633258</v>
+        <v>5.105998264732555</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.86563452470684</v>
+        <v>30.18490538193191</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.78503138963261</v>
+        <v>38.18568844117267</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>5.07418963828087</v>
+        <v>7.655014626762974</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>48.12333983035657</v>
+        <v>45.37706084973738</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4.422274714131941</v>
+        <v>6.769879669270058</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>17.24317230586463</v>
+        <v>19.10203398476018</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.08256556189736</v>
+        <v>28.66153163570237</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1.146866741509854</v>
+        <v>4.349766113024721</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>18.47003607990321</v>
+        <v>19.07818288993486</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>40.10596274670269</v>
+        <v>38.2694788727047</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>2.699418937216056</v>
+        <v>5.488024348831324</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>48.19756226240811</v>
+        <v>44.992978430177</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>56.57427160093621</v>
+        <v>52.69216066331926</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>52.77829768005275</v>
+        <v>49.23253405065572</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>57.00394430499061</v>
+        <v>53.0387741420362</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>62.96105840233584</v>
+        <v>58.25512349730987</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>5.111629656436001</v>
+        <v>7.553548837359681</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.9476739513196</v>
+        <v>33.58749444601283</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>46.2631521389273</v>
+        <v>43.16992994433613</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>7.173446480270805</v>
+        <v>9.391016184326304</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.22591350256918</v>
+        <v>27.75831760057992</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.91437415707134</v>
+        <v>33.39527282661248</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1.948505365916819</v>
+        <v>5.020958485045529</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.47453009179037</v>
+        <v>24.50692391035845</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>36.8993718815784</v>
+        <v>34.73751929891741</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2.838197698307859</v>
+        <v>5.632861670998416</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>39.10167092011869</v>
+        <v>37.76892110453923</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.68803443587322</v>
+        <v>25.17788544093518</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.75004377184376</v>
+        <v>23.8988102616455</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.15443676146668</v>
+        <v>35.64108472622144</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.32803430954463</v>
+        <v>40.05423452887783</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.873145860286762</v>
+        <v>9.650512471344296</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>17.75303644254424</v>
+        <v>19.22188338656757</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.42375330551706</v>
+        <v>25.08869129892301</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>9.624089583296232</v>
+        <v>12.3508418892331</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.07859340837262</v>
+        <v>23.35921250227639</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.04389369809662</v>
+        <v>32.7415275142112</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>1.389801372502518</v>
+        <v>4.083402581874576</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>7.91284348008698</v>
+        <v>10.44681084871917</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>13.30992289634516</v>
+        <v>15.42333541006696</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.79750279550219</v>
+        <v>5.691332493964392</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.60892382401667</v>
+        <v>22.75657948677327</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.88243689373658</v>
+        <v>39.3598218773632</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.81547350475243</v>
+        <v>26.67363484890643</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.39098022178064</v>
+        <v>44.81088869486106</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>52.30880434590595</v>
+        <v>50.13776925132219</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.497780208360641</v>
+        <v>8.872649855981908</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>19.55122869065266</v>
+        <v>21.34927418996375</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.64429511520258</v>
+        <v>32.82415899351832</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>59.9734783566221</v>
+        <v>56.44188410844288</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.97579416607729</v>
+        <v>53.95812374798743</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>66.81442667057128</v>
+        <v>62.79951572891054</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>63.77824504459229</v>
+        <v>59.82730773194745</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.57476280335715</v>
+        <v>16.85219145908583</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>60.63655351943822</v>
+        <v>57.12625901266598</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>63.39903605746808</v>
+        <v>59.51379276219598</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.04026892096751</v>
+        <v>20.84723991720728</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.58528698260628</v>
+        <v>38.44475137412211</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>42.58565522703498</v>
+        <v>41.30292930748104</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>2.32276226170401</v>
+        <v>5.778059068095267</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.43918431759202</v>
+        <v>41.48134587951693</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.15820890817639</v>
+        <v>42.74790064636331</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>4.856121352570593</v>
+        <v>7.717985200929952</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>65.03656418950439</v>
+        <v>61.65366016945239</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>67.33692164016392</v>
+        <v>63.28006076793945</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>75.38101346461639</v>
+        <v>70.72762550552935</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>81.00216651536277</v>
+        <v>74.75030389493801</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>83.95016005130282</v>
+        <v>77.86370411631833</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>16.9085899184678</v>
+        <v>17.70743236871801</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>75.35982603372278</v>
+        <v>70.17613250872108</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>76.70184330387571</v>
+        <v>71.74206469837513</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.27392774971528</v>
+        <v>58.41316914773009</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>49.63320743247351</v>
+        <v>47.1081196900155</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.97283605617953</v>
+        <v>54.42865732626812</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>63.76705139413282</v>
+        <v>59.701514189863</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>9.460509957716752</v>
+        <v>10.98144395616921</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>53.68353698703162</v>
+        <v>51.24385714922714</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>61.22188062683652</v>
+        <v>57.37919148626136</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>10.41386665668897</v>
+        <v>13.0610536223687</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>35.02037659647651</v>
+        <v>34.5176904729211</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.28530867293381</v>
+        <v>40.67012601896019</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>2.023117789033577</v>
+        <v>4.987695200639209</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.87967276563928</v>
+        <v>36.42328741868987</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>46.03297510713836</v>
+        <v>43.9423185770202</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>5.659143245355882</v>
+        <v>7.894442615955374</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>57.8167324023452</v>
+        <v>54.84371568634556</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>72.3947001156825</v>
+        <v>67.30980107227626</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>69.38558481897206</v>
+        <v>65.08946655412703</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>77.6128876342658</v>
+        <v>72.83310614897255</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>87.48839324776284</v>
+        <v>80.84282189778216</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.593114975035057</v>
+        <v>11.96968687848704</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>68.47060403003184</v>
+        <v>65.60251406443636</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>76.90162560343964</v>
+        <v>71.98055853207296</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>57.29307470951495</v>
+        <v>53.15615626318892</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.97019190283353</v>
+        <v>28.80507655247409</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.28162616561254</v>
+        <v>35.46792143522926</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>45.93365968896116</v>
+        <v>44.28402139628901</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>5.471980785914347</v>
+        <v>7.998231923065031</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.95733474776722</v>
+        <v>29.10983339816242</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>54.81689185686767</v>
+        <v>52.06028473596983</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>6.543362376982969</v>
+        <v>10.13941199455072</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.68881189498539</v>
+        <v>31.39984786111902</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>42.8477307071368</v>
+        <v>41.45768221205215</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1.050444613979895</v>
+        <v>4.837453017383417</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.14640089616293</v>
+        <v>30.36379796227636</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>45.11099024835347</v>
+        <v>43.27487154816731</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>1.782040236520253</v>
+        <v>4.923696637151799</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>47.17043770691332</v>
+        <v>45.64967454983864</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>70.20990707978473</v>
+        <v>65.53713858695937</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>52.28450807931748</v>
+        <v>50.85344043062278</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>64.40122407129735</v>
+        <v>62.03699162318949</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>84.83368580346098</v>
+        <v>78.72356099175082</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>6.51036683654948</v>
+        <v>9.411383644355329</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>59.29390327506803</v>
+        <v>57.32841273841034</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>77.05971148855987</v>
+        <v>72.27152769603924</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.732</v>
+        <v>14.812</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.764</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.98</v>
+        <v>12.357</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.216</v>
+        <v>4.049</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.48294146927337</v>
+        <v>11.77870325629031</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.27747173887111</v>
+        <v>9.216480110163364</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.90224789111312</v>
+        <v>22.47209300239131</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.751429133830225</v>
+        <v>3.224904100707331</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.17156333000658</v>
+        <v>20.54486042080518</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.74775227080886</v>
+        <v>23.72657224687234</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.199118173220338</v>
+        <v>6.335576303982435</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.49237301259779</v>
+        <v>34.05539535089503</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.49664317011648</v>
+        <v>34.76033355611568</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.4554421611301</v>
+        <v>10.81486933137558</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.39139019013714</v>
+        <v>13.54574861579402</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.79170796822262</v>
+        <v>14.12717683292281</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.8724918193833</v>
+        <v>24.47988802054974</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.50368578807805</v>
+        <v>15.93608134527665</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.5899479465601</v>
+        <v>34.42617317190291</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.15938846361197</v>
+        <v>15.07368368563053</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.47066240515253</v>
+        <v>23.06671494884421</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.15505854097999</v>
+        <v>36.78615678258291</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.67544682752732</v>
+        <v>10.0747602497142</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.83299603444305</v>
+        <v>17.18833537638158</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.37769221180281</v>
+        <v>19.61483788665938</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.831814987570347</v>
+        <v>2.519934930278517</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.97586309236928</v>
+        <v>19.97592747241806</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.78189751853967</v>
+        <v>20.74374772661355</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.14239185816342</v>
+        <v>21.71298337703822</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.45532325972265</v>
+        <v>24.78534191557924</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.844860724255618</v>
+        <v>2.774817233680583</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.56035798005719</v>
+        <v>31.29333500413738</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.78393095297192</v>
+        <v>29.9939026773832</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8.039502002496707</v>
+        <v>5.788064561521988</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>40.1151431737285</v>
+        <v>34.96460872017162</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.89294351559257</v>
+        <v>34.32955623344824</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.16166941689741</v>
+        <v>37.41611000213816</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.24872803972808</v>
+        <v>39.68495349176197</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.33843315830846</v>
+        <v>43.57140332754428</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.74891899222673</v>
+        <v>31.72925585997817</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.15609332812376</v>
+        <v>40.49079180939228</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.74705578453829</v>
+        <v>42.18285530588678</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.84995166380764</v>
+        <v>19.99970878322299</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.19950590677568</v>
+        <v>34.54293944658041</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.74579472648691</v>
+        <v>38.72592114418688</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11.00797417624719</v>
+        <v>11.33306893031891</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.14574495115833</v>
+        <v>36.72436254191727</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>39.54774167618231</v>
+        <v>42.9902413644636</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>45.57829309717192</v>
+        <v>53.04039469169061</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8.544752217816388</v>
+        <v>6.069694918395818</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>18.95269354309198</v>
+        <v>16.57484187236553</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.03146652788316</v>
+        <v>22.24053219072276</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.68186782426039</v>
+        <v>1.195997220672208</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.64483000840621</v>
+        <v>31.99909416396529</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.52555566711048</v>
+        <v>31.98827318959259</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.439704140191235</v>
+        <v>7.702501295987968</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>40.01651374510487</v>
+        <v>42.24100487181171</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.12769976791809</v>
+        <v>44.57274908106598</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.70028960208916</v>
+        <v>44.45517522207025</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.39838011588586</v>
+        <v>44.71079669886833</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.45195814272604</v>
+        <v>51.5696828660877</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.32019987023785</v>
+        <v>13.61385052335889</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.84222449056858</v>
+        <v>27.06396065535142</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.24198233459823</v>
+        <v>33.5221026726419</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.17785244617115</v>
+        <v>14.45505162307916</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.10135202444895</v>
+        <v>32.75971118189017</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.85385163188534</v>
+        <v>37.37381015101187</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10.75849417611531</v>
+        <v>7.629119172640426</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.87400655114945</v>
+        <v>27.44925862976064</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>39.43497903361154</v>
+        <v>40.25455171812965</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.261469986783542</v>
+        <v>4.546169127288927</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41.0433488189992</v>
+        <v>44.36710377854679</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.56242840681805</v>
+        <v>2.334902136994831</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>11.7251823546489</v>
+        <v>9.131611073563569</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.85304718554615</v>
+        <v>21.11373927557177</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.589105302448505</v>
+        <v>2.385692088549664</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.89066933682465</v>
+        <v>27.91948531530806</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.90051527175483</v>
+        <v>35.75047550755474</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3.455175156349249</v>
+        <v>2.214900348805866</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.62446598905071</v>
+        <v>39.40940215931517</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.68868253932784</v>
+        <v>43.94022317877118</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>37.9743545941038</v>
+        <v>40.52181652109233</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39.99235673425598</v>
+        <v>41.51346634780494</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.29508927313622</v>
+        <v>48.37299067892567</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>15.07710378988734</v>
+        <v>11.60054102711345</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.6325017212559</v>
+        <v>20.75121902320132</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.1776652449083</v>
+        <v>37.43203256555491</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8.893157967153595</v>
+        <v>7.603545815501231</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>24.71484767876979</v>
+        <v>28.02722598562311</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.5843776857306</v>
+        <v>38.34140403745327</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10.9729242502796</v>
+        <v>10.34167757212106</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.88656326437808</v>
+        <v>28.99455809439501</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>38.71530972834125</v>
+        <v>43.56269035029969</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.762839863121176</v>
+        <v>2.850685341374131</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.85323060925749</v>
+        <v>38.38221771389057</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>21.91936948836969</v>
+        <v>24.74021615793449</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>19.632825009246</v>
+        <v>23.78224106609584</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>39.39140018864633</v>
+        <v>42.20687437422971</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.15140872860498</v>
+        <v>45.23561942835175</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.835474896370982</v>
+        <v>8.145043223367765</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.19819625121855</v>
+        <v>17.31819525633759</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.71296750260753</v>
+        <v>26.10083440287515</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11.66029905622409</v>
+        <v>11.45897271663241</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>19.15725834115828</v>
+        <v>19.81847282492781</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.08918188599552</v>
+        <v>31.93674216906182</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>10.34279536977318</v>
+        <v>6.241568936840547</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.01253987473112</v>
+        <v>16.04655628789228</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>18.52500541563528</v>
+        <v>19.75230249666518</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3.856581476872705</v>
+        <v>1.745197704957512</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.47985556715544</v>
+        <v>19.46694918985263</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.21063440256112</v>
+        <v>32.22429449158704</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>20.62993201066615</v>
+        <v>22.04125983414479</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>46.52826350548068</v>
+        <v>47.82901946650925</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>52.77071138612759</v>
+        <v>54.80155230145765</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6.76021964400319</v>
+        <v>3.898048271898521</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.52819195687438</v>
+        <v>20.92134492808558</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.02933725665283</v>
+        <v>27.77592867891926</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>56.61861817998106</v>
+        <v>61.96558704957209</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>47.60507717921593</v>
+        <v>53.90051195459347</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>61.86737896521308</v>
+        <v>67.25088142214845</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>65.46146103723441</v>
+        <v>71.78022434417154</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.11506232829912</v>
+        <v>21.26075691156461</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>54.69463512333245</v>
+        <v>62.52687833138094</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>57.21780903056182</v>
+        <v>62.44847203947135</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.17251503800972</v>
+        <v>24.28181078403625</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.07389765410672</v>
+        <v>38.82556819799014</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.68914086629677</v>
+        <v>47.28118410466486</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.9310176579474</v>
+        <v>11.65005841159631</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.54957496070895</v>
+        <v>40.91141154959816</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.88490672507402</v>
+        <v>49.1461562389044</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.183764225210911</v>
+        <v>9.102697890833106</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.21166383749568</v>
+        <v>62.8589089638923</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>69.67183255624572</v>
+        <v>74.55434834427385</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>64.85302260459855</v>
+        <v>71.18947322220264</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>78.28778724879996</v>
+        <v>84.705696878577</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>85.20649336121657</v>
+        <v>91.74576789571387</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.02058391909203</v>
+        <v>26.74765473933962</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>72.16793903213616</v>
+        <v>77.62759999957912</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.24289140862678</v>
+        <v>77.96860260184454</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>60.88590721209587</v>
+        <v>64.74971564943539</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>39.41801377974384</v>
+        <v>40.72391230839539</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.10461172842351</v>
+        <v>51.7491182494912</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>62.53021487287127</v>
+        <v>69.65764756368802</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.39316544481229</v>
+        <v>12.7162801986194</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>48.22764994213193</v>
+        <v>53.98640051696563</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.61900676638415</v>
+        <v>15.2038040400899</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.64623421390901</v>
+        <v>33.23377189111235</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>41.84974344090948</v>
+        <v>44.82920845939234</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>10.9896941971333</v>
+        <v>8.321770789747791</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.55974113801166</v>
+        <v>38.72425574460568</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>47.54341202884528</v>
+        <v>49.3331493548225</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6.999774907742463</v>
+        <v>4.200800997704729</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>53.02923634504846</v>
+        <v>58.61767266999121</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>73.97607313785082</v>
+        <v>78.12391149279607</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.01277786002301</v>
+        <v>64.07602714055236</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.43843859815804</v>
+        <v>75.53783235328166</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>86.27106589081902</v>
+        <v>92.3037040979746</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16.86232001737808</v>
+        <v>15.00931760857749</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>62.92741428512745</v>
+        <v>63.95544396093824</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>70.97212467532216</v>
+        <v>72.80489031729316</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>52.9238570737641</v>
+        <v>58.43735467419958</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>23.69852345025052</v>
+        <v>25.92653201256844</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.34757256431099</v>
+        <v>32.46291591235345</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>43.01572108412665</v>
+        <v>49.46218811758368</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.017695280594513</v>
+        <v>9.96268788389847</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>42.75424089962294</v>
+        <v>45.41423265046146</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>49.78505790482225</v>
+        <v>54.61704767971733</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>12.43544169036148</v>
+        <v>10.38990802473998</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>30.08320446894139</v>
+        <v>33.58199973286297</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>44.75513962715476</v>
+        <v>49.63764239172467</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>12.36972619701404</v>
+        <v>11.91208903621722</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.09743474875163</v>
+        <v>39.77062149888604</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>50.89739696410369</v>
+        <v>54.00793708716262</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.08998315270253</v>
+        <v>3.746803423528888</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.9984687866866</v>
+        <v>51.33133572140106</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>72.21303454065989</v>
+        <v>76.86441264971445</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.35201712862241</v>
+        <v>57.63690192054479</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>65.82288237815794</v>
+        <v>69.91007848880092</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>86.04574796392168</v>
+        <v>92.34724567400056</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.73041008774464</v>
+        <v>13.83992049195932</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>58.85615732996246</v>
+        <v>62.21215491402003</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>73.59242937837539</v>
+        <v>76.43424867357716</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>20.13160387192926</v>
+        <v>18.49233450469901</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>27.74461377605071</v>
+        <v>35.66276346007631</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>42.26840916070527</v>
+        <v>49.4762996082405</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>8.60953266182441</v>
+        <v>3.659018152813228</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.13059023460227</v>
+        <v>43.81997035076294</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>40.20967907358697</v>
+        <v>50.55589426968403</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>12.20657421018734</v>
+        <v>8.953490151766363</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>61.85215974960958</v>
+        <v>84.24516996192605</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>66.26522578111579</v>
+        <v>83.11774778711984</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.92701850680631</v>
+        <v>40.41871470573195</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32.64619267773659</v>
+        <v>45.60458988256715</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.1122458021745</v>
+        <v>43.33815543362039</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21.45076431854269</v>
+        <v>21.0848283164009</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.89767551802465</v>
+        <v>40.23135003150143</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>50.30564603159173</v>
+        <v>68.44434595983392</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20.56326758766889</v>
+        <v>19.13474119896269</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.38269605208843</v>
+        <v>34.24180917844248</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>38.09907884770395</v>
+        <v>39.79037583301184</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>7.954506883313012</v>
+        <v>-2.370949087043453</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>21.05003846290808</v>
+        <v>17.61604829988359</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.38181557024123</v>
+        <v>21.27505126801624</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.10946057804685</v>
+        <v>-0.3413799485458924</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.91866848613792</v>
+        <v>37.18839644843498</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>27.92512550141329</v>
+        <v>37.10756451787666</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>45.19780768802774</v>
+        <v>61.62944681334807</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.55739871201149</v>
+        <v>60.31973709436001</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>9.715289515146154</v>
+        <v>9.844612700027479</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>46.8915372400655</v>
+        <v>64.37129471211178</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>48.28439782532593</v>
+        <v>60.87288133235937</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>12.0549964280586</v>
+        <v>11.53732642567583</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>69.28476168469624</v>
+        <v>93.94200975572885</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>65.70316517513476</v>
+        <v>83.67179711180823</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>58.76528463262373</v>
+        <v>79.2243242298462</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>66.09225824354907</v>
+        <v>90.43291659184068</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>64.28004101170609</v>
+        <v>84.09067444744764</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>26.50518724746977</v>
+        <v>34.0961291426762</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>51.18445469695178</v>
+        <v>69.58245493281488</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>59.87880825552422</v>
+        <v>77.60792321209286</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>27.01730757348096</v>
+        <v>28.84575655407696</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.85741204998962</v>
+        <v>51.09567327811602</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>42.23206636253131</v>
+        <v>48.94291175019529</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>8.145924774079408</v>
+        <v>3.759053159957318</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.25754115644879</v>
+        <v>41.33625444768672</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>39.69726076746331</v>
+        <v>43.46496669720329</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>11.03779840056396</v>
+        <v>7.494568176792473</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>60.44371038768696</v>
+        <v>68.97528203139403</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.67396952930427</v>
+        <v>11.9283010492106</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.66222730142337</v>
+        <v>44.26794579883385</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.93631051312097</v>
+        <v>45.68501438172066</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>8.492962539081542</v>
+        <v>4.824176632136162</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>45.73050609599601</v>
+        <v>61.14543533515712</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>45.82754285089143</v>
+        <v>57.8934761943345</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>10.78837269247589</v>
+        <v>6.798749575521899</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>65.06474362249435</v>
+        <v>90.69144401832077</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>64.24808476525959</v>
+        <v>82.60974566350862</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>69.9458185011076</v>
+        <v>95.56777945798635</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>77.91892836913722</v>
+        <v>106.2929769882221</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>72.08206857073412</v>
+        <v>97.20410878970429</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>10.80054526735156</v>
+        <v>8.222480749780601</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>34.78764520933309</v>
+        <v>47.12981268164639</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>43.17561470806086</v>
+        <v>58.49928435392215</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>20.07887042465384</v>
+        <v>20.56960764533682</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>40.35485490115721</v>
+        <v>47.15922713061698</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>41.03608995162948</v>
+        <v>46.1141049852569</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>7.822350446759071</v>
+        <v>2.884047719965331</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>36.29195635497043</v>
+        <v>39.54520063062289</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.22430006154819</v>
+        <v>44.90935908502613</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>9.961667616901185</v>
+        <v>7.225176806970563</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>55.15395410466497</v>
+        <v>67.20964026566003</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>11.29904865555325</v>
+        <v>7.012998544326742</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.02284461407205</v>
+        <v>37.73627589474854</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>38.49325974298808</v>
+        <v>47.57867948144204</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>9.506831561387482</v>
+        <v>9.432784649319796</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>48.20294440333264</v>
+        <v>61.90112930888372</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>53.07395653804515</v>
+        <v>68.05757043568794</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>9.336865011564925</v>
+        <v>9.432635493396718</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>69.65416803585809</v>
+        <v>96.87766124493064</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>69.51947855300662</v>
+        <v>93.75614038936504</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>67.6823369698009</v>
+        <v>89.92776843348804</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>73.90515443189258</v>
+        <v>99.46515009525336</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>74.78386964182678</v>
+        <v>98.94743496360714</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>10.20100352717744</v>
+        <v>10.16961812729175</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.63295147055966</v>
+        <v>45.98558418310442</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>48.19460943084805</v>
+        <v>64.70256298278245</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>15.55518384033043</v>
+        <v>14.93311971921468</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>37.49056622557203</v>
+        <v>42.38325410466429</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>41.89245049960446</v>
+        <v>47.65732764182998</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>8.125185617208032</v>
+        <v>4.239961829997412</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.56486579440432</v>
+        <v>38.9517445333713</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>41.44152283058688</v>
+        <v>48.47717139831331</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>9.909811653012515</v>
+        <v>7.459907966097486</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>52.39307879968619</v>
+        <v>61.88584869645931</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>36.50259423452123</v>
+        <v>40.69478071139832</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>32.41301143028237</v>
+        <v>35.21213405570249</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>44.32681803393179</v>
+        <v>49.73569811303818</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>49.19193689777252</v>
+        <v>51.18936706216742</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>17.16005129592659</v>
+        <v>15.22177889646365</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>32.66515701941558</v>
+        <v>36.21170003485936</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>39.25519214244222</v>
+        <v>46.56516213763501</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.07790223346449</v>
+        <v>17.34026289790972</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.91740361840085</v>
+        <v>32.84853760058549</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>39.34685118280017</v>
+        <v>44.36095693163777</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>7.688772477544045</v>
+        <v>1.264643629496316</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>17.98279370101659</v>
+        <v>20.72521578544349</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.09832650848456</v>
+        <v>31.41110197941619</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>11.28322359998094</v>
+        <v>9.147601300701119</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>37.2583480763943</v>
+        <v>47.63425135479021</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>57.57471052892093</v>
+        <v>67.46376447055529</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.63364637808735</v>
+        <v>44.13197631729525</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>53.41849994660942</v>
+        <v>60.61079927986714</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>59.02250041889825</v>
+        <v>67.32493990521793</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>15.41112134631132</v>
+        <v>15.99876953079091</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>33.59543505944571</v>
+        <v>38.43272958933211</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>45.5704388024851</v>
+        <v>55.96848914405938</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>63.73717100187304</v>
+        <v>70.91138057281745</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>61.88260316078954</v>
+        <v>68.6691789512177</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>68.71301206858051</v>
+        <v>79.21604223498645</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>68.3664285922427</v>
+        <v>77.06381757185535</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.56760154593474</v>
+        <v>27.33120754882438</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>64.29822921694658</v>
+        <v>75.55456659926219</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>63.79375005250839</v>
+        <v>74.27783493275633</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.04268588839951</v>
+        <v>29.13445704932596</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>44.09284220200343</v>
+        <v>51.53685763964366</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>43.37998671239914</v>
+        <v>48.94148426022669</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>8.075855230351188</v>
+        <v>3.688075571554247</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.36530503472732</v>
+        <v>46.92952433020642</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>42.70047227157139</v>
+        <v>46.18200805182956</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>9.61702303709615</v>
+        <v>8.11259394343822</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>65.51660580073494</v>
+        <v>78.03537888023877</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>64.55122647727283</v>
+        <v>78.59000475003337</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>69.40234191378902</v>
+        <v>83.62020582395671</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>73.6181340535712</v>
+        <v>90.77406091926021</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>72.58127269505488</v>
+        <v>88.29478233315685</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.68105506180244</v>
+        <v>28.11222478115883</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>69.74829981192408</v>
+        <v>85.58963252331638</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>71.87118238213625</v>
+        <v>85.00487909752631</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>61.85993900540397</v>
+        <v>75.47263869736881</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>56.01545487620346</v>
+        <v>67.2552534719801</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>65.79402338549784</v>
+        <v>78.17490941221233</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>67.16036302520169</v>
+        <v>80.56068734061017</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>18.14439157044158</v>
+        <v>15.80513814378325</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>61.30397515012559</v>
+        <v>72.09849502186746</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>61.34021057535839</v>
+        <v>72.11074400050002</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.60224494803698</v>
+        <v>18.63486802970724</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>39.23826164341391</v>
+        <v>46.06113501356604</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>39.75308693559538</v>
+        <v>44.53129387561656</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>7.358381423184404</v>
+        <v>0.749099196960227</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.63906174076617</v>
+        <v>47.98073840896109</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>41.08555949690607</v>
+        <v>46.64367636141029</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>9.811758005634097</v>
+        <v>3.547105340932724</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>64.6936403740856</v>
+        <v>76.61379969749932</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>64.20359844373395</v>
+        <v>79.25572213253878</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>70.60793693972458</v>
+        <v>85.95103202038628</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>75.33758475549661</v>
+        <v>93.30468689940764</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>75.60240254822051</v>
+        <v>93.66660139084856</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>17.09986253813172</v>
+        <v>12.19796818658485</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>70.38001826629329</v>
+        <v>81.16259982400749</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>71.84772561079427</v>
+        <v>82.08263725704964</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>64.7365733871014</v>
+        <v>75.08306775941807</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>38.8035018351116</v>
+        <v>49.31930983044101</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>50.16084392275661</v>
+        <v>63.79171076114008</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>57.6164925679127</v>
+        <v>67.98793767230526</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>15.22905949279743</v>
+        <v>15.91541583636734</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>60.13464489098463</v>
+        <v>68.10179822161462</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>64.61716796392585</v>
+        <v>75.61902883759645</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>14.5625316765238</v>
+        <v>9.612781499047687</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>39.91803917490219</v>
+        <v>41.31047723654788</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>43.45516580044224</v>
+        <v>47.60638795252613</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>7.70995329112295</v>
+        <v>1.65553970252547</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.85407469222562</v>
+        <v>44.21225631403012</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>46.56035716545209</v>
+        <v>51.00523145933756</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>8.754069134751415</v>
+        <v>2.622395295751172</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>61.3692727683135</v>
+        <v>70.50498911593961</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>66.27171100363701</v>
+        <v>83.21067749016358</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>65.83826787859135</v>
+        <v>74.70269987678834</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>71.79768849674906</v>
+        <v>87.13232848388657</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>75.88241680686835</v>
+        <v>94.96979987595985</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>13.53556979544589</v>
+        <v>9.715764095289758</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>68.61708421291939</v>
+        <v>76.98862907007263</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>73.5985112399145</v>
+        <v>85.89396805872261</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>13.78765055593617</v>
+        <v>15.13175199540925</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.19490742786012</v>
+        <v>11.10417924039509</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.68082765989871</v>
+        <v>21.20249214436351</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>4.196373651650227</v>
+        <v>0.2148607500119404</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>12.99349814656467</v>
+        <v>9.89957799335702</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>14.4379266942283</v>
+        <v>12.95864573661505</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>8.925089091646381</v>
+        <v>5.611308840702762</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.38079805351581</v>
+        <v>25.66332458275842</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.82219277175218</v>
+        <v>26.40743770253817</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>14.21069790608636</v>
+        <v>10.2662247210908</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>18.17526369315595</v>
+        <v>14.64394766755009</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.06404099581625</v>
+        <v>17.10710524831972</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.41553042299027</v>
+        <v>23.45298809042579</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.074845495041</v>
+        <v>20.36065420417303</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.2774521177441</v>
+        <v>32.85173041663582</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>12.55811344626248</v>
+        <v>11.66590175573783</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24.63770358835738</v>
+        <v>20.03431375308868</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.07444715897996</v>
+        <v>32.93660144269735</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>2.847427318522747</v>
+        <v>-1.640780802543826</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>7.665728511215232</v>
+        <v>5.214834496797142</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.48420832965937</v>
+        <v>8.462944634284732</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>3.848879398455296</v>
+        <v>-1.984156825003431</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.18743849220145</v>
+        <v>13.45324796825735</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>18.07358245589428</v>
+        <v>20.31291880933277</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.24240935716392</v>
+        <v>21.74858804483432</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.82287829057287</v>
+        <v>22.93837310215869</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>5.064129415641215</v>
+        <v>-0.2850460815782512</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.0384948220159</v>
+        <v>22.96258511084178</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.58782602555745</v>
+        <v>22.32043659876219</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>8.907076032807453</v>
+        <v>4.482346310973799</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.54553799712089</v>
+        <v>30.91087466369251</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>33.72350769725175</v>
+        <v>30.00995851164452</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.10575281252395</v>
+        <v>34.54929762279701</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.05651182784419</v>
+        <v>40.50760283515972</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.43220181775927</v>
+        <v>43.94118446099536</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.75173015965195</v>
+        <v>29.83483466241046</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>41.20618662855522</v>
+        <v>48.32551841491996</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>45.05316114054445</v>
+        <v>47.05286672949249</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>15.69705933747955</v>
+        <v>15.88342399326534</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.29690755503189</v>
+        <v>32.70687819827606</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>37.94286020265463</v>
+        <v>39.42372412944485</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>3.746720130774605</v>
+        <v>3.223823742150412</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.76567099706901</v>
+        <v>29.77876743100586</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>39.60178424592738</v>
+        <v>41.15263131454534</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>5.794531069974724</v>
+        <v>6.204308274075768</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>46.20923369507301</v>
+        <v>50.64509031905592</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.748105762051775</v>
+        <v>6.245607264857643</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.43010662837565</v>
+        <v>15.17619819757498</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>18.92940530273373</v>
+        <v>19.70366236878138</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>3.002671585392566</v>
+        <v>-1.24044480538188</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.95654896775695</v>
+        <v>22.73730281169084</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.23687193140843</v>
+        <v>24.85840347717523</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.818437265999503</v>
+        <v>5.74654222058501</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>33.51796571586144</v>
+        <v>35.25780860579068</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>36.14353529002612</v>
+        <v>38.81525983684708</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>37.09043207540068</v>
+        <v>40.6055005311562</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>39.39985456740256</v>
+        <v>42.87427546310765</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>44.68725211013401</v>
+        <v>48.9888400131379</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>18.78755650159898</v>
+        <v>14.96804139118493</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>31.94333191672902</v>
+        <v>32.49427350403241</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>36.35518883670504</v>
+        <v>38.72034794895232</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.344318649658685</v>
+        <v>8.445420101536424</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>27.46628142370788</v>
+        <v>26.20111902309521</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>37.06079895799659</v>
+        <v>36.32432651254536</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2.729481001005674</v>
+        <v>-2.676417913546643</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>19.62930032905241</v>
+        <v>16.11496189082613</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.93588206504646</v>
+        <v>36.97107590697449</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>4.218571100043146</v>
+        <v>-0.666552307308045</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.75888131442735</v>
+        <v>34.32272534676371</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>8.060997089331469</v>
+        <v>4.507222496382123</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>14.23464363431427</v>
+        <v>9.090654102148942</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>18.03497262247144</v>
+        <v>18.78711459139838</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>3.366997026791061</v>
+        <v>-1.228661012854239</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.64268487779339</v>
+        <v>15.99134921471127</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.37394704301121</v>
+        <v>25.76347623496636</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>5.203882465213272</v>
+        <v>0.8491086342660985</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.23056752085748</v>
+        <v>29.78618370251848</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>35.05296457969644</v>
+        <v>35.62518010964486</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.17898345779463</v>
+        <v>32.13145999919003</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>32.82465897922626</v>
+        <v>34.80401872003439</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.50880240303062</v>
+        <v>39.93362264184857</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>18.4207443577762</v>
+        <v>15.14679255145271</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.67609607493057</v>
+        <v>27.74678525045955</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>36.95090139225393</v>
+        <v>38.78216918808752</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>7.163633790380018</v>
+        <v>4.655094954710034</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>23.03667245252041</v>
+        <v>22.82203916826997</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.33087079351186</v>
+        <v>37.69841120174429</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>3.45497424926689</v>
+        <v>0.8108707488897551</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>18.6266848676223</v>
+        <v>16.86822920376337</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>37.9910244720633</v>
+        <v>38.07746231506877</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>3.541120872893995</v>
+        <v>0.4623115922979082</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.42986357962249</v>
+        <v>29.43532421403766</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.9772074957924</v>
+        <v>19.95103374376772</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>20.09717520515549</v>
+        <v>20.04262167816718</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>37.94248367654389</v>
+        <v>36.10603756484029</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>44.87738948219844</v>
+        <v>42.14816742087187</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>5.773566657976868</v>
+        <v>1.120869051046132</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.51810744098005</v>
+        <v>10.91193729284967</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.22983475925819</v>
+        <v>21.57575504830522</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.03811301406003</v>
+        <v>11.83295487041205</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.85061247570466</v>
+        <v>20.20289203801537</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.55008338437096</v>
+        <v>29.65366114954983</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>2.546320243050076</v>
+        <v>-4.067823843635331</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>6.439672308216537</v>
+        <v>4.677641263776628</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>10.1442600265412</v>
+        <v>9.074133608082452</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>4.533545828434843</v>
+        <v>-0.1270641152577063</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16.83921022107501</v>
+        <v>15.98522631270084</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.42766430000389</v>
+        <v>25.71401255836971</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.27753688305805</v>
+        <v>19.54117199014093</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.75592525961501</v>
+        <v>39.3198550454857</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>45.85197136692477</v>
+        <v>46.00185217260579</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>7.328187924695683</v>
+        <v>3.350115124036893</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>16.75835637304992</v>
+        <v>16.54662337598767</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>23.90537058195919</v>
+        <v>22.26598518203627</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>60.6712635404277</v>
+        <v>63.95650117024074</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>49.44532616547241</v>
+        <v>52.40639711892541</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.46412404085108</v>
+        <v>66.47847657188285</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>67.74960753490677</v>
+        <v>73.28271944336561</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>15.12402082398584</v>
+        <v>15.52961748183147</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>59.99456208718543</v>
+        <v>63.06004678159256</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>66.00573451479687</v>
+        <v>67.699650058483</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.31445417249058</v>
+        <v>25.10230539377042</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>40.95284017285957</v>
+        <v>41.34787765621492</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.75338713121309</v>
+        <v>47.73412540498578</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>5.54167473950924</v>
+        <v>5.16895230702162</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.29735739093491</v>
+        <v>35.16090714094328</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>45.93121338341351</v>
+        <v>45.31959632265437</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>11.54501357322656</v>
+        <v>11.59231520736182</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>61.35854556649778</v>
+        <v>64.9801150570743</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>68.62513720282031</v>
+        <v>72.53736338036086</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>71.52515656661757</v>
+        <v>77.05545530273034</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>79.81450122957804</v>
+        <v>85.44325149770219</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>84.47964847363986</v>
+        <v>91.58235732800186</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.97766980103747</v>
+        <v>29.9672508470179</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>76.58065528238438</v>
+        <v>80.94223955773163</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>79.78555466722797</v>
+        <v>83.10401312960529</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>62.58021529246093</v>
+        <v>63.3711965070473</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.17925057659222</v>
+        <v>33.72541257519744</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>47.71471360949299</v>
+        <v>47.83865064600901</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>66.34916532822021</v>
+        <v>69.10238114937543</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>7.006024077207901</v>
+        <v>4.568216616227186</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>50.14684401354436</v>
+        <v>50.66758162935766</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>61.30424772925231</v>
+        <v>62.98224536876525</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>14.56170752709586</v>
+        <v>14.09135232200978</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34.51801184143899</v>
+        <v>33.03007075869359</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>43.08359772280627</v>
+        <v>44.219301335311</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>3.414228033509893</v>
+        <v>-0.3187354912890079</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.73432282878067</v>
+        <v>30.41299727342977</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>45.70121839681359</v>
+        <v>44.72959787513403</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>6.7707049302721</v>
+        <v>3.403565886197722</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>53.01741128122147</v>
+        <v>56.05425039964557</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>71.24828872127117</v>
+        <v>73.96982856896869</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>63.51420062882021</v>
+        <v>64.00124127272021</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>72.18886204374627</v>
+        <v>73.79901308946762</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>84.68638313645101</v>
+        <v>91.12425266723896</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>17.58730679358815</v>
+        <v>14.74033071855328</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>67.50314626715549</v>
+        <v>66.63221788299295</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>77.36881621058799</v>
+        <v>77.60268345095663</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>57.89752970982748</v>
+        <v>58.4642794277549</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>23.00152878016315</v>
+        <v>19.34245586260698</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.14021801174275</v>
+        <v>27.57975579588157</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>49.01244030904141</v>
+        <v>48.08396453248471</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>6.221712840958293</v>
+        <v>3.883219325288728</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.6437781303116</v>
+        <v>37.25989977437192</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>55.12309550508925</v>
+        <v>54.33556270609559</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>12.10043649118732</v>
+        <v>10.07827194824448</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.52343206820534</v>
+        <v>32.96690902542144</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>44.41292100978869</v>
+        <v>47.98814350849757</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>4.287077127867615</v>
+        <v>2.410442683971493</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.73765044367945</v>
+        <v>29.56362020147235</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>45.75566178570482</v>
+        <v>46.16332883367538</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>4.775375746792772</v>
+        <v>2.50381156945064</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>48.04287534302912</v>
+        <v>47.2222397155184</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>69.75743315060024</v>
+        <v>71.47543751821195</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>52.53445212747461</v>
+        <v>50.75725409947263</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>64.45033217524178</v>
+        <v>63.58280695157045</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>81.85252695890297</v>
+        <v>86.20770497362398</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>14.02198560879171</v>
+        <v>12.46567676301733</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>61.90932250573088</v>
+        <v>61.32998926154562</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>74.83409162612801</v>
+        <v>74.93145709922877</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>18.0539553659573</v>
+        <v>14.7926727324446</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.94378620848246</v>
+        <v>11.87508722114212</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>23.05870248693349</v>
+        <v>19.13069451887396</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.56997157931675</v>
+        <v>2.247930114765474</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>16.78967210099596</v>
+        <v>8.351804868341176</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.31951577374048</v>
+        <v>10.84282938772669</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.44983000078216</v>
+        <v>6.183192865035725</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.77962237135645</v>
+        <v>20.51644836688381</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>24.82968806145222</v>
+        <v>21.56749415305639</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>18.68492379849543</v>
+        <v>9.762845144169708</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.57595747429194</v>
+        <v>14.13929967676186</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.15391879225526</v>
+        <v>17.44432625316506</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.13792914727218</v>
+        <v>13.6295094478542</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>19.67270103027314</v>
+        <v>11.19919371973044</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.95727558296883</v>
+        <v>17.59136183987298</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>18.30874857338086</v>
+        <v>13.68611169080263</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.49740452596913</v>
+        <v>22.76557305681621</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.41517151163644</v>
+        <v>32.34703538643844</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>11.13616124781877</v>
+        <v>1.016326645629903</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>14.79784448895046</v>
+        <v>8.512304565676398</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>17.09594260595403</v>
+        <v>11.61464274286296</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.66698443655884</v>
+        <v>2.297009650960899</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.40117460406298</v>
+        <v>18.20408505411029</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.68245780125795</v>
+        <v>18.55188371476021</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.71221445282806</v>
+        <v>20.63250702464319</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.79662349823878</v>
+        <v>20.65165680648494</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>13.39303510681176</v>
+        <v>1.948558122663265</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.83918625006377</v>
+        <v>19.54390238720394</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.47812865038371</v>
+        <v>19.15186010202085</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>15.31291904076008</v>
+        <v>5.637368959126977</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.44401393371328</v>
+        <v>26.32761131779675</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.62727797312563</v>
+        <v>25.44173159171845</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.43743096881527</v>
+        <v>27.9514528011713</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.14055369148971</v>
+        <v>34.58987859770114</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.77660111739841</v>
+        <v>36.5516187439065</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.20978133136763</v>
+        <v>17.65032558329983</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.29652333478894</v>
+        <v>31.18108923862897</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.70346278253593</v>
+        <v>29.12540969133292</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>19.57810059899314</v>
+        <v>16.43102104369713</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.78812349077198</v>
+        <v>32.74745271198921</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.02500367857164</v>
+        <v>37.96290399164322</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>11.78239679603835</v>
+        <v>4.854558221037575</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.77416367545032</v>
+        <v>28.65364837071157</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>34.17955495884011</v>
+        <v>38.17365877076281</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>13.3386830745963</v>
+        <v>8.300710633154225</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>39.99856887377199</v>
+        <v>47.75352769107141</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>15.29072875692703</v>
+        <v>6.194532120462423</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.49925519333019</v>
+        <v>13.03847218423451</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>20.10136693993531</v>
+        <v>16.5385988923394</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>11.89531656148841</v>
+        <v>0.7054582257156383</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.35307047744543</v>
+        <v>18.01620362288993</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.8926598251667</v>
+        <v>20.24266388426537</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>14.27976164507067</v>
+        <v>5.846082339588733</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.49902756491201</v>
+        <v>27.2058273222806</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.87727760304892</v>
+        <v>30.65535577020908</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.92465292306174</v>
+        <v>32.81230777141484</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.65670632071008</v>
+        <v>36.33787829829406</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.4088083758645</v>
+        <v>39.81845214209872</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>16.49141243818757</v>
+        <v>6.416386333162677</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.21274701199353</v>
+        <v>17.27518462263242</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.44546734092982</v>
+        <v>21.95757779765423</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>14.93273590346181</v>
+        <v>9.189006284941552</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.8917785668107</v>
+        <v>24.8334258873063</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.61238761839006</v>
+        <v>34.36380502361781</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>11.01931246515769</v>
+        <v>-0.4039585334752296</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.0683531186362</v>
+        <v>16.67385044862082</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.04402270539569</v>
+        <v>34.6203621744811</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>12.76392886554213</v>
+        <v>1.886856217180245</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.27168112667943</v>
+        <v>31.64735696856968</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.62247545297243</v>
+        <v>4.911765029956499</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>18.14062341501022</v>
+        <v>8.182493553324978</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>20.04180423939432</v>
+        <v>15.86035516817671</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>11.9120362390454</v>
+        <v>0.2617665661162469</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.91677853961593</v>
+        <v>11.98757626267968</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>23.73993738306703</v>
+        <v>20.44895293067944</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>12.94979634472004</v>
+        <v>2.00361010259574</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.94303844613648</v>
+        <v>22.57538714135094</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.58703946856977</v>
+        <v>28.24206993358039</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.58905088068244</v>
+        <v>24.82696177780411</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.75578290013998</v>
+        <v>28.35998282532783</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.58410586974435</v>
+        <v>31.57003315255472</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>16.34401010253873</v>
+        <v>6.926497551153147</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.09448402099163</v>
+        <v>15.59272579330461</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.12413585430347</v>
+        <v>21.45934398438898</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>14.43257092377809</v>
+        <v>7.078552697607869</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.55069586737899</v>
+        <v>22.70728279439544</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.92355038961069</v>
+        <v>35.75369731833526</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>11.47617404986174</v>
+        <v>2.556781623339543</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.23120027702774</v>
+        <v>17.12070918451318</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.53224736428762</v>
+        <v>35.13012749124154</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>12.38180690843646</v>
+        <v>3.93065355533302</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.04294875157357</v>
+        <v>28.55720252486267</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.16004364993401</v>
+        <v>23.97306281626721</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.7633752452296</v>
+        <v>22.67184902498045</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.59695363573896</v>
+        <v>37.09051939649372</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>39.79919673790742</v>
+        <v>43.66934036596929</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>14.19906191643992</v>
+        <v>4.584249810027774</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>20.56373488968164</v>
+        <v>16.84027892883454</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.79914891729397</v>
+        <v>25.24494866709127</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.26939927621272</v>
+        <v>12.31868289252966</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.89753360585402</v>
+        <v>21.43255196898671</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.14048892021763</v>
+        <v>29.20576266023404</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>10.90412668661533</v>
+        <v>-2.083110588271939</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>13.3200204236847</v>
+        <v>6.053784308098887</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.91482115115615</v>
+        <v>10.67244762400297</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>12.95347049408374</v>
+        <v>1.921087175425043</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>21.36619627829608</v>
+        <v>18.25548340041286</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.85523291251944</v>
+        <v>26.02406334223859</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.96938601283217</v>
+        <v>21.97244660809819</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.69444501737898</v>
+        <v>40.22422387015971</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>40.83956667782296</v>
+        <v>45.01089596209331</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>14.82398127362517</v>
+        <v>5.779878567805863</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>21.02662508646747</v>
+        <v>19.13727347964741</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>24.93468760700859</v>
+        <v>23.91312993362714</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.97596685178707</v>
+        <v>58.94985985503956</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>41.89019015912847</v>
+        <v>48.27721792082023</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>50.98169958361321</v>
+        <v>61.18202510628369</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>53.19698625379105</v>
+        <v>67.53621674421893</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>19.1965963845309</v>
+        <v>15.22571525017151</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>48.06029821813401</v>
+        <v>58.98769585570503</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>51.06374173993395</v>
+        <v>61.76139401847624</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.01286499068523</v>
+        <v>22.92408071783192</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.07664287869043</v>
+        <v>39.45886331403074</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.94181724337698</v>
+        <v>44.75806388345966</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>12.83458355771004</v>
+        <v>6.921809351703573</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.79898933761536</v>
+        <v>34.05530618644931</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>39.29278656331143</v>
+        <v>43.12617871289885</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>17.45288288195468</v>
+        <v>13.14557152083041</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>49.74546991485214</v>
+        <v>60.37695895576205</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>53.68672845429427</v>
+        <v>66.28617020519665</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>55.44810153578673</v>
+        <v>68.77820852095383</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.00369917153655</v>
+        <v>79.03320014827665</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>63.54494021449551</v>
+        <v>82.00720439818404</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.97060938657808</v>
+        <v>27.88232342471943</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>59.87903021034353</v>
+        <v>74.19438082015425</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>61.54879708684962</v>
+        <v>75.83521168790674</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>49.65827851633038</v>
+        <v>57.30773336268845</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.48103028688416</v>
+        <v>33.02477064186583</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>40.89514625216511</v>
+        <v>46.21195241026233</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>52.4317807769652</v>
+        <v>63.89202789216417</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>14.32241165201125</v>
+        <v>5.837531094973585</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.66588884991768</v>
+        <v>48.10354367072875</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>49.19507408109617</v>
+        <v>57.98450640822162</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>17.90535748487033</v>
+        <v>13.54886943908444</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.26936318859348</v>
+        <v>31.64097512332914</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>37.36032435828045</v>
+        <v>41.85151406049313</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>11.35640350517261</v>
+        <v>2.584314315616282</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.41100681848951</v>
+        <v>30.29013895569389</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>39.66370632754474</v>
+        <v>43.40595265080823</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>14.00591993262368</v>
+        <v>6.53684987084295</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.85400392917776</v>
+        <v>52.17148381950594</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>55.43333543479634</v>
+        <v>67.84518350825101</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>50.29550560006997</v>
+        <v>59.62736084112957</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>57.20366018618584</v>
+        <v>70.01196799991911</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>63.55797403162271</v>
+        <v>82.32840231166715</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>21.14115286953017</v>
+        <v>15.10353110130846</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>54.17997093320633</v>
+        <v>62.97047836644029</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>60.08801242553612</v>
+        <v>72.28282599301971</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>46.76769399877395</v>
+        <v>54.25519745965494</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.4624146135714</v>
+        <v>21.34040007519182</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.33056557604781</v>
+        <v>31.07760357217757</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.08363323626686</v>
+        <v>47.55512000481212</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>13.84512611290453</v>
+        <v>6.478382245023479</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.56205175579083</v>
+        <v>37.41374701649094</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>45.36182463124909</v>
+        <v>52.26264241428959</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>17.04861659636234</v>
+        <v>11.22944945469235</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.61815563041032</v>
+        <v>32.31529915658412</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>38.93439845165032</v>
+        <v>45.41253544203566</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>11.97558124433304</v>
+        <v>5.167825326138175</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.33741021373742</v>
+        <v>29.72532692946147</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>39.14811839788109</v>
+        <v>44.15150383299404</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>13.17418818249991</v>
+        <v>6.794814368349225</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.86171182012318</v>
+        <v>46.53317946587691</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>55.35915213390783</v>
+        <v>66.76989603578747</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.06999539274101</v>
+        <v>49.49517527532555</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>53.31656567393583</v>
+        <v>63.10669315556305</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>63.08799997444448</v>
+        <v>79.91008562194932</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>18.41309758968954</v>
+        <v>14.39736749299876</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>50.97720355598864</v>
+        <v>60.03113218154343</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>58.84991144277277</v>
+        <v>70.43715542816187</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>14.02300065057806</v>
+        <v>14.90089632743327</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>20.16866702319082</v>
+        <v>18.95584328886021</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.24693370733122</v>
+        <v>31.79110537040613</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>4.570599328777323</v>
+        <v>-0.9411205266557587</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>15.98247938047462</v>
+        <v>12.22659387586502</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.15882705765648</v>
+        <v>19.26666043466886</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>6.701903361264232</v>
+        <v>2.283943862341996</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.72393812372897</v>
+        <v>40.8269908535162</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>42.68489213400454</v>
+        <v>43.36922792571636</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.36991130959942</v>
+        <v>23.08644146492261</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.11026418204021</v>
+        <v>25.74244475904748</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.60003435479804</v>
+        <v>27.02619525556258</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>12.46852572573887</v>
+        <v>9.188213782093467</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.25486526624716</v>
+        <v>21.36207628656313</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.68759751234115</v>
+        <v>36.27591118431351</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>14.28471539027192</v>
+        <v>14.28261836529159</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.92995953337636</v>
+        <v>26.45495089789378</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.23322283405506</v>
+        <v>32.92292021873313</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>4.146870213776342</v>
+        <v>-0.4594589723856721</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>12.45066445342195</v>
+        <v>11.37958762815873</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>14.53340273113725</v>
+        <v>10.98592818139213</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>5.254502433408167</v>
+        <v>-2.145069725754233</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.27782658465857</v>
+        <v>24.40893270270455</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.47257809284163</v>
+        <v>25.18638921258523</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.95209151061241</v>
+        <v>37.48264673542106</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>34.57810086432575</v>
+        <v>39.96460875980161</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>5.687677431439916</v>
+        <v>5.227427197950899</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.75943793802505</v>
+        <v>37.46510934532588</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>37.43034864657238</v>
+        <v>38.79541189219884</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>7.664860215306334</v>
+        <v>6.874345605668253</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.72397585289359</v>
+        <v>55.37221349319056</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>52.08135395124221</v>
+        <v>53.9091302570092</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>51.89672857535179</v>
+        <v>55.52471083819331</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>56.15507478349553</v>
+        <v>60.92291719303071</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>57.62502420772984</v>
+        <v>62.34784035618834</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>18.30534796780486</v>
+        <v>21.34441318011629</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>52.47073662643518</v>
+        <v>59.02225875330166</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>57.02162098026455</v>
+        <v>61.98589734897433</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>18.92314977441963</v>
+        <v>19.22375909200506</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.72582222836329</v>
+        <v>40.06557952197852</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>35.60084927575287</v>
+        <v>40.30643578928998</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>4.529948959248696</v>
+        <v>4.510816648968913</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.10947299555886</v>
+        <v>36.83763519169662</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.35801521218642</v>
+        <v>38.21819886169821</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>6.449737038285015</v>
+        <v>5.234399769698896</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>51.40948807985426</v>
+        <v>58.88206835223779</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>8.869869506761514</v>
+        <v>7.736105235724111</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.98995755508188</v>
+        <v>25.90261488808725</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.52442037330682</v>
+        <v>32.54735414894453</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>4.580231033403159</v>
+        <v>2.373103314336795</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.649783549303</v>
+        <v>34.37831011780831</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.68365324180955</v>
+        <v>38.98527151772379</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>8.321314565606723</v>
+        <v>6.494831663511693</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>51.21983310914128</v>
+        <v>54.8407944473982</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>52.43088037275551</v>
+        <v>57.59519755532868</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>57.02988798751633</v>
+        <v>62.01433977848428</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>58.51568501996196</v>
+        <v>65.01332654673249</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>61.58166566142735</v>
+        <v>67.91600840974559</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>7.687684899246705</v>
+        <v>3.507137446436488</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.79346557564277</v>
+        <v>40.68627025924906</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>41.23658557188455</v>
+        <v>47.8009839050041</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>12.67895840824809</v>
+        <v>12.98230001182964</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.50156682634365</v>
+        <v>34.02432165077575</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.20099578766396</v>
+        <v>38.17127343868799</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.105998264732555</v>
+        <v>3.103346827458445</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.18490538193191</v>
+        <v>29.39787371930984</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.18568844117267</v>
+        <v>38.33040973617621</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>7.655014626762974</v>
+        <v>4.452075320361892</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>45.37706084973738</v>
+        <v>49.31891784124683</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>6.769879669270058</v>
+        <v>4.741007623939318</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>19.10203398476018</v>
+        <v>17.92122183308303</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.66153163570237</v>
+        <v>32.88723142141833</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>4.349766113024721</v>
+        <v>0.140481064277207</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.07818288993486</v>
+        <v>19.41040707989391</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>38.2694788727047</v>
+        <v>39.70676730050656</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>5.488024348831324</v>
+        <v>1.411386849189228</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>44.992978430177</v>
+        <v>47.77217845752148</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>52.69216066331926</v>
+        <v>57.03244664365053</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.23253405065572</v>
+        <v>52.57411011155378</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>53.0387741420362</v>
+        <v>56.17079071832455</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>58.25512349730987</v>
+        <v>62.70709803424701</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>7.553548837359681</v>
+        <v>3.36190987333427</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.58749444601283</v>
+        <v>33.57343288909189</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.16992994433613</v>
+        <v>49.42242622171035</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>9.391016184326304</v>
+        <v>7.172989092372749</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.75831760057992</v>
+        <v>26.49244788485226</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.39527282661248</v>
+        <v>37.07626200380457</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>5.020958485045529</v>
+        <v>1.163835448241588</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>24.50692391035845</v>
+        <v>20.7323057139945</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.73751929891741</v>
+        <v>35.91061737641127</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>5.632861670998416</v>
+        <v>0.4653073103556054</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.76892110453923</v>
+        <v>36.71689451527374</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.17788544093518</v>
+        <v>26.34031309293548</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.8988102616455</v>
+        <v>24.53187477486192</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.64108472622144</v>
+        <v>37.37506815339307</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>40.05423452887783</v>
+        <v>38.66357613738664</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>9.650512471344296</v>
+        <v>6.735529489088478</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>19.22188338656757</v>
+        <v>15.57884779313919</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.08869129892301</v>
+        <v>26.12820457904017</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>12.3508418892331</v>
+        <v>11.51734743325225</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.35921250227639</v>
+        <v>20.87722705752275</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.7415275142112</v>
+        <v>32.52693285030006</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>4.083402581874576</v>
+        <v>-2.712159223849188</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>10.44681084871917</v>
+        <v>8.815741136351161</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.42333541006696</v>
+        <v>15.2201074658493</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>5.691332493964392</v>
+        <v>0.08262912693074753</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.75657948677327</v>
+        <v>22.91917337600639</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.3598218773632</v>
+        <v>38.70167738873631</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.67363484890643</v>
+        <v>26.78377939620287</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>44.81088869486106</v>
+        <v>44.7028625716146</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.13776925132219</v>
+        <v>51.46408555776924</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>8.872649855981908</v>
+        <v>4.201408517126204</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.34927418996375</v>
+        <v>21.08449695914283</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.82415899351832</v>
+        <v>33.91479941399718</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>56.44188410844288</v>
+        <v>63.16175490028304</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.95812374798743</v>
+        <v>56.01732307352999</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>62.79951572891054</v>
+        <v>67.20022185301664</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>59.82730773194745</v>
+        <v>65.98102876728342</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.85219145908583</v>
+        <v>17.6152948615582</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>57.12625901266598</v>
+        <v>62.65884932140288</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>59.51379276219598</v>
+        <v>64.20334695499078</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.84723991720728</v>
+        <v>22.6089456284151</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>38.44475137412211</v>
+        <v>40.91003194288416</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.30292930748104</v>
+        <v>45.53023300366759</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>5.778059068095267</v>
+        <v>3.572195476712437</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.48134587951693</v>
+        <v>40.80659466396715</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>42.74790064636331</v>
+        <v>45.06771147510172</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>7.717985200929952</v>
+        <v>6.11340304990156</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>61.65366016945239</v>
+        <v>64.5211346512521</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>63.28006076793945</v>
+        <v>71.7578723030776</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>70.72762550552935</v>
+        <v>75.13052878403839</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>74.75030389493801</v>
+        <v>85.439009006286</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>77.86370411631833</v>
+        <v>88.8226951253053</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>17.70743236871801</v>
+        <v>18.31831745512774</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>70.17613250872108</v>
+        <v>77.75007374805843</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>71.74206469837513</v>
+        <v>79.64263829639323</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>58.41316914773009</v>
+        <v>66.12020800011814</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>47.1081196900155</v>
+        <v>48.46466248186885</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>54.42865732626812</v>
+        <v>57.49229460875046</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>59.701514189863</v>
+        <v>66.81405804254265</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>10.98144395616921</v>
+        <v>9.731015144620473</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>51.24385714922714</v>
+        <v>54.16423114044433</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>57.37919148626136</v>
+        <v>62.16518414190082</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>13.0610536223687</v>
+        <v>13.8212861766358</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.5176904729211</v>
+        <v>34.16582301563858</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>40.67012601896019</v>
+        <v>43.27578536640449</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>4.987695200639209</v>
+        <v>0.9620586852964976</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.42328741868987</v>
+        <v>38.51481854330248</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>43.9423185770202</v>
+        <v>46.32243381963334</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>7.894442615955374</v>
+        <v>2.735591850649865</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>54.84371568634556</v>
+        <v>59.87146363905494</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>67.30980107227626</v>
+        <v>75.29326078563427</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>65.08946655412703</v>
+        <v>70.16282510964176</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>72.83310614897255</v>
+        <v>77.53412004986686</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>80.84282189778216</v>
+        <v>92.08845117648364</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>11.96968687848704</v>
+        <v>7.840749454036658</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>65.60251406443636</v>
+        <v>67.85881790920031</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>71.98055853207296</v>
+        <v>76.62417271511448</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>53.15615626318892</v>
+        <v>57.47367721245701</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.80507655247409</v>
+        <v>26.82191830615923</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.46792143522926</v>
+        <v>34.87337668796239</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>44.28402139628901</v>
+        <v>45.43908598474816</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>7.998231923065031</v>
+        <v>3.922984401953027</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.10983339816242</v>
+        <v>25.25644235783118</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>52.06028473596983</v>
+        <v>53.77558210725186</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>10.13941199455072</v>
+        <v>7.259754677268035</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.39984786111902</v>
+        <v>30.04789514134151</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>41.45768221205215</v>
+        <v>45.10152173530865</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>4.837453017383417</v>
+        <v>0.5557887298214972</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.36379796227636</v>
+        <v>30.97442875033217</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>43.27487154816731</v>
+        <v>45.55897753625941</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>4.923696637151799</v>
+        <v>-0.1339777702715672</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>45.64967454983864</v>
+        <v>48.64872323340884</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>65.53713858695937</v>
+        <v>72.32019749685392</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>50.85344043062278</v>
+        <v>53.84765763712377</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>62.03699162318949</v>
+        <v>66.38047764460227</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>78.72356099175082</v>
+        <v>86.71707535774216</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>9.411383644355329</v>
+        <v>5.664880250218907</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>57.32841273841034</v>
+        <v>57.77321157489772</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>72.27152769603924</v>
+        <v>76.50381648024661</v>
       </c>
     </row>
   </sheetData>
